--- a/InputData/trans/BAADTbVT/BAU AvgAnnual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU AvgAnnual Dist Traveled by Veh Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_Artelys/trans/BAADTbVT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{79C8DA45-06D6-4DCA-B929-0C94ED24A24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF355B04-CF39-4D07-9563-C46C0550E3F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ECC07D-89A6-4DF8-B7CE-24FBAFD7FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="3" activeTab="10" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1145,9 +1145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1185,7 +1185,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1291,7 +1291,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1433,7 +1433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1443,7 +1443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964DB6D4-E3BC-4210-972A-F4C8906F80D5}">
   <dimension ref="B11:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2452,8 +2452,8 @@
   </sheetPr>
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3081,127 +3081,127 @@
       </c>
       <c r="B6" s="69">
         <f>Freight_km!B6*About!$C$21</f>
-        <v>98828.972390853916</v>
+        <v>94467.07984962406</v>
       </c>
       <c r="C6" s="69">
         <f>Freight_km!C6*About!$C$21</f>
-        <v>98772.228999615982</v>
+        <v>94465.627990225519</v>
       </c>
       <c r="D6" s="69">
         <f>Freight_km!D6*About!$C$21</f>
-        <v>98712.51782304942</v>
+        <v>94419.265234374994</v>
       </c>
       <c r="E6" s="69">
         <f>Freight_km!E6*About!$C$21</f>
-        <v>98700.839443435645</v>
+        <v>94478.337590361465</v>
       </c>
       <c r="F6" s="69">
         <f>Freight_km!F6*About!$C$21</f>
-        <v>98676.915097585254</v>
+        <v>94521.763960545781</v>
       </c>
       <c r="G6" s="69">
         <f>Freight_km!G6*About!$C$21</f>
-        <v>98714.6801905764</v>
+        <v>94608.557243650052</v>
       </c>
       <c r="H6" s="69">
         <f>Freight_km!H6*About!$C$21</f>
-        <v>98779.744517672603</v>
+        <v>94737.401767441857</v>
       </c>
       <c r="I6" s="69">
         <f>Freight_km!I6*About!$C$21</f>
-        <v>98895.560608846747</v>
+        <v>94935.626953600338</v>
       </c>
       <c r="J6" s="69">
         <f>Freight_km!J6*About!$C$21</f>
-        <v>98993.704507445</v>
+        <v>95129.749635701271</v>
       </c>
       <c r="K6" s="69">
         <f>Freight_km!K6*About!$C$21</f>
-        <v>99061.184850853882</v>
+        <v>95276.886666666673</v>
       </c>
       <c r="L6" s="69">
         <f>Freight_km!L6*About!$C$21</f>
-        <v>99210.868186779218</v>
+        <v>95533.688184746177</v>
       </c>
       <c r="M6" s="69">
         <f>Freight_km!M6*About!$C$21</f>
-        <v>99372.467967495089</v>
+        <v>95758.125762707481</v>
       </c>
       <c r="N6" s="69">
         <f>Freight_km!N6*About!$C$21</f>
-        <v>99486.483055019155</v>
+        <v>95963.374376912994</v>
       </c>
       <c r="O6" s="69">
         <f>Freight_km!O6*About!$C$21</f>
-        <v>99573.020259255602</v>
+        <v>96101.071868227111</v>
       </c>
       <c r="P6" s="69">
         <f>Freight_km!P6*About!$C$21</f>
-        <v>99678.897930094827</v>
+        <v>96195.06374570448</v>
       </c>
       <c r="Q6" s="69">
         <f>Freight_km!Q6*About!$C$21</f>
-        <v>99745.209353318322</v>
+        <v>96313.827628778192</v>
       </c>
       <c r="R6" s="69">
         <f>Freight_km!R6*About!$C$21</f>
-        <v>99814.703397343954</v>
+        <v>96416.000106755615</v>
       </c>
       <c r="S6" s="69">
         <f>Freight_km!S6*About!$C$21</f>
-        <v>99843.70722655172</v>
+        <v>96490.373422482255</v>
       </c>
       <c r="T6" s="69">
         <f>Freight_km!T6*About!$C$21</f>
-        <v>99949.416647532111</v>
+        <v>96692.017308488605</v>
       </c>
       <c r="U6" s="69">
         <f>Freight_km!U6*About!$C$21</f>
-        <v>99980.037370316364</v>
+        <v>96788.031021748058</v>
       </c>
       <c r="V6" s="69">
         <f>Freight_km!V6*About!$C$21</f>
-        <v>100040.39787256003</v>
+        <v>96904.587484762291</v>
       </c>
       <c r="W6" s="69">
         <f>Freight_km!W6*About!$C$21</f>
-        <v>100118.18943576055</v>
+        <v>97043.897424547278</v>
       </c>
       <c r="X6" s="69">
         <f>Freight_km!X6*About!$C$21</f>
-        <v>100179.85950714006</v>
+        <v>97166.58067729084</v>
       </c>
       <c r="Y6" s="69">
         <f>Freight_km!Y6*About!$C$21</f>
-        <v>100246.3695970374</v>
+        <v>97286.844142011832</v>
       </c>
       <c r="Z6" s="69">
         <f>Freight_km!Z6*About!$C$21</f>
-        <v>100339.67848222077</v>
+        <v>97377.227361436395</v>
       </c>
       <c r="AA6" s="69">
         <f>Freight_km!AA6*About!$C$21</f>
-        <v>100402.94021614488</v>
+        <v>97489.725840092709</v>
       </c>
       <c r="AB6" s="69">
         <f>Freight_km!AB6*About!$C$21</f>
-        <v>100437.02446622032</v>
+        <v>97535.554830087844</v>
       </c>
       <c r="AC6" s="69">
         <f>Freight_km!AC6*About!$C$21</f>
-        <v>100504.82942890898</v>
+        <v>97640.662046827812</v>
       </c>
       <c r="AD6" s="69">
         <f>Freight_km!AD6*About!$C$21</f>
-        <v>100558.39384351562</v>
+        <v>97697.049078929485</v>
       </c>
       <c r="AE6" s="69">
         <f>Freight_km!AE6*About!$C$21</f>
-        <v>100609.70133253871</v>
+        <v>97762.064610269677</v>
       </c>
       <c r="AF6" s="69">
         <f>Freight_km!AF6*About!$C$21</f>
-        <v>100635.44386879263</v>
+        <v>97802.93270003653</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -55544,7 +55544,7 @@
   <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -56172,128 +56172,128 @@
         <v>114</v>
       </c>
       <c r="B6" s="82">
-        <f>B35</f>
-        <v>159049.86294959681</v>
+        <f>B33</f>
+        <v>152030.07518796992</v>
       </c>
       <c r="C6" s="82">
-        <f t="shared" ref="C6:AF6" si="1">C35</f>
-        <v>158958.54328511626</v>
+        <f t="shared" ref="C6:AF6" si="1">C33</f>
+        <v>152027.73864603517</v>
       </c>
       <c r="D6" s="82">
         <f t="shared" si="1"/>
-        <v>158862.44743164617</v>
+        <v>151953.125</v>
       </c>
       <c r="E6" s="82">
         <f t="shared" si="1"/>
-        <v>158843.65289567044</v>
+        <v>152048.19277108437</v>
       </c>
       <c r="F6" s="82">
         <f t="shared" si="1"/>
-        <v>158805.15038131044</v>
+        <v>152118.08076100395</v>
       </c>
       <c r="G6" s="82">
         <f t="shared" si="1"/>
-        <v>158865.92742592815</v>
+        <v>152257.76105362183</v>
       </c>
       <c r="H6" s="82">
         <f t="shared" si="1"/>
-        <v>158970.6383427495</v>
+        <v>152465.11627906977</v>
       </c>
       <c r="I6" s="82">
         <f t="shared" si="1"/>
-        <v>159157.02633184803</v>
+        <v>152784.12889175763</v>
       </c>
       <c r="J6" s="82">
         <f t="shared" si="1"/>
-        <v>159314.97367505886</v>
+        <v>153096.53916211292</v>
       </c>
       <c r="K6" s="82">
         <f t="shared" si="1"/>
-        <v>159423.57279443985</v>
+        <v>153333.33333333334</v>
       </c>
       <c r="L6" s="82">
         <f t="shared" si="1"/>
-        <v>159664.46484753749</v>
+        <v>153746.61544350506</v>
       </c>
       <c r="M6" s="82">
         <f t="shared" si="1"/>
-        <v>159924.53456549323</v>
+        <v>154107.8128247174</v>
       </c>
       <c r="N6" s="82">
         <f t="shared" si="1"/>
-        <v>160108.02411927682</v>
+        <v>154438.12855268913</v>
       </c>
       <c r="O6" s="82">
         <f t="shared" si="1"/>
-        <v>160247.29229277774</v>
+        <v>154659.73125270911</v>
       </c>
       <c r="P6" s="82">
         <f t="shared" si="1"/>
-        <v>160417.68593979254</v>
+        <v>154810.99656357389</v>
       </c>
       <c r="Q6" s="82">
         <f t="shared" si="1"/>
-        <v>160524.40386390468</v>
+        <v>155002.12856534694</v>
       </c>
       <c r="R6" s="82">
         <f t="shared" si="1"/>
-        <v>160636.24372129363</v>
+        <v>155166.55928061594</v>
       </c>
       <c r="S6" s="82">
         <f t="shared" si="1"/>
-        <v>160682.92087424698</v>
+        <v>155286.25156707063</v>
       </c>
       <c r="T6" s="82">
         <f t="shared" si="1"/>
-        <v>160853.04374927719</v>
+        <v>155610.76604554863</v>
       </c>
       <c r="U6" s="82">
         <f t="shared" si="1"/>
-        <v>160902.32304101152</v>
+        <v>155765.28518670498</v>
       </c>
       <c r="V6" s="82">
         <f t="shared" si="1"/>
-        <v>160999.46388318739</v>
+        <v>155952.86468915074</v>
       </c>
       <c r="W6" s="82">
         <f t="shared" si="1"/>
-        <v>161124.6573074066</v>
+        <v>156177.06237424546</v>
       </c>
       <c r="X6" s="82">
         <f t="shared" si="1"/>
-        <v>161223.90569746587</v>
+        <v>156374.50199203187</v>
       </c>
       <c r="Y6" s="82">
         <f t="shared" si="1"/>
-        <v>161330.94334469648</v>
+        <v>156568.04733727811</v>
       </c>
       <c r="Z6" s="82">
         <f t="shared" si="1"/>
-        <v>161481.10948567084</v>
+        <v>156713.50507416084</v>
       </c>
       <c r="AA6" s="82">
         <f t="shared" si="1"/>
-        <v>161582.91940908873</v>
+        <v>156894.55388180766</v>
       </c>
       <c r="AB6" s="82">
         <f t="shared" si="1"/>
-        <v>161637.77270941244</v>
+        <v>156968.3085147003</v>
       </c>
       <c r="AC6" s="82">
         <f t="shared" si="1"/>
-        <v>161746.89425304526</v>
+        <v>157137.46223564958</v>
       </c>
       <c r="AD6" s="82">
         <f t="shared" si="1"/>
-        <v>161833.09784897527</v>
+        <v>157228.2083955149</v>
       </c>
       <c r="AE6" s="82">
         <f t="shared" si="1"/>
-        <v>161915.66927413526</v>
+        <v>157332.8407831548</v>
       </c>
       <c r="AF6" s="82">
         <f t="shared" si="1"/>
-        <v>161957.09788321733</v>
+        <v>157398.61161856045</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
@@ -58615,8 +58615,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -58671,7 +58671,7 @@
       </c>
       <c r="B6" s="69">
         <f>'BAADTbVT-freight'!C6</f>
-        <v>98772.228999615982</v>
+        <v>94465.627990225519</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -58700,6 +58700,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -58928,15 +58937,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E81C7721-51FE-4B65-A133-A786E226EB0D}">
   <ds:schemaRefs>
@@ -58949,6 +58949,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657F731C-A1B4-47FF-936A-4B6BCF428667}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -58965,12 +58973,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/BAADTbVT/BAU AvgAnnual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU AvgAnnual Dist Traveled by Veh Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ECC07D-89A6-4DF8-B7CE-24FBAFD7FA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6C4614-D4DF-4212-AA1E-8CADCE6A04EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -427,9 +427,6 @@
     <t>Calculated using pkm, load, and total vehicle stock</t>
   </si>
   <si>
-    <t>Average load (p/movement)</t>
-  </si>
-  <si>
     <t>Annual distance (mio passenger.km)</t>
   </si>
   <si>
@@ -464,6 +461,9 @@
   </si>
   <si>
     <t>Annual Distance (miles/vehicle)</t>
+  </si>
+  <si>
+    <t>Average load (p/movement) pulled from AVLo</t>
   </si>
 </sst>
 </file>
@@ -1447,22 +1447,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" style="2"/>
-    <col min="3" max="3" width="14.81640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="2"/>
+    <col min="1" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -1482,11 +1482,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1494,28 +1494,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="34"/>
       <c r="C17" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1526,43 +1526,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
@@ -1584,18 +1584,18 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="32" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="32" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7">
         <v>2020</v>
@@ -1691,7 +1691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>7424.7620790000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -1949,136 +1949,136 @@
         <v>24283.178680000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
         <f>Passenger_km!B18*About!$C$21</f>
-        <v>1021228.3701688123</v>
+        <v>883005.24787158566</v>
       </c>
       <c r="C4" s="69">
         <f>Passenger_km!C18*About!$C$21</f>
-        <v>1047823.2174196953</v>
+        <v>907898.5757650329</v>
       </c>
       <c r="D4" s="69">
         <f>Passenger_km!D18*About!$C$21</f>
-        <v>1073127.3243281527</v>
+        <v>934059.33807617135</v>
       </c>
       <c r="E4" s="69">
         <f>Passenger_km!E18*About!$C$21</f>
-        <v>1096472.3455648159</v>
+        <v>956320.01835092215</v>
       </c>
       <c r="F4" s="69">
         <f>Passenger_km!F18*About!$C$21</f>
-        <v>1115244.2981712467</v>
+        <v>979624.7937136601</v>
       </c>
       <c r="G4" s="69">
         <f>Passenger_km!G18*About!$C$21</f>
-        <v>1135462.8649426068</v>
+        <v>1006806.2102501926</v>
       </c>
       <c r="H4" s="69">
         <f>Passenger_km!H18*About!$C$21</f>
-        <v>1156432.2656605816</v>
+        <v>1032014.6875184985</v>
       </c>
       <c r="I4" s="69">
         <f>Passenger_km!I18*About!$C$21</f>
-        <v>1178178.5594525712</v>
+        <v>1056650.1659234255</v>
       </c>
       <c r="J4" s="69">
         <f>Passenger_km!J18*About!$C$21</f>
-        <v>1201322.6013206691</v>
+        <v>1081190.1445177891</v>
       </c>
       <c r="K4" s="69">
         <f>Passenger_km!K18*About!$C$21</f>
-        <v>1223313.1506661202</v>
+        <v>1105667.2885777024</v>
       </c>
       <c r="L4" s="69">
         <f>Passenger_km!L18*About!$C$21</f>
-        <v>1245222.7698634961</v>
+        <v>1128857.5726902764</v>
       </c>
       <c r="M4" s="69">
         <f>Passenger_km!M18*About!$C$21</f>
-        <v>1267543.9971076141</v>
+        <v>1151933.2570301746</v>
       </c>
       <c r="N4" s="69">
         <f>Passenger_km!N18*About!$C$21</f>
-        <v>1286842.499566091</v>
+        <v>1176018.092209195</v>
       </c>
       <c r="O4" s="69">
         <f>Passenger_km!O18*About!$C$21</f>
-        <v>1305874.6817116463</v>
+        <v>1197604.7391618907</v>
       </c>
       <c r="P4" s="69">
         <f>Passenger_km!P18*About!$C$21</f>
-        <v>1322912.9700438143</v>
+        <v>1220048.9310044399</v>
       </c>
       <c r="Q4" s="69">
         <f>Passenger_km!Q18*About!$C$21</f>
-        <v>1339733.3443602156</v>
+        <v>1241819.9577050298</v>
       </c>
       <c r="R4" s="69">
         <f>Passenger_km!R18*About!$C$21</f>
-        <v>1357373.3905406848</v>
+        <v>1264373.1061496306</v>
       </c>
       <c r="S4" s="69">
         <f>Passenger_km!S18*About!$C$21</f>
-        <v>1373894.881423427</v>
+        <v>1288308.2887845978</v>
       </c>
       <c r="T4" s="69">
         <f>Passenger_km!T18*About!$C$21</f>
-        <v>1396776.896507446</v>
+        <v>1310797.0833795799</v>
       </c>
       <c r="U4" s="69">
         <f>Passenger_km!U18*About!$C$21</f>
-        <v>1413038.1744031028</v>
+        <v>1333527.6661313067</v>
       </c>
       <c r="V4" s="69">
         <f>Passenger_km!V18*About!$C$21</f>
-        <v>1429803.1885751854</v>
+        <v>1357321.7695006693</v>
       </c>
       <c r="W4" s="69">
         <f>Passenger_km!W18*About!$C$21</f>
-        <v>1448482.3198774201</v>
+        <v>1381395.2098159289</v>
       </c>
       <c r="X4" s="69">
         <f>Passenger_km!X18*About!$C$21</f>
-        <v>1467594.2745462942</v>
+        <v>1406874.2337066596</v>
       </c>
       <c r="Y4" s="69">
         <f>Passenger_km!Y18*About!$C$21</f>
-        <v>1486444.2929120741</v>
+        <v>1432020.5275755881</v>
       </c>
       <c r="Z4" s="69">
         <f>Passenger_km!Z18*About!$C$21</f>
-        <v>1504473.1609682615</v>
+        <v>1457430.8567162212</v>
       </c>
       <c r="AA4" s="69">
         <f>Passenger_km!AA18*About!$C$21</f>
-        <v>1525620.041783446</v>
+        <v>1482272.9619840025</v>
       </c>
       <c r="AB4" s="69">
         <f>Passenger_km!AB18*About!$C$21</f>
-        <v>1545861.0287178576</v>
+        <v>1508955.8261003906</v>
       </c>
       <c r="AC4" s="69">
         <f>Passenger_km!AC18*About!$C$21</f>
-        <v>1562756.9524345016</v>
+        <v>1534434.3073785617</v>
       </c>
       <c r="AD4" s="69">
         <f>Passenger_km!AD18*About!$C$21</f>
-        <v>1583313.3680897937</v>
+        <v>1557469.5128214825</v>
       </c>
       <c r="AE4" s="69">
         <f>Passenger_km!AE18*About!$C$21</f>
-        <v>1602441.3267728081</v>
+        <v>1584263.3954676501</v>
       </c>
       <c r="AF4" s="69">
         <f>Passenger_km!AF18*About!$C$21</f>
-        <v>1621273.0679874644</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+        <v>1607602.029854133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>113</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>118848.38842800001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>114</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -2434,10 +2434,10 @@
         <v>1432.2601549999999</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
     </row>
   </sheetData>
@@ -2456,14 +2456,14 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7">
         <v>2020</v>
@@ -2559,7 +2559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>10187.998916</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -2817,136 +2817,136 @@
         <v>18411.222730000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
         <f>Freight_km!B4*About!$C$21</f>
-        <v>1210428.6494828649</v>
+        <v>562101.77122467523</v>
       </c>
       <c r="C4" s="69">
         <f>Freight_km!C4*About!$C$21</f>
-        <v>1259478.6055915244</v>
+        <v>592289.7467545697</v>
       </c>
       <c r="D4" s="69">
         <f>Freight_km!D4*About!$C$21</f>
-        <v>1306440.9233122971</v>
+        <v>620197.3792226396</v>
       </c>
       <c r="E4" s="69">
         <f>Freight_km!E4*About!$C$21</f>
-        <v>1352167.6540869088</v>
+        <v>647543.27095051261</v>
       </c>
       <c r="F4" s="69">
         <f>Freight_km!F4*About!$C$21</f>
-        <v>1385258.5597153944</v>
+        <v>675259.94984331704</v>
       </c>
       <c r="G4" s="69">
         <f>Freight_km!G4*About!$C$21</f>
-        <v>1422831.5193059016</v>
+        <v>704546.5914460303</v>
       </c>
       <c r="H4" s="69">
         <f>Freight_km!H4*About!$C$21</f>
-        <v>1463974.7608425335</v>
+        <v>736474.66488533479</v>
       </c>
       <c r="I4" s="69">
         <f>Freight_km!I4*About!$C$21</f>
-        <v>1508270.2097725994</v>
+        <v>770596.12774439587</v>
       </c>
       <c r="J4" s="69">
         <f>Freight_km!J4*About!$C$21</f>
-        <v>1555908.9182591941</v>
+        <v>806155.5117753034</v>
       </c>
       <c r="K4" s="69">
         <f>Freight_km!K4*About!$C$21</f>
-        <v>1601661.2395218846</v>
+        <v>842737.977577977</v>
       </c>
       <c r="L4" s="69">
         <f>Freight_km!L4*About!$C$21</f>
-        <v>1648677.3638988601</v>
+        <v>879883.24115367047</v>
       </c>
       <c r="M4" s="69">
         <f>Freight_km!M4*About!$C$21</f>
-        <v>1695861.7313098637</v>
+        <v>919013.68414460809</v>
       </c>
       <c r="N4" s="69">
         <f>Freight_km!N4*About!$C$21</f>
-        <v>1740047.7543835337</v>
+        <v>954889.28297110286</v>
       </c>
       <c r="O4" s="69">
         <f>Freight_km!O4*About!$C$21</f>
-        <v>1782067.5250348726</v>
+        <v>991512.56033415929</v>
       </c>
       <c r="P4" s="69">
         <f>Freight_km!P4*About!$C$21</f>
-        <v>1823464.7288290474</v>
+        <v>1028908.0552905437</v>
       </c>
       <c r="Q4" s="69">
         <f>Freight_km!Q4*About!$C$21</f>
-        <v>1860190.279851181</v>
+        <v>1065690.7551809005</v>
       </c>
       <c r="R4" s="69">
         <f>Freight_km!R4*About!$C$21</f>
-        <v>1901825.944490436</v>
+        <v>1105090.4819612156</v>
       </c>
       <c r="S4" s="69">
         <f>Freight_km!S4*About!$C$21</f>
-        <v>1943622.7204053528</v>
+        <v>1146533.0748698546</v>
       </c>
       <c r="T4" s="69">
         <f>Freight_km!T4*About!$C$21</f>
-        <v>2003074.2925065712</v>
+        <v>1199066.9050203371</v>
       </c>
       <c r="U4" s="69">
         <f>Freight_km!U4*About!$C$21</f>
-        <v>2055916.741255265</v>
+        <v>1247456.5177055474</v>
       </c>
       <c r="V4" s="69">
         <f>Freight_km!V4*About!$C$21</f>
-        <v>2111289.9318917166</v>
+        <v>1294326.2050867062</v>
       </c>
       <c r="W4" s="69">
         <f>Freight_km!W4*About!$C$21</f>
-        <v>2172345.9023397062</v>
+        <v>1342449.8466371151</v>
       </c>
       <c r="X4" s="69">
         <f>Freight_km!X4*About!$C$21</f>
-        <v>2235755.2163712545</v>
+        <v>1390535.5395572134</v>
       </c>
       <c r="Y4" s="69">
         <f>Freight_km!Y4*About!$C$21</f>
-        <v>2295105.215450332</v>
+        <v>1439417.8379988996</v>
       </c>
       <c r="Z4" s="69">
         <f>Freight_km!Z4*About!$C$21</f>
-        <v>2353587.6242203671</v>
+        <v>1486738.9735619205</v>
       </c>
       <c r="AA4" s="69">
         <f>Freight_km!AA4*About!$C$21</f>
-        <v>2420270.1021505124</v>
+        <v>1540319.5133253529</v>
       </c>
       <c r="AB4" s="69">
         <f>Freight_km!AB4*About!$C$21</f>
-        <v>2486389.7851942237</v>
+        <v>1592525.2855272552</v>
       </c>
       <c r="AC4" s="69">
         <f>Freight_km!AC4*About!$C$21</f>
-        <v>2544348.3925915104</v>
+        <v>1640089.0471458065</v>
       </c>
       <c r="AD4" s="69">
         <f>Freight_km!AD4*About!$C$21</f>
-        <v>2611599.3906413405</v>
+        <v>1692093.9559689395</v>
       </c>
       <c r="AE4" s="69">
         <f>Freight_km!AE4*About!$C$21</f>
-        <v>2672684.7516865288</v>
+        <v>1739277.6449136124</v>
       </c>
       <c r="AF4" s="69">
         <f>Freight_km!AF4*About!$C$21</f>
-        <v>2731959.8198835459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+        <v>1784292.8901464944</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>113</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>79784.657770999998</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>114</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>97802.93270003653</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
   </sheetData>
@@ -3349,19 +3349,19 @@
   <dimension ref="A1:AH385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="AH1" s="40"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -3499,7 +3499,7 @@
       <c r="AG2" s="40"/>
       <c r="AH2" s="40"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>14</v>
       </c>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="AH3" s="40"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>15</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="AH4" s="40"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="AH5" s="40"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="AH6" s="40"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -3943,7 +3943,7 @@
       <c r="AG7" s="49"/>
       <c r="AH7" s="40"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="AG8" s="19"/>
       <c r="AH8" s="40"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="AH9" s="40"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="AH10" s="40"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>21</v>
       </c>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="AH11" s="40"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>22</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="AH12" s="40"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>23</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="AH13" s="40"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>24</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="AH14" s="40"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>25</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="AH15" s="40"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="AH16" s="40"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>27</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="AH17" s="40"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="AH18" s="40"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="AH19" s="40"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>30</v>
       </c>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="AH20" s="40"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>31</v>
       </c>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="AH21" s="40"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>32</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="AH22" s="40"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>20</v>
       </c>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AH23" s="40"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>33</v>
       </c>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AH24" s="40"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>34</v>
       </c>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="AH25" s="40"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>35</v>
       </c>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="AH26" s="40"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="AH27" s="40"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>36</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="AH28" s="40"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>31</v>
       </c>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="AH29" s="40"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>37</v>
       </c>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="AH30" s="40"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>38</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="AH31" s="40"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>39</v>
       </c>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="AH32" s="40"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -6465,7 +6465,7 @@
       <c r="AG33" s="49"/>
       <c r="AH33" s="40"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>40</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="AG34" s="19"/>
       <c r="AH34" s="40"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>41</v>
       </c>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="AH35" s="40"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="AH36" s="40"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="27" t="s">
         <v>33</v>
       </c>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="AH37" s="40"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>34</v>
       </c>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="AH38" s="40"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>35</v>
       </c>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="AH39" s="40"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>28</v>
       </c>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="AH40" s="40"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>36</v>
       </c>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="AH41" s="40"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>31</v>
       </c>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>37</v>
       </c>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="AH43" s="40"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>38</v>
       </c>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="AH44" s="40"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" s="32" t="s">
         <v>39</v>
       </c>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="AH45" s="40"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
@@ -7661,7 +7661,7 @@
       <c r="AG46" s="49"/>
       <c r="AH46" s="40"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>42</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="AG47" s="19"/>
       <c r="AH47" s="40"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>43</v>
       </c>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="AH48" s="40"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>20</v>
       </c>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="AH49" s="40"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>21</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="AH50" s="40"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>22</v>
       </c>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="AH51" s="40"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>23</v>
       </c>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="AH52" s="40"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>24</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="AH53" s="40"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>25</v>
       </c>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="AH54" s="40"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" s="27" t="s">
         <v>26</v>
       </c>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="AH55" s="40"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
         <v>27</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="AH56" s="40"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>28</v>
       </c>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="AH57" s="40"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
         <v>29</v>
       </c>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="AH58" s="40"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" s="27" t="s">
         <v>30</v>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="AH59" s="40"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" s="27" t="s">
         <v>31</v>
       </c>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="AH60" s="40"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>44</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="AH61" s="40"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>20</v>
       </c>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="AH62" s="40"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" s="27" t="s">
         <v>33</v>
       </c>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="AH63" s="40"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
         <v>34</v>
       </c>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="AH64" s="40"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>35</v>
       </c>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="AH65" s="40"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>28</v>
       </c>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="AH66" s="40"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="AH67" s="40"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>31</v>
       </c>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="AH68" s="40"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>37</v>
       </c>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="AH69" s="40"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>38</v>
       </c>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="AH70" s="40"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>39</v>
       </c>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="AH71" s="40"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
@@ -10183,7 +10183,7 @@
       <c r="AG72" s="49"/>
       <c r="AH72" s="40"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" s="18" t="s">
         <v>45</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="AG73" s="19"/>
       <c r="AH73" s="40"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>46</v>
       </c>
@@ -10259,7 +10259,7 @@
       <c r="AG74" s="21"/>
       <c r="AH74" s="40"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
         <v>20</v>
       </c>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="AH75" s="40"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>21</v>
       </c>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="AH76" s="40"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" s="27" t="s">
         <v>22</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="AH77" s="40"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" s="27" t="s">
         <v>23</v>
       </c>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="AH78" s="40"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>24</v>
       </c>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="AH79" s="40"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>25</v>
       </c>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="AH80" s="40"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" s="27" t="s">
         <v>26</v>
       </c>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="AH81" s="40"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" s="27" t="s">
         <v>27</v>
       </c>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="AH82" s="40"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>28</v>
       </c>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="AH83" s="40"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
         <v>29</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="AH84" s="40"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" s="27" t="s">
         <v>30</v>
       </c>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="AH85" s="40"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" s="27" t="s">
         <v>31</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="AH86" s="40"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>47</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="AG87" s="21"/>
       <c r="AH87" s="40"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" s="22" t="s">
         <v>20</v>
       </c>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="AH88" s="40"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" s="27" t="s">
         <v>33</v>
       </c>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="AH89" s="40"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>34</v>
       </c>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="AH90" s="40"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" s="22" t="s">
         <v>35</v>
       </c>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="AH91" s="40"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" s="22" t="s">
         <v>28</v>
       </c>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="AH92" s="40"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
         <v>36</v>
       </c>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="AH93" s="40"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>31</v>
       </c>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="AH94" s="40"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" s="22" t="s">
         <v>37</v>
       </c>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="AH95" s="40"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" s="27" t="s">
         <v>38</v>
       </c>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="AH96" s="40"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>39</v>
       </c>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="AH97" s="40"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" s="48"/>
       <c r="B98" s="49"/>
       <c r="C98" s="49"/>
@@ -12577,7 +12577,7 @@
       <c r="AG98" s="49"/>
       <c r="AH98" s="40"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" s="18" t="s">
         <v>48</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="AH99" s="40"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" s="57" t="s">
         <v>20</v>
       </c>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="AH100" s="40"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" s="59" t="s">
         <v>49</v>
       </c>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="AH101" s="40"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" s="60" t="s">
         <v>50</v>
       </c>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="AH102" s="40"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" s="60" t="s">
         <v>51</v>
       </c>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="AH103" s="40"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" s="60" t="s">
         <v>52</v>
       </c>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="AH104" s="40"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" s="60" t="s">
         <v>53</v>
       </c>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="AH105" s="40"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" s="60" t="s">
         <v>54</v>
       </c>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="AH106" s="40"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" s="60" t="s">
         <v>55</v>
       </c>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="AH107" s="40"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" s="60" t="s">
         <v>56</v>
       </c>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="AH108" s="40"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" s="60" t="s">
         <v>57</v>
       </c>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="AH109" s="40"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" s="57" t="s">
         <v>24</v>
       </c>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="AH110" s="40"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" s="59" t="s">
         <v>50</v>
       </c>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="AH111" s="40"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" s="60" t="s">
         <v>57</v>
       </c>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="AH112" s="40"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" s="57" t="s">
         <v>28</v>
       </c>
@@ -14107,7 +14107,7 @@
       </c>
       <c r="AH113" s="40"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" s="59" t="s">
         <v>58</v>
       </c>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="AH114" s="40"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" s="60" t="s">
         <v>56</v>
       </c>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="AH115" s="40"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" s="61" t="s">
         <v>57</v>
       </c>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="AH116" s="40"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" s="57" t="s">
         <v>37</v>
       </c>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="AH117" s="40"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" s="59" t="s">
         <v>50</v>
       </c>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="AH118" s="40"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" s="60" t="s">
         <v>59</v>
       </c>
@@ -14719,7 +14719,7 @@
       </c>
       <c r="AH119" s="40"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" s="60" t="s">
         <v>52</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="AH120" s="40"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" s="60" t="s">
         <v>54</v>
       </c>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="AH121" s="40"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" s="60" t="s">
         <v>56</v>
       </c>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="AH122" s="40"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" s="61" t="s">
         <v>60</v>
       </c>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="AH123" s="40"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" s="48"/>
       <c r="B124" s="49"/>
       <c r="C124" s="49"/>
@@ -15163,7 +15163,7 @@
       <c r="AG124" s="49"/>
       <c r="AH124" s="40"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
         <v>61</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="AH125" s="40"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" s="20" t="s">
         <v>43</v>
       </c>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="AH126" s="40"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="s">
         <v>20</v>
       </c>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="AH127" s="40"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
         <v>21</v>
       </c>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="AH128" s="40"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" s="27" t="s">
         <v>22</v>
       </c>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="AH129" s="40"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" s="27" t="s">
         <v>23</v>
       </c>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="AH130" s="40"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>24</v>
       </c>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="AH131" s="40"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" s="25" t="s">
         <v>25</v>
       </c>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="AH132" s="40"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" s="27" t="s">
         <v>26</v>
       </c>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="AH133" s="40"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" s="27" t="s">
         <v>27</v>
       </c>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="AH134" s="40"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="s">
         <v>28</v>
       </c>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="AH135" s="40"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" s="25" t="s">
         <v>29</v>
       </c>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="AH136" s="40"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" s="27" t="s">
         <v>30</v>
       </c>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="AH137" s="40"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" s="27" t="s">
         <v>31</v>
       </c>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="AH138" s="40"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" s="20" t="s">
         <v>44</v>
       </c>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="AH139" s="40"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>20</v>
       </c>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="AH140" s="40"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" s="27" t="s">
         <v>33</v>
       </c>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="AH141" s="40"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" s="32" t="s">
         <v>34</v>
       </c>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="AH142" s="40"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="s">
         <v>35</v>
       </c>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="AH143" s="40"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="s">
         <v>28</v>
       </c>
@@ -17203,7 +17203,7 @@
       </c>
       <c r="AH144" s="40"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" s="25" t="s">
         <v>36</v>
       </c>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="AH145" s="40"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146" s="32" t="s">
         <v>31</v>
       </c>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="AH146" s="40"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="s">
         <v>37</v>
       </c>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="AH147" s="40"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148" s="27" t="s">
         <v>38</v>
       </c>
@@ -17611,7 +17611,7 @@
       </c>
       <c r="AH148" s="40"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149" s="32" t="s">
         <v>39</v>
       </c>
@@ -17713,7 +17713,7 @@
       </c>
       <c r="AH149" s="40"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150" s="48"/>
       <c r="B150" s="49"/>
       <c r="C150" s="49"/>
@@ -17749,7 +17749,7 @@
       <c r="AG150" s="49"/>
       <c r="AH150" s="40"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>62</v>
       </c>
@@ -17787,7 +17787,7 @@
       <c r="AG151" s="62"/>
       <c r="AH151" s="40"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152" s="20" t="s">
         <v>63</v>
       </c>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="AH152" s="40"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="s">
         <v>20</v>
       </c>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="AH153" s="40"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" s="25" t="s">
         <v>21</v>
       </c>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="AH154" s="40"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" s="27" t="s">
         <v>22</v>
       </c>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="AH155" s="40"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" s="27" t="s">
         <v>23</v>
       </c>
@@ -18297,7 +18297,7 @@
       </c>
       <c r="AH156" s="40"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" s="22" t="s">
         <v>24</v>
       </c>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="AH157" s="40"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" s="25" t="s">
         <v>25</v>
       </c>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="AH158" s="40"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" s="27" t="s">
         <v>26</v>
       </c>
@@ -18603,7 +18603,7 @@
       </c>
       <c r="AH159" s="40"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" s="27" t="s">
         <v>27</v>
       </c>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="AH160" s="40"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" s="22" t="s">
         <v>28</v>
       </c>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="AH161" s="40"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" s="25" t="s">
         <v>29</v>
       </c>
@@ -18909,7 +18909,7 @@
       </c>
       <c r="AH162" s="40"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163" s="27" t="s">
         <v>30</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="AH163" s="40"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164" s="27" t="s">
         <v>31</v>
       </c>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="AH164" s="40"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165" s="20" t="s">
         <v>64</v>
       </c>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="AH165" s="40"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166" s="22" t="s">
         <v>20</v>
       </c>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="AH166" s="40"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A167" s="27" t="s">
         <v>33</v>
       </c>
@@ -19419,7 +19419,7 @@
       </c>
       <c r="AH167" s="40"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A168" s="32" t="s">
         <v>34</v>
       </c>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="AH168" s="40"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A169" s="22" t="s">
         <v>35</v>
       </c>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="AH169" s="40"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A170" s="22" t="s">
         <v>28</v>
       </c>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="AH170" s="40"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A171" s="25" t="s">
         <v>36</v>
       </c>
@@ -19827,7 +19827,7 @@
       </c>
       <c r="AH171" s="40"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>31</v>
       </c>
@@ -19929,7 +19929,7 @@
       </c>
       <c r="AH172" s="40"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A173" s="22" t="s">
         <v>37</v>
       </c>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="AH173" s="40"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A174" s="27" t="s">
         <v>38</v>
       </c>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="AH174" s="40"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>39</v>
       </c>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="AH175" s="40"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A176" s="48"/>
       <c r="B176" s="49"/>
       <c r="C176" s="49"/>
@@ -20271,7 +20271,7 @@
       <c r="AG176" s="49"/>
       <c r="AH176" s="40"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
         <v>65</v>
       </c>
@@ -20309,7 +20309,7 @@
       <c r="AG177" s="62"/>
       <c r="AH177" s="40"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178" s="20" t="s">
         <v>43</v>
       </c>
@@ -20347,7 +20347,7 @@
       <c r="AG178" s="21"/>
       <c r="AH178" s="40"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179" s="22" t="s">
         <v>20</v>
       </c>
@@ -20385,7 +20385,7 @@
       <c r="AG179" s="29"/>
       <c r="AH179" s="40"/>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="s">
         <v>21</v>
       </c>
@@ -20487,7 +20487,7 @@
       </c>
       <c r="AH180" s="40"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181" s="27" t="s">
         <v>22</v>
       </c>
@@ -20589,7 +20589,7 @@
       </c>
       <c r="AH181" s="40"/>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A182" s="27" t="s">
         <v>23</v>
       </c>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="AH182" s="40"/>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183" s="22" t="s">
         <v>24</v>
       </c>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="AH183" s="40"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="s">
         <v>25</v>
       </c>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="AH184" s="40"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185" s="27" t="s">
         <v>26</v>
       </c>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="AH185" s="40"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186" s="27" t="s">
         <v>27</v>
       </c>
@@ -21099,7 +21099,7 @@
       </c>
       <c r="AH186" s="40"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187" s="22" t="s">
         <v>28</v>
       </c>
@@ -21201,7 +21201,7 @@
       </c>
       <c r="AH187" s="40"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="s">
         <v>29</v>
       </c>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="AH188" s="40"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189" s="27" t="s">
         <v>30</v>
       </c>
@@ -21405,7 +21405,7 @@
       </c>
       <c r="AH189" s="40"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190" s="27" t="s">
         <v>31</v>
       </c>
@@ -21507,7 +21507,7 @@
       </c>
       <c r="AH190" s="40"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191" s="20" t="s">
         <v>44</v>
       </c>
@@ -21545,7 +21545,7 @@
       <c r="AG191" s="21"/>
       <c r="AH191" s="40"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192" s="22" t="s">
         <v>20</v>
       </c>
@@ -21647,7 +21647,7 @@
       </c>
       <c r="AH192" s="40"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193" s="27" t="s">
         <v>33</v>
       </c>
@@ -21749,7 +21749,7 @@
       </c>
       <c r="AH193" s="40"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>34</v>
       </c>
@@ -21851,7 +21851,7 @@
       </c>
       <c r="AH194" s="40"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195" s="22" t="s">
         <v>35</v>
       </c>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="AH195" s="40"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196" s="22" t="s">
         <v>28</v>
       </c>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="AH196" s="40"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="s">
         <v>36</v>
       </c>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="AH197" s="40"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>31</v>
       </c>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="AH198" s="40"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199" s="22" t="s">
         <v>37</v>
       </c>
@@ -22361,7 +22361,7 @@
       </c>
       <c r="AH199" s="40"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200" s="27" t="s">
         <v>38</v>
       </c>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="AH200" s="40"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>39</v>
       </c>
@@ -22565,7 +22565,7 @@
       </c>
       <c r="AH201" s="40"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202" s="48"/>
       <c r="B202" s="49"/>
       <c r="C202" s="49"/>
@@ -22601,7 +22601,7 @@
       <c r="AG202" s="49"/>
       <c r="AH202" s="40"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
         <v>66</v>
       </c>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="AH203" s="40"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204" s="20" t="s">
         <v>43</v>
       </c>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="AH204" s="40"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205" s="22" t="s">
         <v>20</v>
       </c>
@@ -22907,7 +22907,7 @@
       </c>
       <c r="AH205" s="40"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="s">
         <v>21</v>
       </c>
@@ -23009,7 +23009,7 @@
       </c>
       <c r="AH206" s="40"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207" s="27" t="s">
         <v>22</v>
       </c>
@@ -23111,7 +23111,7 @@
       </c>
       <c r="AH207" s="40"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208" s="27" t="s">
         <v>23</v>
       </c>
@@ -23213,7 +23213,7 @@
       </c>
       <c r="AH208" s="40"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209" s="22" t="s">
         <v>24</v>
       </c>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="AH209" s="40"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A210" s="25" t="s">
         <v>25</v>
       </c>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="AH210" s="40"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211" s="27" t="s">
         <v>26</v>
       </c>
@@ -23519,7 +23519,7 @@
       </c>
       <c r="AH211" s="40"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212" s="27" t="s">
         <v>27</v>
       </c>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="AH212" s="40"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213" s="22" t="s">
         <v>28</v>
       </c>
@@ -23723,7 +23723,7 @@
       </c>
       <c r="AH213" s="40"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214" s="25" t="s">
         <v>29</v>
       </c>
@@ -23825,7 +23825,7 @@
       </c>
       <c r="AH214" s="40"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215" s="27" t="s">
         <v>30</v>
       </c>
@@ -23927,7 +23927,7 @@
       </c>
       <c r="AH215" s="40"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216" s="27" t="s">
         <v>31</v>
       </c>
@@ -24029,7 +24029,7 @@
       </c>
       <c r="AH216" s="40"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217" s="20" t="s">
         <v>44</v>
       </c>
@@ -24131,7 +24131,7 @@
       </c>
       <c r="AH217" s="40"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218" s="22" t="s">
         <v>20</v>
       </c>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="AH218" s="40"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219" s="27" t="s">
         <v>33</v>
       </c>
@@ -24335,7 +24335,7 @@
       </c>
       <c r="AH219" s="40"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A220" s="32" t="s">
         <v>34</v>
       </c>
@@ -24437,7 +24437,7 @@
       </c>
       <c r="AH220" s="40"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A221" s="22" t="s">
         <v>35</v>
       </c>
@@ -24539,7 +24539,7 @@
       </c>
       <c r="AH221" s="40"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A222" s="22" t="s">
         <v>28</v>
       </c>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="AH222" s="40"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="s">
         <v>36</v>
       </c>
@@ -24743,7 +24743,7 @@
       </c>
       <c r="AH223" s="40"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A224" s="32" t="s">
         <v>31</v>
       </c>
@@ -24845,7 +24845,7 @@
       </c>
       <c r="AH224" s="40"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A225" s="22" t="s">
         <v>37</v>
       </c>
@@ -24947,7 +24947,7 @@
       </c>
       <c r="AH225" s="40"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A226" s="27" t="s">
         <v>38</v>
       </c>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="AH226" s="40"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A227" s="32" t="s">
         <v>39</v>
       </c>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="AH227" s="40"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A228" s="48"/>
       <c r="B228" s="49"/>
       <c r="C228" s="49"/>
@@ -25187,7 +25187,7 @@
       <c r="AG228" s="49"/>
       <c r="AH228" s="40"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="s">
         <v>67</v>
       </c>
@@ -25225,7 +25225,7 @@
       <c r="AG229" s="62"/>
       <c r="AH229" s="40"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A230" s="20" t="s">
         <v>68</v>
       </c>
@@ -25327,7 +25327,7 @@
       </c>
       <c r="AH230" s="40"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A231" s="22" t="s">
         <v>20</v>
       </c>
@@ -25429,7 +25429,7 @@
       </c>
       <c r="AH231" s="40"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A232" s="25" t="s">
         <v>21</v>
       </c>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="AH232" s="40"/>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A233" s="27" t="s">
         <v>22</v>
       </c>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="AH233" s="40"/>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A234" s="27" t="s">
         <v>23</v>
       </c>
@@ -25735,7 +25735,7 @@
       </c>
       <c r="AH234" s="40"/>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A235" s="22" t="s">
         <v>24</v>
       </c>
@@ -25837,7 +25837,7 @@
       </c>
       <c r="AH235" s="40"/>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A236" s="25" t="s">
         <v>25</v>
       </c>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="AH236" s="40"/>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A237" s="27" t="s">
         <v>26</v>
       </c>
@@ -26041,7 +26041,7 @@
       </c>
       <c r="AH237" s="40"/>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A238" s="27" t="s">
         <v>27</v>
       </c>
@@ -26143,7 +26143,7 @@
       </c>
       <c r="AH238" s="40"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A239" s="22" t="s">
         <v>28</v>
       </c>
@@ -26245,7 +26245,7 @@
       </c>
       <c r="AH239" s="40"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A240" s="25" t="s">
         <v>29</v>
       </c>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="AH240" s="40"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A241" s="27" t="s">
         <v>30</v>
       </c>
@@ -26449,7 +26449,7 @@
       </c>
       <c r="AH241" s="40"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A242" s="27" t="s">
         <v>31</v>
       </c>
@@ -26551,7 +26551,7 @@
       </c>
       <c r="AH242" s="40"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A243" s="20" t="s">
         <v>69</v>
       </c>
@@ -26653,7 +26653,7 @@
       </c>
       <c r="AH243" s="40"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A244" s="22" t="s">
         <v>20</v>
       </c>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="AH244" s="40"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A245" s="27" t="s">
         <v>33</v>
       </c>
@@ -26857,7 +26857,7 @@
       </c>
       <c r="AH245" s="40"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A246" s="32" t="s">
         <v>34</v>
       </c>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="AH246" s="40"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A247" s="22" t="s">
         <v>35</v>
       </c>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="AH247" s="40"/>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A248" s="22" t="s">
         <v>28</v>
       </c>
@@ -27163,7 +27163,7 @@
       </c>
       <c r="AH248" s="40"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A249" s="25" t="s">
         <v>36</v>
       </c>
@@ -27265,7 +27265,7 @@
       </c>
       <c r="AH249" s="40"/>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A250" s="32" t="s">
         <v>31</v>
       </c>
@@ -27367,7 +27367,7 @@
       </c>
       <c r="AH250" s="40"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A251" s="22" t="s">
         <v>37</v>
       </c>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="AH251" s="40"/>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A252" s="27" t="s">
         <v>38</v>
       </c>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="AH252" s="40"/>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A253" s="32" t="s">
         <v>39</v>
       </c>
@@ -27673,7 +27673,7 @@
       </c>
       <c r="AH253" s="40"/>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A254" s="48"/>
       <c r="B254" s="49"/>
       <c r="C254" s="49"/>
@@ -27709,7 +27709,7 @@
       <c r="AG254" s="49"/>
       <c r="AH254" s="40"/>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
         <v>70</v>
       </c>
@@ -27747,7 +27747,7 @@
       <c r="AG255" s="62"/>
       <c r="AH255" s="40"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A256" s="20" t="s">
         <v>43</v>
       </c>
@@ -27785,7 +27785,7 @@
       <c r="AG256" s="21"/>
       <c r="AH256" s="40"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A257" s="22" t="s">
         <v>20</v>
       </c>
@@ -27823,7 +27823,7 @@
       <c r="AG257" s="29"/>
       <c r="AH257" s="40"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A258" s="25" t="s">
         <v>21</v>
       </c>
@@ -27925,7 +27925,7 @@
       </c>
       <c r="AH258" s="40"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A259" s="27" t="s">
         <v>22</v>
       </c>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="AH259" s="40"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A260" s="27" t="s">
         <v>23</v>
       </c>
@@ -28129,7 +28129,7 @@
       </c>
       <c r="AH260" s="40"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A261" s="22" t="s">
         <v>24</v>
       </c>
@@ -28231,7 +28231,7 @@
       </c>
       <c r="AH261" s="40"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A262" s="25" t="s">
         <v>25</v>
       </c>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="AH262" s="40"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A263" s="27" t="s">
         <v>26</v>
       </c>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="AH263" s="40"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A264" s="27" t="s">
         <v>27</v>
       </c>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="AH264" s="40"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A265" s="22" t="s">
         <v>28</v>
       </c>
@@ -28639,7 +28639,7 @@
       </c>
       <c r="AH265" s="40"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A266" s="25" t="s">
         <v>29</v>
       </c>
@@ -28741,7 +28741,7 @@
       </c>
       <c r="AH266" s="40"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A267" s="27" t="s">
         <v>30</v>
       </c>
@@ -28843,7 +28843,7 @@
       </c>
       <c r="AH267" s="40"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A268" s="27" t="s">
         <v>31</v>
       </c>
@@ -28945,7 +28945,7 @@
       </c>
       <c r="AH268" s="40"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="s">
         <v>44</v>
       </c>
@@ -28983,7 +28983,7 @@
       <c r="AG269" s="21"/>
       <c r="AH269" s="40"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A270" s="22" t="s">
         <v>20</v>
       </c>
@@ -29085,7 +29085,7 @@
       </c>
       <c r="AH270" s="40"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A271" s="27" t="s">
         <v>33</v>
       </c>
@@ -29187,7 +29187,7 @@
       </c>
       <c r="AH271" s="40"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A272" s="32" t="s">
         <v>34</v>
       </c>
@@ -29289,7 +29289,7 @@
       </c>
       <c r="AH272" s="40"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A273" s="22" t="s">
         <v>35</v>
       </c>
@@ -29391,7 +29391,7 @@
       </c>
       <c r="AH273" s="40"/>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A274" s="22" t="s">
         <v>28</v>
       </c>
@@ -29493,7 +29493,7 @@
       </c>
       <c r="AH274" s="40"/>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A275" s="25" t="s">
         <v>36</v>
       </c>
@@ -29595,7 +29595,7 @@
       </c>
       <c r="AH275" s="40"/>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A276" s="32" t="s">
         <v>31</v>
       </c>
@@ -29697,7 +29697,7 @@
       </c>
       <c r="AH276" s="40"/>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A277" s="22" t="s">
         <v>37</v>
       </c>
@@ -29799,7 +29799,7 @@
       </c>
       <c r="AH277" s="40"/>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A278" s="27" t="s">
         <v>38</v>
       </c>
@@ -29901,7 +29901,7 @@
       </c>
       <c r="AH278" s="40"/>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A279" s="32" t="s">
         <v>39</v>
       </c>
@@ -30003,7 +30003,7 @@
       </c>
       <c r="AH279" s="40"/>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A280" s="48"/>
       <c r="B280" s="49"/>
       <c r="C280" s="49"/>
@@ -30039,7 +30039,7 @@
       <c r="AG280" s="49"/>
       <c r="AH280" s="40"/>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A281" s="18" t="s">
         <v>71</v>
       </c>
@@ -30077,7 +30077,7 @@
       <c r="AG281" s="62"/>
       <c r="AH281" s="40"/>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A282" s="20" t="s">
         <v>72</v>
       </c>
@@ -30179,7 +30179,7 @@
       </c>
       <c r="AH282" s="40"/>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A283" s="22" t="s">
         <v>20</v>
       </c>
@@ -30281,7 +30281,7 @@
       </c>
       <c r="AH283" s="40"/>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A284" s="25" t="s">
         <v>21</v>
       </c>
@@ -30383,7 +30383,7 @@
       </c>
       <c r="AH284" s="40"/>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A285" s="27" t="s">
         <v>22</v>
       </c>
@@ -30485,7 +30485,7 @@
       </c>
       <c r="AH285" s="40"/>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A286" s="27" t="s">
         <v>23</v>
       </c>
@@ -30587,7 +30587,7 @@
       </c>
       <c r="AH286" s="40"/>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A287" s="22" t="s">
         <v>24</v>
       </c>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="AH287" s="40"/>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A288" s="25" t="s">
         <v>25</v>
       </c>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="AH288" s="40"/>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A289" s="27" t="s">
         <v>26</v>
       </c>
@@ -30893,7 +30893,7 @@
       </c>
       <c r="AH289" s="40"/>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A290" s="27" t="s">
         <v>27</v>
       </c>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="AH290" s="40"/>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A291" s="63" t="s">
         <v>28</v>
       </c>
@@ -31097,7 +31097,7 @@
       </c>
       <c r="AH291" s="40"/>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A292" s="25" t="s">
         <v>29</v>
       </c>
@@ -31199,7 +31199,7 @@
       </c>
       <c r="AH292" s="40"/>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A293" s="27" t="s">
         <v>30</v>
       </c>
@@ -31301,7 +31301,7 @@
       </c>
       <c r="AH293" s="40"/>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A294" s="27" t="s">
         <v>31</v>
       </c>
@@ -31403,7 +31403,7 @@
       </c>
       <c r="AH294" s="40"/>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A295" s="20" t="s">
         <v>73</v>
       </c>
@@ -31505,7 +31505,7 @@
       </c>
       <c r="AH295" s="40"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A296" s="22" t="s">
         <v>20</v>
       </c>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="AH296" s="40"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A297" s="27" t="s">
         <v>33</v>
       </c>
@@ -31709,7 +31709,7 @@
       </c>
       <c r="AH297" s="40"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A298" s="32" t="s">
         <v>34</v>
       </c>
@@ -31811,7 +31811,7 @@
       </c>
       <c r="AH298" s="40"/>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A299" s="22" t="s">
         <v>35</v>
       </c>
@@ -31913,7 +31913,7 @@
       </c>
       <c r="AH299" s="40"/>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A300" s="63" t="s">
         <v>28</v>
       </c>
@@ -32015,7 +32015,7 @@
       </c>
       <c r="AH300" s="40"/>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A301" s="25" t="s">
         <v>36</v>
       </c>
@@ -32117,7 +32117,7 @@
       </c>
       <c r="AH301" s="40"/>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A302" s="32" t="s">
         <v>31</v>
       </c>
@@ -32219,7 +32219,7 @@
       </c>
       <c r="AH302" s="40"/>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A303" s="63" t="s">
         <v>37</v>
       </c>
@@ -32321,7 +32321,7 @@
       </c>
       <c r="AH303" s="40"/>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A304" s="27" t="s">
         <v>38</v>
       </c>
@@ -32423,7 +32423,7 @@
       </c>
       <c r="AH304" s="40"/>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A305" s="32" t="s">
         <v>39</v>
       </c>
@@ -32525,7 +32525,7 @@
       </c>
       <c r="AH305" s="40"/>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A306" s="48"/>
       <c r="B306" s="49"/>
       <c r="C306" s="49"/>
@@ -32561,7 +32561,7 @@
       <c r="AG306" s="49"/>
       <c r="AH306" s="40"/>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A307" s="18" t="s">
         <v>74</v>
       </c>
@@ -32599,7 +32599,7 @@
       <c r="AG307" s="19"/>
       <c r="AH307" s="40"/>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A308" s="20" t="s">
         <v>43</v>
       </c>
@@ -32637,7 +32637,7 @@
       <c r="AG308" s="21"/>
       <c r="AH308" s="40"/>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A309" s="22" t="s">
         <v>75</v>
       </c>
@@ -32739,7 +32739,7 @@
       </c>
       <c r="AH309" s="40"/>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A310" s="25" t="s">
         <v>21</v>
       </c>
@@ -32841,7 +32841,7 @@
       </c>
       <c r="AH310" s="40"/>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A311" s="27" t="s">
         <v>22</v>
       </c>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="AH311" s="40"/>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A312" s="27" t="s">
         <v>23</v>
       </c>
@@ -33045,7 +33045,7 @@
       </c>
       <c r="AH312" s="40"/>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A313" s="22" t="s">
         <v>76</v>
       </c>
@@ -33147,7 +33147,7 @@
       </c>
       <c r="AH313" s="40"/>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A314" s="25" t="s">
         <v>25</v>
       </c>
@@ -33249,7 +33249,7 @@
       </c>
       <c r="AH314" s="40"/>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A315" s="27" t="s">
         <v>26</v>
       </c>
@@ -33351,7 +33351,7 @@
       </c>
       <c r="AH315" s="40"/>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A316" s="27" t="s">
         <v>27</v>
       </c>
@@ -33453,7 +33453,7 @@
       </c>
       <c r="AH316" s="40"/>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A317" s="22" t="s">
         <v>77</v>
       </c>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="AH317" s="40"/>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A318" s="25" t="s">
         <v>29</v>
       </c>
@@ -33657,7 +33657,7 @@
       </c>
       <c r="AH318" s="40"/>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A319" s="27" t="s">
         <v>30</v>
       </c>
@@ -33759,7 +33759,7 @@
       </c>
       <c r="AH319" s="40"/>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A320" s="27" t="s">
         <v>31</v>
       </c>
@@ -33861,7 +33861,7 @@
       </c>
       <c r="AH320" s="40"/>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A321" s="20" t="s">
         <v>44</v>
       </c>
@@ -33899,7 +33899,7 @@
       <c r="AG321" s="21"/>
       <c r="AH321" s="40"/>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A322" s="22" t="s">
         <v>75</v>
       </c>
@@ -34001,7 +34001,7 @@
       </c>
       <c r="AH322" s="40"/>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A323" s="27" t="s">
         <v>33</v>
       </c>
@@ -34103,7 +34103,7 @@
       </c>
       <c r="AH323" s="40"/>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A324" s="32" t="s">
         <v>34</v>
       </c>
@@ -34205,7 +34205,7 @@
       </c>
       <c r="AH324" s="40"/>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A325" s="22" t="s">
         <v>78</v>
       </c>
@@ -34307,7 +34307,7 @@
       </c>
       <c r="AH325" s="40"/>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A326" s="22" t="s">
         <v>77</v>
       </c>
@@ -34409,7 +34409,7 @@
       </c>
       <c r="AH326" s="40"/>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A327" s="25" t="s">
         <v>36</v>
       </c>
@@ -34511,7 +34511,7 @@
       </c>
       <c r="AH327" s="40"/>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A328" s="32" t="s">
         <v>31</v>
       </c>
@@ -34613,7 +34613,7 @@
       </c>
       <c r="AH328" s="40"/>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A329" s="22" t="s">
         <v>37</v>
       </c>
@@ -34715,7 +34715,7 @@
       </c>
       <c r="AH329" s="40"/>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A330" s="27" t="s">
         <v>38</v>
       </c>
@@ -34817,7 +34817,7 @@
       </c>
       <c r="AH330" s="40"/>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A331" s="32" t="s">
         <v>39</v>
       </c>
@@ -34919,7 +34919,7 @@
       </c>
       <c r="AH331" s="40"/>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A332" s="48"/>
       <c r="B332" s="49"/>
       <c r="C332" s="49"/>
@@ -34955,7 +34955,7 @@
       <c r="AG332" s="49"/>
       <c r="AH332" s="40"/>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A333" s="18" t="s">
         <v>79</v>
       </c>
@@ -34993,7 +34993,7 @@
       <c r="AG333" s="19"/>
       <c r="AH333" s="40"/>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A334" s="20" t="s">
         <v>43</v>
       </c>
@@ -35031,7 +35031,7 @@
       <c r="AG334" s="21"/>
       <c r="AH334" s="40"/>
     </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A335" s="22" t="s">
         <v>80</v>
       </c>
@@ -35133,7 +35133,7 @@
       </c>
       <c r="AH335" s="40"/>
     </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A336" s="25" t="s">
         <v>21</v>
       </c>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="AH336" s="40"/>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A337" s="27" t="s">
         <v>22</v>
       </c>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="AH337" s="40"/>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A338" s="27" t="s">
         <v>23</v>
       </c>
@@ -35439,7 +35439,7 @@
       </c>
       <c r="AH338" s="40"/>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A339" s="22" t="s">
         <v>81</v>
       </c>
@@ -35541,7 +35541,7 @@
       </c>
       <c r="AH339" s="40"/>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A340" s="25" t="s">
         <v>25</v>
       </c>
@@ -35643,7 +35643,7 @@
       </c>
       <c r="AH340" s="40"/>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A341" s="27" t="s">
         <v>26</v>
       </c>
@@ -35745,7 +35745,7 @@
       </c>
       <c r="AH341" s="40"/>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A342" s="27" t="s">
         <v>27</v>
       </c>
@@ -35847,7 +35847,7 @@
       </c>
       <c r="AH342" s="40"/>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A343" s="22" t="s">
         <v>82</v>
       </c>
@@ -35949,7 +35949,7 @@
       </c>
       <c r="AH343" s="40"/>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A344" s="25" t="s">
         <v>29</v>
       </c>
@@ -36051,7 +36051,7 @@
       </c>
       <c r="AH344" s="40"/>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A345" s="27" t="s">
         <v>30</v>
       </c>
@@ -36153,7 +36153,7 @@
       </c>
       <c r="AH345" s="40"/>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A346" s="27" t="s">
         <v>31</v>
       </c>
@@ -36255,7 +36255,7 @@
       </c>
       <c r="AH346" s="40"/>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A347" s="20" t="s">
         <v>44</v>
       </c>
@@ -36293,7 +36293,7 @@
       <c r="AG347" s="21"/>
       <c r="AH347" s="40"/>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A348" s="22" t="s">
         <v>83</v>
       </c>
@@ -36395,7 +36395,7 @@
       </c>
       <c r="AH348" s="40"/>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A349" s="27" t="s">
         <v>33</v>
       </c>
@@ -36497,7 +36497,7 @@
       </c>
       <c r="AH349" s="40"/>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A350" s="32" t="s">
         <v>34</v>
       </c>
@@ -36599,7 +36599,7 @@
       </c>
       <c r="AH350" s="40"/>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A351" s="22" t="s">
         <v>84</v>
       </c>
@@ -36701,7 +36701,7 @@
       </c>
       <c r="AH351" s="40"/>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A352" s="22" t="s">
         <v>85</v>
       </c>
@@ -36803,7 +36803,7 @@
       </c>
       <c r="AH352" s="40"/>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A353" s="25" t="s">
         <v>36</v>
       </c>
@@ -36905,7 +36905,7 @@
       </c>
       <c r="AH353" s="40"/>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A354" s="32" t="s">
         <v>31</v>
       </c>
@@ -37007,7 +37007,7 @@
       </c>
       <c r="AH354" s="40"/>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A355" s="22" t="s">
         <v>37</v>
       </c>
@@ -37109,7 +37109,7 @@
       </c>
       <c r="AH355" s="40"/>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A356" s="27" t="s">
         <v>38</v>
       </c>
@@ -37211,7 +37211,7 @@
       </c>
       <c r="AH356" s="40"/>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A357" s="32" t="s">
         <v>39</v>
       </c>
@@ -37313,7 +37313,7 @@
       </c>
       <c r="AH357" s="40"/>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A358" s="48"/>
       <c r="B358" s="49"/>
       <c r="C358" s="49"/>
@@ -37349,7 +37349,7 @@
       <c r="AG358" s="49"/>
       <c r="AH358" s="40"/>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A359" s="18" t="s">
         <v>86</v>
       </c>
@@ -37387,7 +37387,7 @@
       <c r="AG359" s="19"/>
       <c r="AH359" s="40"/>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A360" s="20" t="s">
         <v>43</v>
       </c>
@@ -37425,7 +37425,7 @@
       <c r="AG360" s="21"/>
       <c r="AH360" s="40"/>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A361" s="22" t="s">
         <v>87</v>
       </c>
@@ -37527,7 +37527,7 @@
       </c>
       <c r="AH361" s="40"/>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A362" s="25" t="s">
         <v>21</v>
       </c>
@@ -37629,7 +37629,7 @@
       </c>
       <c r="AH362" s="40"/>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A363" s="27" t="s">
         <v>22</v>
       </c>
@@ -37731,7 +37731,7 @@
       </c>
       <c r="AH363" s="40"/>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A364" s="27" t="s">
         <v>23</v>
       </c>
@@ -37833,7 +37833,7 @@
       </c>
       <c r="AH364" s="40"/>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A365" s="22" t="s">
         <v>88</v>
       </c>
@@ -37935,7 +37935,7 @@
       </c>
       <c r="AH365" s="40"/>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A366" s="25" t="s">
         <v>25</v>
       </c>
@@ -38037,7 +38037,7 @@
       </c>
       <c r="AH366" s="40"/>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A367" s="27" t="s">
         <v>26</v>
       </c>
@@ -38139,7 +38139,7 @@
       </c>
       <c r="AH367" s="40"/>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A368" s="27" t="s">
         <v>27</v>
       </c>
@@ -38241,7 +38241,7 @@
       </c>
       <c r="AH368" s="40"/>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A369" s="22" t="s">
         <v>89</v>
       </c>
@@ -38343,7 +38343,7 @@
       </c>
       <c r="AH369" s="40"/>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A370" s="25" t="s">
         <v>29</v>
       </c>
@@ -38445,7 +38445,7 @@
       </c>
       <c r="AH370" s="40"/>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A371" s="27" t="s">
         <v>30</v>
       </c>
@@ -38547,7 +38547,7 @@
       </c>
       <c r="AH371" s="40"/>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A372" s="27" t="s">
         <v>31</v>
       </c>
@@ -38649,7 +38649,7 @@
       </c>
       <c r="AH372" s="40"/>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A373" s="20" t="s">
         <v>44</v>
       </c>
@@ -38687,7 +38687,7 @@
       <c r="AG373" s="21"/>
       <c r="AH373" s="40"/>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A374" s="22" t="s">
         <v>87</v>
       </c>
@@ -38789,7 +38789,7 @@
       </c>
       <c r="AH374" s="40"/>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A375" s="27" t="s">
         <v>33</v>
       </c>
@@ -38891,7 +38891,7 @@
       </c>
       <c r="AH375" s="40"/>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A376" s="32" t="s">
         <v>34</v>
       </c>
@@ -38993,7 +38993,7 @@
       </c>
       <c r="AH376" s="40"/>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A377" s="22" t="s">
         <v>90</v>
       </c>
@@ -39095,7 +39095,7 @@
       </c>
       <c r="AH377" s="40"/>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A378" s="22" t="s">
         <v>89</v>
       </c>
@@ -39197,7 +39197,7 @@
       </c>
       <c r="AH378" s="40"/>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A379" s="25" t="s">
         <v>36</v>
       </c>
@@ -39299,7 +39299,7 @@
       </c>
       <c r="AH379" s="40"/>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A380" s="32" t="s">
         <v>31</v>
       </c>
@@ -39401,7 +39401,7 @@
       </c>
       <c r="AH380" s="40"/>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A381" s="22" t="s">
         <v>37</v>
       </c>
@@ -39503,7 +39503,7 @@
       </c>
       <c r="AH381" s="40"/>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A382" s="27" t="s">
         <v>38</v>
       </c>
@@ -39605,7 +39605,7 @@
       </c>
       <c r="AH382" s="40"/>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A383" s="32" t="s">
         <v>39</v>
       </c>
@@ -39707,7 +39707,7 @@
       </c>
       <c r="AH383" s="40"/>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A384" s="48"/>
       <c r="B384" s="49"/>
       <c r="C384" s="49"/>
@@ -39743,7 +39743,7 @@
       <c r="AG384" s="49"/>
       <c r="AH384" s="40"/>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="40"/>
       <c r="C385" s="40"/>
@@ -39792,15 +39792,15 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>8854.0777976351601</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
@@ -39824,7 +39824,7 @@
         <v>8346.0790641255444</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -39832,7 +39832,7 @@
         <v>1103.3234132134789</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -39840,7 +39840,7 @@
         <v>3725.516078160827</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
@@ -39848,7 +39848,7 @@
         <v>3517.239572751238</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -39856,7 +39856,7 @@
         <v>507.99873350961605</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -39864,7 +39864,7 @@
         <v>165.67674900357699</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
@@ -39888,13 +39888,13 @@
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>92</v>
       </c>
@@ -39995,7 +39995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -40030,7 +40030,7 @@
       <c r="AF2" s="66"/>
       <c r="AG2" s="66"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>93</v>
       </c>
@@ -40067,7 +40067,7 @@
       <c r="AF3" s="62"/>
       <c r="AG3" s="62"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>38</v>
       </c>
@@ -40168,7 +40168,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>94</v>
       </c>
@@ -40269,7 +40269,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>95</v>
       </c>
@@ -40370,7 +40370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>96</v>
       </c>
@@ -40471,7 +40471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>97</v>
       </c>
@@ -40572,7 +40572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>98</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>99</v>
       </c>
@@ -40774,7 +40774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -40875,7 +40875,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="s">
         <v>94</v>
       </c>
@@ -40976,7 +40976,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>95</v>
       </c>
@@ -41077,7 +41077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>96</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>97</v>
       </c>
@@ -41279,7 +41279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>98</v>
       </c>
@@ -41380,7 +41380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>99</v>
       </c>
@@ -41481,7 +41481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -41516,7 +41516,7 @@
       <c r="AF18" s="66"/>
       <c r="AG18" s="66"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>100</v>
       </c>
@@ -41553,7 +41553,7 @@
       <c r="AF19" s="62"/>
       <c r="AG19" s="62"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>101</v>
       </c>
@@ -41654,7 +41654,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="s">
         <v>94</v>
       </c>
@@ -41755,7 +41755,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>95</v>
       </c>
@@ -41856,7 +41856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
         <v>96</v>
       </c>
@@ -41957,7 +41957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>97</v>
       </c>
@@ -42058,7 +42058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>98</v>
       </c>
@@ -42159,7 +42159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
         <v>99</v>
       </c>
@@ -42260,7 +42260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>102</v>
       </c>
@@ -42361,7 +42361,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="60" t="s">
         <v>94</v>
       </c>
@@ -42462,7 +42462,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
         <v>95</v>
       </c>
@@ -42563,7 +42563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
         <v>96</v>
       </c>
@@ -42664,7 +42664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="60" t="s">
         <v>97</v>
       </c>
@@ -42765,7 +42765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>98</v>
       </c>
@@ -42866,7 +42866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>99</v>
       </c>
@@ -42967,7 +42967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
         <v>103</v>
       </c>
@@ -43068,7 +43068,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>104</v>
       </c>
@@ -43169,7 +43169,7 @@
         <v>495.4</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>101</v>
       </c>
@@ -43270,7 +43270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="s">
         <v>94</v>
       </c>
@@ -43371,7 +43371,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
         <v>95</v>
       </c>
@@ -43472,7 +43472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
         <v>96</v>
       </c>
@@ -43573,7 +43573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
         <v>97</v>
       </c>
@@ -43674,7 +43674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="s">
         <v>98</v>
       </c>
@@ -43775,7 +43775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="s">
         <v>99</v>
       </c>
@@ -43876,7 +43876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>102</v>
       </c>
@@ -43977,7 +43977,7 @@
         <v>382.4</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="s">
         <v>94</v>
       </c>
@@ -44078,7 +44078,7 @@
         <v>382.2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="s">
         <v>95</v>
       </c>
@@ -44179,7 +44179,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="s">
         <v>96</v>
       </c>
@@ -44280,7 +44280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="s">
         <v>97</v>
       </c>
@@ -44381,7 +44381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="s">
         <v>98</v>
       </c>
@@ -44482,7 +44482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>99</v>
       </c>
@@ -44583,7 +44583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>105</v>
       </c>
@@ -44684,7 +44684,7 @@
         <v>430.9</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>38</v>
       </c>
@@ -44785,7 +44785,7 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="s">
         <v>94</v>
       </c>
@@ -44886,7 +44886,7 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>95</v>
       </c>
@@ -44987,7 +44987,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
         <v>96</v>
       </c>
@@ -45088,7 +45088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="s">
         <v>97</v>
       </c>
@@ -45189,7 +45189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="60" t="s">
         <v>98</v>
       </c>
@@ -45290,7 +45290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="60" t="s">
         <v>99</v>
       </c>
@@ -45391,7 +45391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
         <v>39</v>
       </c>
@@ -45492,7 +45492,7 @@
         <v>280.2</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="s">
         <v>94</v>
       </c>
@@ -45593,7 +45593,7 @@
         <v>280.10000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="60" t="s">
         <v>95</v>
       </c>
@@ -45694,7 +45694,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="60" t="s">
         <v>96</v>
       </c>
@@ -45795,7 +45795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="60" t="s">
         <v>97</v>
       </c>
@@ -45896,7 +45896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="s">
         <v>98</v>
       </c>
@@ -45997,7 +45997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="61" t="s">
         <v>99</v>
       </c>
@@ -46098,7 +46098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="38" t="s">
         <v>92</v>
       </c>
@@ -46196,7 +46196,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="18" t="s">
         <v>93</v>
       </c>
@@ -46232,7 +46232,7 @@
       <c r="AE69" s="62"/>
       <c r="AF69" s="62"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="57" t="s">
         <v>38</v>
       </c>
@@ -46330,7 +46330,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="s">
         <v>94</v>
       </c>
@@ -46428,7 +46428,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
         <v>95</v>
       </c>
@@ -46526,7 +46526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="s">
         <v>96</v>
       </c>
@@ -46624,7 +46624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="s">
         <v>97</v>
       </c>
@@ -46722,7 +46722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="60" t="s">
         <v>98</v>
       </c>
@@ -46820,7 +46820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="s">
         <v>99</v>
       </c>
@@ -46918,7 +46918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>39</v>
       </c>
@@ -47016,7 +47016,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
         <v>94</v>
       </c>
@@ -47114,7 +47114,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
         <v>95</v>
       </c>
@@ -47212,7 +47212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="s">
         <v>96</v>
       </c>
@@ -47310,7 +47310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="s">
         <v>97</v>
       </c>
@@ -47408,7 +47408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="s">
         <v>98</v>
       </c>
@@ -47506,7 +47506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="61" t="s">
         <v>99</v>
       </c>
@@ -47604,7 +47604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
       <c r="C84" s="66"/>
@@ -47638,7 +47638,7 @@
       <c r="AE84" s="66"/>
       <c r="AF84" s="66"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="18" t="s">
         <v>100</v>
       </c>
@@ -47674,7 +47674,7 @@
       <c r="AE85" s="62"/>
       <c r="AF85" s="62"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
         <v>101</v>
       </c>
@@ -47772,7 +47772,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="s">
         <v>94</v>
       </c>
@@ -47870,7 +47870,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="s">
         <v>95</v>
       </c>
@@ -47968,7 +47968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="s">
         <v>96</v>
       </c>
@@ -48066,7 +48066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="s">
         <v>97</v>
       </c>
@@ -48164,7 +48164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="s">
         <v>98</v>
       </c>
@@ -48262,7 +48262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="s">
         <v>99</v>
       </c>
@@ -48360,7 +48360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
         <v>102</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="s">
         <v>94</v>
       </c>
@@ -48556,7 +48556,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="60" t="s">
         <v>95</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="s">
         <v>96</v>
       </c>
@@ -48752,7 +48752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="s">
         <v>97</v>
       </c>
@@ -48850,7 +48850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="s">
         <v>98</v>
       </c>
@@ -48948,7 +48948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="61" t="s">
         <v>99</v>
       </c>
@@ -49065,13 +49065,13 @@
       <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.453125" customWidth="1"/>
-    <col min="2" max="21" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="21" width="13.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>106</v>
       </c>
@@ -49230,7 +49230,7 @@
       </c>
       <c r="BA1" s="40"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -49285,7 +49285,7 @@
       <c r="AZ2" s="40"/>
       <c r="BA2" s="40"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -49340,7 +49340,7 @@
       <c r="AZ3" s="66"/>
       <c r="BA3" s="40"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>107</v>
       </c>
@@ -49499,7 +49499,7 @@
       </c>
       <c r="BA4" s="40"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>38</v>
       </c>
@@ -49658,7 +49658,7 @@
       </c>
       <c r="BA5" s="40"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>94</v>
       </c>
@@ -49817,7 +49817,7 @@
       </c>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>95</v>
       </c>
@@ -49976,7 +49976,7 @@
       </c>
       <c r="BA7" s="40"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>96</v>
       </c>
@@ -50135,7 +50135,7 @@
       </c>
       <c r="BA8" s="40"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>97</v>
       </c>
@@ -50294,7 +50294,7 @@
       </c>
       <c r="BA9" s="40"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>98</v>
       </c>
@@ -50453,7 +50453,7 @@
       </c>
       <c r="BA10" s="40"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>99</v>
       </c>
@@ -50612,7 +50612,7 @@
       </c>
       <c r="BA11" s="40"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>39</v>
       </c>
@@ -50771,7 +50771,7 @@
       </c>
       <c r="BA12" s="40"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="s">
         <v>94</v>
       </c>
@@ -50930,7 +50930,7 @@
       </c>
       <c r="BA13" s="40"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="s">
         <v>95</v>
       </c>
@@ -51089,7 +51089,7 @@
       </c>
       <c r="BA14" s="40"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="s">
         <v>96</v>
       </c>
@@ -51248,7 +51248,7 @@
       </c>
       <c r="BA15" s="40"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>97</v>
       </c>
@@ -51407,7 +51407,7 @@
       </c>
       <c r="BA16" s="40"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="s">
         <v>98</v>
       </c>
@@ -51566,7 +51566,7 @@
       </c>
       <c r="BA17" s="40"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>99</v>
       </c>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="BA18" s="40"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -51780,7 +51780,7 @@
       <c r="AZ19" s="66"/>
       <c r="BA19" s="40"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
@@ -51939,7 +51939,7 @@
       </c>
       <c r="BA20" s="40"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>101</v>
       </c>
@@ -52098,7 +52098,7 @@
       </c>
       <c r="BA21" s="40"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="s">
         <v>94</v>
       </c>
@@ -52257,7 +52257,7 @@
       </c>
       <c r="BA22" s="40"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="s">
         <v>95</v>
       </c>
@@ -52416,7 +52416,7 @@
       </c>
       <c r="BA23" s="40"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" s="60" t="s">
         <v>96</v>
       </c>
@@ -52575,7 +52575,7 @@
       </c>
       <c r="BA24" s="40"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="s">
         <v>97</v>
       </c>
@@ -52734,7 +52734,7 @@
       </c>
       <c r="BA25" s="40"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
         <v>98</v>
       </c>
@@ -52893,7 +52893,7 @@
       </c>
       <c r="BA26" s="40"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
         <v>99</v>
       </c>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="BA27" s="40"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>102</v>
       </c>
@@ -53211,7 +53211,7 @@
       </c>
       <c r="BA28" s="40"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="s">
         <v>94</v>
       </c>
@@ -53370,7 +53370,7 @@
       </c>
       <c r="BA29" s="40"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" s="60" t="s">
         <v>95</v>
       </c>
@@ -53529,7 +53529,7 @@
       </c>
       <c r="BA30" s="40"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A31" s="60" t="s">
         <v>96</v>
       </c>
@@ -53688,7 +53688,7 @@
       </c>
       <c r="BA31" s="40"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="s">
         <v>97</v>
       </c>
@@ -53847,7 +53847,7 @@
       </c>
       <c r="BA32" s="40"/>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="s">
         <v>98</v>
       </c>
@@ -54006,7 +54006,7 @@
       </c>
       <c r="BA33" s="40"/>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>99</v>
       </c>
@@ -54165,7 +54165,7 @@
       </c>
       <c r="BA34" s="40"/>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -54232,17 +54232,17 @@
   </sheetPr>
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AL19" sqref="AL19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
-    <col min="2" max="32" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="32" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>109</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
@@ -54469,7 +54469,7 @@
         <v>11949</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>111</v>
       </c>
@@ -54598,7 +54598,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>112</v>
       </c>
@@ -54634,7 +54634,7 @@
       <c r="AE4" s="70"/>
       <c r="AF4" s="70"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>113</v>
       </c>
@@ -54763,7 +54763,7 @@
         <v>191268</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>114</v>
       </c>
@@ -54861,7 +54861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>115</v>
       </c>
@@ -54990,545 +54990,514 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="C15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="D15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="E15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="F15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="G15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="H15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="I15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="J15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="K15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="L15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="M15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="N15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="O15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="P15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="Q15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="R15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="S15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="T15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="U15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="V15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="W15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="X15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="Y15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="Z15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="AA15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="AB15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="AC15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="AD15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="AE15">
+        <v>118.5737001951846</v>
+      </c>
+      <c r="AF15">
+        <v>118.5737001951846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="B15">
-        <f>'JRC Database'!C83</f>
-        <v>146.22999999999999</v>
-      </c>
-      <c r="C15">
-        <f>'JRC Database'!D83</f>
-        <v>147.26</v>
-      </c>
-      <c r="D15">
-        <f>'JRC Database'!E83</f>
-        <v>148.30000000000001</v>
-      </c>
-      <c r="E15">
-        <f>'JRC Database'!F83</f>
-        <v>149.22</v>
-      </c>
-      <c r="F15">
-        <f>'JRC Database'!G83</f>
-        <v>150.62</v>
-      </c>
-      <c r="G15">
-        <f>'JRC Database'!H83</f>
-        <v>151.57</v>
-      </c>
-      <c r="H15">
-        <f>'JRC Database'!I83</f>
-        <v>152.21</v>
-      </c>
-      <c r="I15">
-        <f>'JRC Database'!J83</f>
-        <v>152.65</v>
-      </c>
-      <c r="J15">
-        <f>'JRC Database'!K83</f>
-        <v>153.07</v>
-      </c>
-      <c r="K15">
-        <f>'JRC Database'!L83</f>
-        <v>153.80000000000001</v>
-      </c>
-      <c r="L15">
-        <f>'JRC Database'!M83</f>
-        <v>154.22</v>
-      </c>
-      <c r="M15">
-        <f>'JRC Database'!N83</f>
-        <v>154.56</v>
-      </c>
-      <c r="N15">
-        <f>'JRC Database'!O83</f>
-        <v>155.41999999999999</v>
-      </c>
-      <c r="O15">
-        <f>'JRC Database'!P83</f>
-        <v>155.80000000000001</v>
-      </c>
-      <c r="P15">
-        <f>'JRC Database'!Q83</f>
-        <v>156.56</v>
-      </c>
-      <c r="Q15">
-        <f>'JRC Database'!R83</f>
-        <v>157.16</v>
-      </c>
-      <c r="R15">
-        <f>'JRC Database'!S83</f>
-        <v>157.82</v>
-      </c>
-      <c r="S15">
-        <f>'JRC Database'!T83</f>
-        <v>158.86000000000001</v>
-      </c>
-      <c r="T15">
-        <f>'JRC Database'!U83</f>
-        <v>158.83000000000001</v>
-      </c>
-      <c r="U15">
-        <f>'JRC Database'!V83</f>
-        <v>159.59</v>
-      </c>
-      <c r="V15">
-        <f>'JRC Database'!W83</f>
-        <v>160.44</v>
-      </c>
-      <c r="W15">
-        <f>'JRC Database'!X83</f>
-        <v>161.07</v>
-      </c>
-      <c r="X15">
-        <f>'JRC Database'!Y83</f>
-        <v>161.87</v>
-      </c>
-      <c r="Y15">
-        <f>'JRC Database'!Z83</f>
-        <v>162.56</v>
-      </c>
-      <c r="Z15">
-        <f>'JRC Database'!AA83</f>
-        <v>163.34</v>
-      </c>
-      <c r="AA15">
-        <f>'JRC Database'!AB83</f>
-        <v>163.65</v>
-      </c>
-      <c r="AB15">
-        <f>'JRC Database'!AC83</f>
-        <v>164.37</v>
-      </c>
-      <c r="AC15">
-        <f>'JRC Database'!AD83</f>
-        <v>165.23</v>
-      </c>
-      <c r="AD15">
-        <f>'JRC Database'!AE83</f>
-        <v>165.29</v>
-      </c>
-      <c r="AE15">
-        <f>'JRC Database'!AF83</f>
-        <v>166.06</v>
-      </c>
-      <c r="AF15">
-        <f>'JRC Database'!AG83</f>
-        <v>166.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="79" t="s">
+      <c r="B16" s="72">
+        <f>'JRC Database'!C19+'JRC Database'!C20</f>
+        <v>813660.9</v>
+      </c>
+      <c r="C16" s="72">
+        <f>'JRC Database'!D19+'JRC Database'!D20</f>
+        <v>836599.29999999993</v>
+      </c>
+      <c r="D16" s="72">
+        <f>'JRC Database'!E19+'JRC Database'!E20</f>
+        <v>860705.6</v>
+      </c>
+      <c r="E16" s="72">
+        <f>'JRC Database'!F19+'JRC Database'!F20</f>
+        <v>881218.1</v>
+      </c>
+      <c r="F16" s="72">
+        <f>'JRC Database'!G19+'JRC Database'!G20</f>
+        <v>902692.70000000007</v>
+      </c>
+      <c r="G16" s="72">
+        <f>'JRC Database'!H19+'JRC Database'!H20</f>
+        <v>927739.5</v>
+      </c>
+      <c r="H16" s="72">
+        <f>'JRC Database'!I19+'JRC Database'!I20</f>
+        <v>950968.29999999993</v>
+      </c>
+      <c r="I16" s="72">
+        <f>'JRC Database'!J19+'JRC Database'!J20</f>
+        <v>973669.1</v>
+      </c>
+      <c r="J16" s="72">
+        <f>'JRC Database'!K19+'JRC Database'!K20</f>
+        <v>996281.9</v>
+      </c>
+      <c r="K16" s="72">
+        <f>'JRC Database'!L19+'JRC Database'!L20</f>
+        <v>1018836.7999999999</v>
+      </c>
+      <c r="L16" s="72">
+        <f>'JRC Database'!M19+'JRC Database'!M20</f>
+        <v>1040205.8999999999</v>
+      </c>
+      <c r="M16" s="72">
+        <f>'JRC Database'!N19+'JRC Database'!N20</f>
+        <v>1061469.3999999999</v>
+      </c>
+      <c r="N16" s="72">
+        <f>'JRC Database'!O19+'JRC Database'!O20</f>
+        <v>1083662.8</v>
+      </c>
+      <c r="O16" s="72">
+        <f>'JRC Database'!P19+'JRC Database'!P20</f>
+        <v>1103554.2</v>
+      </c>
+      <c r="P16" s="72">
+        <f>'JRC Database'!Q19+'JRC Database'!Q20</f>
+        <v>1124235.8</v>
+      </c>
+      <c r="Q16" s="72">
+        <f>'JRC Database'!R19+'JRC Database'!R20</f>
+        <v>1144297.0999999999</v>
+      </c>
+      <c r="R16" s="72">
+        <f>'JRC Database'!S19+'JRC Database'!S20</f>
+        <v>1165079.1000000001</v>
+      </c>
+      <c r="S16" s="72">
+        <f>'JRC Database'!T19+'JRC Database'!T20</f>
+        <v>1187134.6000000001</v>
+      </c>
+      <c r="T16" s="72">
+        <f>'JRC Database'!U19+'JRC Database'!U20</f>
+        <v>1207857.3</v>
+      </c>
+      <c r="U16" s="72">
+        <f>'JRC Database'!V19+'JRC Database'!V20</f>
+        <v>1228802.8</v>
+      </c>
+      <c r="V16" s="72">
+        <f>'JRC Database'!W19+'JRC Database'!W20</f>
+        <v>1250728.3</v>
+      </c>
+      <c r="W16" s="72">
+        <f>'JRC Database'!X19+'JRC Database'!X20</f>
+        <v>1272911.2</v>
+      </c>
+      <c r="X16" s="72">
+        <f>'JRC Database'!Y19+'JRC Database'!Y20</f>
+        <v>1296389.2999999998</v>
+      </c>
+      <c r="Y16" s="72">
+        <f>'JRC Database'!Z19+'JRC Database'!Z20</f>
+        <v>1319560.8</v>
+      </c>
+      <c r="Z16" s="72">
+        <f>'JRC Database'!AA19+'JRC Database'!AA20</f>
+        <v>1342975.6</v>
+      </c>
+      <c r="AA16" s="72">
+        <f>'JRC Database'!AB19+'JRC Database'!AB20</f>
+        <v>1365866.8</v>
+      </c>
+      <c r="AB16" s="72">
+        <f>'JRC Database'!AC19+'JRC Database'!AC20</f>
+        <v>1390454.2</v>
+      </c>
+      <c r="AC16" s="72">
+        <f>'JRC Database'!AD19+'JRC Database'!AD20</f>
+        <v>1413931.8</v>
+      </c>
+      <c r="AD16" s="72">
+        <f>'JRC Database'!AE19+'JRC Database'!AE20</f>
+        <v>1435158</v>
+      </c>
+      <c r="AE16" s="72">
+        <f>'JRC Database'!AF19+'JRC Database'!AF20</f>
+        <v>1459847.7</v>
+      </c>
+      <c r="AF16" s="72">
+        <f>'JRC Database'!AG19+'JRC Database'!AG20</f>
+        <v>1481353.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="72">
-        <f>'JRC Database'!C18</f>
-        <v>2127902.4</v>
-      </c>
-      <c r="C16" s="72">
-        <f>'JRC Database'!D18</f>
-        <v>2198695.9</v>
-      </c>
-      <c r="D16" s="72">
-        <f>'JRC Database'!E18</f>
-        <v>2267695.6</v>
-      </c>
-      <c r="E16" s="72">
-        <f>'JRC Database'!F18</f>
-        <v>2331401.5</v>
-      </c>
-      <c r="F16" s="72">
-        <f>'JRC Database'!G18</f>
-        <v>2393563.7999999998</v>
-      </c>
-      <c r="G16" s="72">
-        <f>'JRC Database'!H18</f>
-        <v>2452327.9</v>
-      </c>
-      <c r="H16" s="72">
-        <f>'JRC Database'!I18</f>
-        <v>2508162.9</v>
-      </c>
-      <c r="I16" s="72">
-        <f>'JRC Database'!J18</f>
-        <v>2562714.7999999998</v>
-      </c>
-      <c r="J16" s="72">
-        <f>'JRC Database'!K18</f>
-        <v>2620246.1</v>
-      </c>
-      <c r="K16" s="72">
-        <f>'JRC Database'!L18</f>
-        <v>2680935.2999999998</v>
-      </c>
-      <c r="L16" s="72">
-        <f>'JRC Database'!M18</f>
-        <v>2736403.3</v>
-      </c>
-      <c r="M16" s="72">
-        <f>'JRC Database'!N18</f>
-        <v>2791595.6</v>
-      </c>
-      <c r="N16" s="72">
-        <f>'JRC Database'!O18</f>
-        <v>2849867.4</v>
-      </c>
-      <c r="O16" s="72">
-        <f>'JRC Database'!P18</f>
-        <v>2899087.4</v>
-      </c>
-      <c r="P16" s="72">
-        <f>'JRC Database'!Q18</f>
-        <v>2951239.4</v>
-      </c>
-      <c r="Q16" s="72">
-        <f>'JRC Database'!R18</f>
-        <v>3000217.5</v>
-      </c>
-      <c r="R16" s="72">
-        <f>'JRC Database'!S18</f>
-        <v>3052486.3</v>
-      </c>
-      <c r="S16" s="72">
-        <f>'JRC Database'!T18</f>
-        <v>3110000.2</v>
-      </c>
-      <c r="T16" s="72">
-        <f>'JRC Database'!U18</f>
-        <v>3161199.7</v>
-      </c>
-      <c r="U16" s="72">
-        <f>'JRC Database'!V18</f>
-        <v>3213304.8</v>
-      </c>
-      <c r="V16" s="72">
-        <f>'JRC Database'!W18</f>
-        <v>3268746.7</v>
-      </c>
-      <c r="W16" s="72">
-        <f>'JRC Database'!X18</f>
-        <v>3324453.1</v>
-      </c>
-      <c r="X16" s="72">
-        <f>'JRC Database'!Y18</f>
-        <v>3385047.2</v>
-      </c>
-      <c r="Y16" s="72">
-        <f>'JRC Database'!Z18</f>
-        <v>3443140</v>
-      </c>
-      <c r="Z16" s="72">
-        <f>'JRC Database'!AA18</f>
-        <v>3501622.7</v>
-      </c>
-      <c r="AA16" s="72">
-        <f>'JRC Database'!AB18</f>
-        <v>3557580.6</v>
-      </c>
-      <c r="AB16" s="72">
-        <f>'JRC Database'!AC18</f>
-        <v>3620640.1</v>
-      </c>
-      <c r="AC16" s="72">
-        <f>'JRC Database'!AD18</f>
-        <v>3679363.5</v>
-      </c>
-      <c r="AD16" s="72">
-        <f>'JRC Database'!AE18</f>
-        <v>3729115.3</v>
-      </c>
-      <c r="AE16" s="72">
-        <f>'JRC Database'!AF18</f>
-        <v>3791748.5</v>
-      </c>
-      <c r="AF16" s="72">
-        <f>'JRC Database'!AG18</f>
-        <v>3842546.3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="79" t="s">
+      <c r="B17">
+        <f>'Stock aircraft'!B5+'Stock aircraft'!B6</f>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="C17" s="76">
+        <f>$B$17</f>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="D17" s="76">
+        <f t="shared" ref="D17:AF17" si="0">$B$17</f>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="E17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="F17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="G17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="H17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="I17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="J17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="K17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="L17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="M17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="N17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="O17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="P17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="Q17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="R17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="S17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="T17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="U17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="V17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="W17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="X17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="Y17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="Z17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="AA17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="AB17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="AC17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="AD17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="AE17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+      <c r="AF17" s="76">
+        <f t="shared" si="0"/>
+        <v>4828.8394913743059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="B17">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="C17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="D17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="E17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="F17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="G17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="H17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="I17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="J17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="K17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="L17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="M17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="N17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="O17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="P17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="Q17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="R17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="S17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="T17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="U17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="V17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="W17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="X17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="Y17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="Z17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="AA17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="AB17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="AC17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="AD17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="AE17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-      <c r="AF17" s="76">
-        <f>'Stock aircraft'!$B$3</f>
-        <v>8854.0777976351601</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="80" t="s">
+      <c r="B18" s="70">
+        <f t="shared" ref="B18:AF18" si="1">B16*1000000/B17/B15</f>
+        <v>1421059.6372723954</v>
+      </c>
+      <c r="C18" s="70">
+        <f t="shared" si="1"/>
+        <v>1461121.5775519502</v>
+      </c>
+      <c r="D18" s="70">
+        <f t="shared" si="1"/>
+        <v>1503223.256438056</v>
+      </c>
+      <c r="E18" s="70">
+        <f t="shared" si="1"/>
+        <v>1539048.3597575717</v>
+      </c>
+      <c r="F18" s="70">
+        <f t="shared" si="1"/>
+        <v>1576553.7717622162</v>
+      </c>
+      <c r="G18" s="70">
+        <f t="shared" si="1"/>
+        <v>1620298.0349102106</v>
+      </c>
+      <c r="H18" s="70">
+        <f t="shared" si="1"/>
+        <v>1660867.1591022087</v>
+      </c>
+      <c r="I18" s="70">
+        <f t="shared" si="1"/>
+        <v>1700514.1307261288</v>
+      </c>
+      <c r="J18" s="70">
+        <f t="shared" si="1"/>
+        <v>1740007.4102553693</v>
+      </c>
+      <c r="K18" s="70">
+        <f t="shared" si="1"/>
+        <v>1779399.5673723144</v>
+      </c>
+      <c r="L18" s="70">
+        <f t="shared" si="1"/>
+        <v>1816720.7235134507</v>
+      </c>
+      <c r="M18" s="70">
+        <f t="shared" si="1"/>
+        <v>1853857.4491409715</v>
+      </c>
+      <c r="N18" s="70">
+        <f t="shared" si="1"/>
+        <v>1892618.2461189772</v>
+      </c>
+      <c r="O18" s="70">
+        <f t="shared" si="1"/>
+        <v>1927358.5976202474</v>
+      </c>
+      <c r="P18" s="70">
+        <f t="shared" si="1"/>
+        <v>1963479.0342716989</v>
+      </c>
+      <c r="Q18" s="70">
+        <f t="shared" si="1"/>
+        <v>1998516.1163057652</v>
+      </c>
+      <c r="R18" s="70">
+        <f t="shared" si="1"/>
+        <v>2034811.901665238</v>
+      </c>
+      <c r="S18" s="70">
+        <f t="shared" si="1"/>
+        <v>2073331.856144876</v>
+      </c>
+      <c r="T18" s="70">
+        <f t="shared" si="1"/>
+        <v>2109524.0739905466</v>
+      </c>
+      <c r="U18" s="70">
+        <f t="shared" si="1"/>
+        <v>2146105.4122759295</v>
+      </c>
+      <c r="V18" s="70">
+        <f t="shared" si="1"/>
+        <v>2184398.3216157001</v>
+      </c>
+      <c r="W18" s="70">
+        <f t="shared" si="1"/>
+        <v>2223140.7803324084</v>
+      </c>
+      <c r="X18" s="70">
+        <f t="shared" si="1"/>
+        <v>2264145.3072426291</v>
+      </c>
+      <c r="Y18" s="70">
+        <f t="shared" si="1"/>
+        <v>2304614.3569229785</v>
+      </c>
+      <c r="Z18" s="70">
+        <f t="shared" si="1"/>
+        <v>2345508.3303150954</v>
+      </c>
+      <c r="AA18" s="70">
+        <f t="shared" si="1"/>
+        <v>2385487.8357438673</v>
+      </c>
+      <c r="AB18" s="70">
+        <f t="shared" si="1"/>
+        <v>2428429.7562975911</v>
+      </c>
+      <c r="AC18" s="70">
+        <f t="shared" si="1"/>
+        <v>2469433.4099572748</v>
+      </c>
+      <c r="AD18" s="70">
+        <f t="shared" si="1"/>
+        <v>2506504.9910946642</v>
+      </c>
+      <c r="AE18" s="70">
+        <f t="shared" si="1"/>
+        <v>2549625.5787084531</v>
+      </c>
+      <c r="AF18" s="70">
+        <f t="shared" si="1"/>
+        <v>2587185.4815466655</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="77" t="s">
         <v>122</v>
-      </c>
-      <c r="B18" s="70">
-        <f t="shared" ref="B18:AF18" si="0">B16*1000000/B17/B15</f>
-        <v>1643508.2586229681</v>
-      </c>
-      <c r="C18" s="70">
-        <f t="shared" si="0"/>
-        <v>1686308.5297184698</v>
-      </c>
-      <c r="D18" s="70">
-        <f t="shared" si="0"/>
-        <v>1727031.5549456808</v>
-      </c>
-      <c r="E18" s="70">
-        <f t="shared" si="0"/>
-        <v>1764601.7364260899</v>
-      </c>
-      <c r="F18" s="70">
-        <f t="shared" si="0"/>
-        <v>1794812.2750679492</v>
-      </c>
-      <c r="G18" s="70">
-        <f t="shared" si="0"/>
-        <v>1827350.914256711</v>
-      </c>
-      <c r="H18" s="70">
-        <f t="shared" si="0"/>
-        <v>1861097.9039262882</v>
-      </c>
-      <c r="I18" s="70">
-        <f t="shared" si="0"/>
-        <v>1896095.1821899819</v>
-      </c>
-      <c r="J18" s="70">
-        <f t="shared" si="0"/>
-        <v>1933341.9186294002</v>
-      </c>
-      <c r="K18" s="70">
-        <f t="shared" si="0"/>
-        <v>1968732.2882241369</v>
-      </c>
-      <c r="L18" s="70">
-        <f t="shared" si="0"/>
-        <v>2003992.4133303552</v>
-      </c>
-      <c r="M18" s="70">
-        <f t="shared" si="0"/>
-        <v>2039914.9575818861</v>
-      </c>
-      <c r="N18" s="70">
-        <f t="shared" si="0"/>
-        <v>2070972.896331002</v>
-      </c>
-      <c r="O18" s="70">
-        <f t="shared" si="0"/>
-        <v>2101602.2339498405</v>
-      </c>
-      <c r="P18" s="70">
-        <f t="shared" si="0"/>
-        <v>2129022.7095307219</v>
-      </c>
-      <c r="Q18" s="70">
-        <f t="shared" si="0"/>
-        <v>2156092.4863893157</v>
-      </c>
-      <c r="R18" s="70">
-        <f t="shared" si="0"/>
-        <v>2184481.3976524249</v>
-      </c>
-      <c r="S18" s="70">
-        <f t="shared" si="0"/>
-        <v>2211070.1681015482</v>
-      </c>
-      <c r="T18" s="70">
-        <f t="shared" si="0"/>
-        <v>2247895.2131777084</v>
-      </c>
-      <c r="U18" s="70">
-        <f t="shared" si="0"/>
-        <v>2274065.2112877858</v>
-      </c>
-      <c r="V18" s="70">
-        <f t="shared" si="0"/>
-        <v>2301045.8946027178</v>
-      </c>
-      <c r="W18" s="70">
-        <f t="shared" si="0"/>
-        <v>2331107.051789382</v>
-      </c>
-      <c r="X18" s="70">
-        <f t="shared" si="0"/>
-        <v>2361864.7708797068</v>
-      </c>
-      <c r="Y18" s="70">
-        <f t="shared" si="0"/>
-        <v>2392200.9442218482</v>
-      </c>
-      <c r="Z18" s="70">
-        <f t="shared" si="0"/>
-        <v>2421215.6038313047</v>
-      </c>
-      <c r="AA18" s="70">
-        <f t="shared" si="0"/>
-        <v>2455248.2201188114</v>
-      </c>
-      <c r="AB18" s="70">
-        <f t="shared" si="0"/>
-        <v>2487822.9410736221</v>
-      </c>
-      <c r="AC18" s="70">
-        <f t="shared" si="0"/>
-        <v>2515014.3029438155</v>
-      </c>
-      <c r="AD18" s="70">
-        <f t="shared" si="0"/>
-        <v>2548096.6573750526</v>
-      </c>
-      <c r="AE18" s="70">
-        <f t="shared" si="0"/>
-        <v>2578880.1324374778</v>
-      </c>
-      <c r="AF18" s="70">
-        <f t="shared" si="0"/>
-        <v>2609186.8915470215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="77" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -55543,19 +55512,19 @@
   </sheetPr>
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="14.54296875" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="7">
         <v>2020</v>
@@ -55651,7 +55620,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
@@ -55780,7 +55749,7 @@
         <v>16396</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>111</v>
       </c>
@@ -55909,136 +55878,136 @@
         <v>29630</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="82">
         <f>B32</f>
-        <v>1947996.6871367749</v>
+        <v>904615.39277609542</v>
       </c>
       <c r="C4" s="82">
         <f t="shared" ref="C4:AF4" si="0">C32</f>
-        <v>2026934.9641221175</v>
+        <v>953198.24509764649</v>
       </c>
       <c r="D4" s="82">
         <f t="shared" si="0"/>
-        <v>2102513.5117543256</v>
+        <v>998111.23985934269</v>
       </c>
       <c r="E4" s="82">
         <f t="shared" si="0"/>
-        <v>2176103.5743330615</v>
+        <v>1042120.2002515608</v>
       </c>
       <c r="F4" s="82">
         <f t="shared" si="0"/>
-        <v>2229358.241236547</v>
+        <v>1086725.8849275506</v>
       </c>
       <c r="G4" s="82">
         <f t="shared" si="0"/>
-        <v>2289826.0770230694</v>
+        <v>1133858.1804526285</v>
       </c>
       <c r="H4" s="82">
         <f t="shared" si="0"/>
-        <v>2356039.7264155126</v>
+        <v>1185241.449770483</v>
       </c>
       <c r="I4" s="82">
         <f t="shared" si="0"/>
-        <v>2427326.3634327953</v>
+        <v>1240154.6382827584</v>
       </c>
       <c r="J4" s="82">
         <f t="shared" si="0"/>
-        <v>2503993.4568224042</v>
+        <v>1297381.9373213481</v>
       </c>
       <c r="K4" s="82">
         <f t="shared" si="0"/>
-        <v>2577624.7033123281</v>
+        <v>1356255.7273802238</v>
       </c>
       <c r="L4" s="82">
         <f t="shared" si="0"/>
-        <v>2653289.8443906461</v>
+        <v>1416035.2529385351</v>
       </c>
       <c r="M4" s="82">
         <f t="shared" si="0"/>
-        <v>2729225.7464700858</v>
+        <v>1479009.6160660991</v>
       </c>
       <c r="N4" s="82">
         <f t="shared" si="0"/>
-        <v>2800336.2795874504</v>
+        <v>1536745.8136461193</v>
       </c>
       <c r="O4" s="82">
         <f t="shared" si="0"/>
-        <v>2867960.5662878901</v>
+        <v>1595685.2835651475</v>
       </c>
       <c r="P4" s="82">
         <f t="shared" si="0"/>
-        <v>2934582.9284421825</v>
+        <v>1655867.517619174</v>
       </c>
       <c r="Q4" s="82">
         <f t="shared" si="0"/>
-        <v>2993686.9919117256</v>
+        <v>1715063.553305353</v>
       </c>
       <c r="R4" s="82">
         <f t="shared" si="0"/>
-        <v>3060693.1197150107</v>
+        <v>1778471.2868177234</v>
       </c>
       <c r="S4" s="82">
         <f t="shared" si="0"/>
-        <v>3127958.5310633304</v>
+        <v>1845166.6956936428</v>
       </c>
       <c r="T4" s="82">
         <f t="shared" si="0"/>
-        <v>3223636.5915154894</v>
+        <v>1929711.7261995443</v>
       </c>
       <c r="U4" s="82">
         <f t="shared" si="0"/>
-        <v>3308678.2956643696</v>
+        <v>2007587.2831296397</v>
       </c>
       <c r="V4" s="82">
         <f t="shared" si="0"/>
-        <v>3397792.8353458992</v>
+        <v>2083016.7566344521</v>
       </c>
       <c r="W4" s="82">
         <f t="shared" si="0"/>
-        <v>3496052.9254498621</v>
+        <v>2160464.2743821568</v>
       </c>
       <c r="X4" s="82">
         <f t="shared" si="0"/>
-        <v>3598100.3561016759</v>
+        <v>2237850.7197104683</v>
       </c>
       <c r="Y4" s="82">
         <f t="shared" si="0"/>
-        <v>3693614.9505695184</v>
+        <v>2316519.1777519383</v>
       </c>
       <c r="Z4" s="82">
         <f t="shared" si="0"/>
-        <v>3787733.2933470779</v>
+        <v>2392675.186904314</v>
       </c>
       <c r="AA4" s="82">
         <f t="shared" si="0"/>
-        <v>3895048.3723097993</v>
+        <v>2478904.7337667076</v>
       </c>
       <c r="AB4" s="82">
         <f t="shared" si="0"/>
-        <v>4001457.7204185966</v>
+        <v>2562921.8060180717</v>
       </c>
       <c r="AC4" s="82">
         <f t="shared" si="0"/>
-        <v>4094733.086338935</v>
+        <v>2639468.2840779605</v>
       </c>
       <c r="AD4" s="82">
         <f t="shared" si="0"/>
-        <v>4202963.1100282129</v>
+        <v>2723162.0979558742</v>
       </c>
       <c r="AE4" s="82">
         <f t="shared" si="0"/>
-        <v>4301270.4997280668</v>
+        <v>2799096.9081492578</v>
       </c>
       <c r="AF4" s="82">
         <f t="shared" si="0"/>
-        <v>4396664.5045931432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+        <v>2871541.9453860805</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>113</v>
       </c>
@@ -56167,7 +56136,7 @@
         <v>128401</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>114</v>
       </c>
@@ -56296,7 +56265,7 @@
         <v>157398.61161856045</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>115</v>
       </c>
@@ -56395,19 +56364,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="78" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="81" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="81" t="s">
-        <v>125</v>
       </c>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -56441,9 +56410,9 @@
       <c r="AE14" s="84"/>
       <c r="AF14" s="84"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="7">
         <v>2020</v>
@@ -56539,138 +56508,138 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B16">
-        <f>'JRC Database'!C92</f>
-        <v>46.65</v>
+        <f>'JRC Database'!C93</f>
+        <v>23.76</v>
       </c>
       <c r="C16">
-        <f>'JRC Database'!D92</f>
-        <v>46.62</v>
+        <f>'JRC Database'!D93</f>
+        <v>23.83</v>
       </c>
       <c r="D16">
-        <f>'JRC Database'!E92</f>
-        <v>46.63</v>
+        <f>'JRC Database'!E93</f>
+        <v>24.05</v>
       </c>
       <c r="E16">
-        <f>'JRC Database'!F92</f>
-        <v>46.63</v>
+        <f>'JRC Database'!F93</f>
+        <v>24.18</v>
       </c>
       <c r="F16">
-        <f>'JRC Database'!G92</f>
-        <v>47.03</v>
+        <f>'JRC Database'!G93</f>
+        <v>24.33</v>
       </c>
       <c r="G16">
-        <f>'JRC Database'!H92</f>
-        <v>47.17</v>
+        <f>'JRC Database'!H93</f>
+        <v>24.51</v>
       </c>
       <c r="H16">
-        <f>'JRC Database'!I92</f>
-        <v>47.18</v>
+        <f>'JRC Database'!I93</f>
+        <v>24.69</v>
       </c>
       <c r="I16">
-        <f>'JRC Database'!J92</f>
-        <v>47.13</v>
+        <f>'JRC Database'!J93</f>
+        <v>24.85</v>
       </c>
       <c r="J16">
-        <f>'JRC Database'!K92</f>
-        <v>47.05</v>
+        <f>'JRC Database'!K93</f>
+        <v>25.01</v>
       </c>
       <c r="K16">
-        <f>'JRC Database'!L92</f>
-        <v>47.2</v>
+        <f>'JRC Database'!L93</f>
+        <v>25.17</v>
       </c>
       <c r="L16">
-        <f>'JRC Database'!M92</f>
-        <v>47.23</v>
+        <f>'JRC Database'!M93</f>
+        <v>25.26</v>
       </c>
       <c r="M16">
-        <f>'JRC Database'!N92</f>
-        <v>47.29</v>
+        <f>'JRC Database'!N93</f>
+        <v>25.33</v>
       </c>
       <c r="N16">
-        <f>'JRC Database'!O92</f>
-        <v>47.56</v>
+        <f>'JRC Database'!O93</f>
+        <v>25.57</v>
       </c>
       <c r="O16">
-        <f>'JRC Database'!P92</f>
-        <v>47.7</v>
+        <f>'JRC Database'!P93</f>
+        <v>25.71</v>
       </c>
       <c r="P16">
-        <f>'JRC Database'!Q92</f>
-        <v>47.88</v>
+        <f>'JRC Database'!Q93</f>
+        <v>25.86</v>
       </c>
       <c r="Q16">
-        <f>'JRC Database'!R92</f>
-        <v>48.15</v>
+        <f>'JRC Database'!R93</f>
+        <v>26</v>
       </c>
       <c r="R16">
-        <f>'JRC Database'!S92</f>
-        <v>48.32</v>
+        <f>'JRC Database'!S93</f>
+        <v>26.1</v>
       </c>
       <c r="S16">
-        <f>'JRC Database'!T92</f>
-        <v>48.65</v>
+        <f>'JRC Database'!T93</f>
+        <v>26.24</v>
       </c>
       <c r="T16">
-        <f>'JRC Database'!U92</f>
-        <v>48.4</v>
+        <f>'JRC Database'!U93</f>
+        <v>26.06</v>
       </c>
       <c r="U16">
-        <f>'JRC Database'!V92</f>
-        <v>48.36</v>
+        <f>'JRC Database'!V93</f>
+        <v>26.01</v>
       </c>
       <c r="V16">
-        <f>'JRC Database'!W92</f>
-        <v>48.35</v>
+        <f>'JRC Database'!W93</f>
+        <v>26.06</v>
       </c>
       <c r="W16">
-        <f>'JRC Database'!X92</f>
-        <v>48.21</v>
+        <f>'JRC Database'!X93</f>
+        <v>26.1</v>
       </c>
       <c r="X16">
-        <f>'JRC Database'!Y92</f>
-        <v>48.12</v>
+        <f>'JRC Database'!Y93</f>
+        <v>26.19</v>
       </c>
       <c r="Y16">
-        <f>'JRC Database'!Z92</f>
-        <v>48.05</v>
+        <f>'JRC Database'!Z93</f>
+        <v>26.23</v>
       </c>
       <c r="Z16">
-        <f>'JRC Database'!AA92</f>
-        <v>48.01</v>
+        <f>'JRC Database'!AA93</f>
+        <v>26.3</v>
       </c>
       <c r="AA16">
-        <f>'JRC Database'!AB92</f>
-        <v>47.79</v>
+        <f>'JRC Database'!AB93</f>
+        <v>26.26</v>
       </c>
       <c r="AB16">
-        <f>'JRC Database'!AC92</f>
-        <v>47.78</v>
+        <f>'JRC Database'!AC93</f>
+        <v>26.34</v>
       </c>
       <c r="AC16">
-        <f>'JRC Database'!AD92</f>
-        <v>47.81</v>
+        <f>'JRC Database'!AD93</f>
+        <v>26.43</v>
       </c>
       <c r="AD16">
-        <f>'JRC Database'!AE92</f>
-        <v>47.53</v>
+        <f>'JRC Database'!AE93</f>
+        <v>26.36</v>
       </c>
       <c r="AE16">
-        <f>'JRC Database'!AF92</f>
-        <v>47.54</v>
+        <f>'JRC Database'!AF93</f>
+        <v>26.46</v>
       </c>
       <c r="AF16">
-        <f>'JRC Database'!AG92</f>
-        <v>47.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+        <f>'JRC Database'!AG93</f>
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17">
         <f>('Ships Activity'!V5+'Ships Activity'!V12)/(('Stock ships'!C53+'Stock ships'!C60))</f>
@@ -56797,9 +56766,9 @@
         <v>1166.1190807799444</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18">
         <f>('Ships Activity'!V20+'Ships Activity'!V28)/('Stock ships'!C36+'Stock ships'!C44)</f>
@@ -56926,9 +56895,9 @@
         <v>47724.705399863306</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="73" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B20" s="7">
         <v>2020</v>
@@ -57024,138 +56993,138 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B21" s="72">
-        <f>'JRC Database'!C27</f>
-        <v>46163.9</v>
+        <f>'JRC Database'!C28</f>
+        <v>3561</v>
       </c>
       <c r="C21" s="72">
-        <f>'JRC Database'!D27</f>
-        <v>48003.7</v>
+        <f>'JRC Database'!D28</f>
+        <v>3763.3</v>
       </c>
       <c r="D21" s="72">
-        <f>'JRC Database'!E27</f>
-        <v>49804.3</v>
+        <f>'JRC Database'!E28</f>
+        <v>3977</v>
       </c>
       <c r="E21" s="72">
-        <f>'JRC Database'!F27</f>
-        <v>51547.5</v>
+        <f>'JRC Database'!F28</f>
+        <v>4174.8</v>
       </c>
       <c r="F21" s="72">
-        <f>'JRC Database'!G27</f>
-        <v>53262</v>
+        <f>'JRC Database'!G28</f>
+        <v>4380.5</v>
       </c>
       <c r="G21" s="72">
-        <f>'JRC Database'!H27</f>
-        <v>54869.5</v>
+        <f>'JRC Database'!H28</f>
+        <v>4604.3</v>
       </c>
       <c r="H21" s="72">
-        <f>'JRC Database'!I27</f>
-        <v>56468.1</v>
+        <f>'JRC Database'!I28</f>
+        <v>4848.3</v>
       </c>
       <c r="I21" s="72">
-        <f>'JRC Database'!J27</f>
-        <v>58115</v>
+        <f>'JRC Database'!J28</f>
+        <v>5105.8</v>
       </c>
       <c r="J21" s="72">
-        <f>'JRC Database'!K27</f>
-        <v>59848.800000000003</v>
+        <f>'JRC Database'!K28</f>
+        <v>5375.8</v>
       </c>
       <c r="K21" s="72">
-        <f>'JRC Database'!L27</f>
-        <v>61805.1</v>
+        <f>'JRC Database'!L28</f>
+        <v>5655.7</v>
       </c>
       <c r="L21" s="72">
-        <f>'JRC Database'!M27</f>
-        <v>63659.8</v>
+        <f>'JRC Database'!M28</f>
+        <v>5926.1</v>
       </c>
       <c r="M21" s="72">
-        <f>'JRC Database'!N27</f>
-        <v>65564.899999999994</v>
+        <f>'JRC Database'!N28</f>
+        <v>6206.8</v>
       </c>
       <c r="N21" s="72">
-        <f>'JRC Database'!O27</f>
-        <v>67657.3</v>
+        <f>'JRC Database'!O28</f>
+        <v>6510.2</v>
       </c>
       <c r="O21" s="72">
-        <f>'JRC Database'!P27</f>
-        <v>69495.100000000006</v>
+        <f>'JRC Database'!P28</f>
+        <v>6796.9</v>
       </c>
       <c r="P21" s="72">
-        <f>'JRC Database'!Q27</f>
-        <v>71377.8</v>
+        <f>'JRC Database'!Q28</f>
+        <v>7094.4</v>
       </c>
       <c r="Q21" s="72">
-        <f>'JRC Database'!R27</f>
-        <v>73226</v>
+        <f>'JRC Database'!R28</f>
+        <v>7387.8</v>
       </c>
       <c r="R21" s="72">
-        <f>'JRC Database'!S27</f>
-        <v>75129.3</v>
+        <f>'JRC Database'!S28</f>
+        <v>7690.4</v>
       </c>
       <c r="S21" s="72">
-        <f>'JRC Database'!T27</f>
-        <v>77304.800000000003</v>
+        <f>'JRC Database'!T28</f>
+        <v>8021.6</v>
       </c>
       <c r="T21" s="72">
-        <f>'JRC Database'!U27</f>
-        <v>79260</v>
+        <f>'JRC Database'!U28</f>
+        <v>8331.6</v>
       </c>
       <c r="U21" s="72">
-        <f>'JRC Database'!V27</f>
-        <v>81283.7</v>
+        <f>'JRC Database'!V28</f>
+        <v>8651.2000000000007</v>
       </c>
       <c r="V21" s="72">
-        <f>'JRC Database'!W27</f>
-        <v>83455.7</v>
+        <f>'JRC Database'!W28</f>
+        <v>8993.5</v>
       </c>
       <c r="W21" s="72">
-        <f>'JRC Database'!X27</f>
-        <v>85620.5</v>
+        <f>'JRC Database'!X28</f>
+        <v>9342.2000000000007</v>
       </c>
       <c r="X21" s="72">
-        <f>'JRC Database'!Y27</f>
-        <v>87955.199999999997</v>
+        <f>'JRC Database'!Y28</f>
+        <v>9710.2000000000007</v>
       </c>
       <c r="Y21" s="72">
-        <f>'JRC Database'!Z27</f>
-        <v>90158.7</v>
+        <f>'JRC Database'!Z28</f>
+        <v>10066.9</v>
       </c>
       <c r="Z21" s="72">
-        <f>'JRC Database'!AA27</f>
-        <v>92379.1</v>
+        <f>'JRC Database'!AA28</f>
+        <v>10425.6</v>
       </c>
       <c r="AA21" s="72">
-        <f>'JRC Database'!AB27</f>
-        <v>94561.1</v>
+        <f>'JRC Database'!AB28</f>
+        <v>10784.9</v>
       </c>
       <c r="AB21" s="72">
-        <f>'JRC Database'!AC27</f>
-        <v>97124.1</v>
+        <f>'JRC Database'!AC28</f>
+        <v>11184.4</v>
       </c>
       <c r="AC21" s="72">
-        <f>'JRC Database'!AD27</f>
-        <v>99450.5</v>
+        <f>'JRC Database'!AD28</f>
+        <v>11557.8</v>
       </c>
       <c r="AD21" s="72">
-        <f>'JRC Database'!AE27</f>
-        <v>101481.3</v>
+        <f>'JRC Database'!AE28</f>
+        <v>11892.7</v>
       </c>
       <c r="AE21" s="72">
-        <f>'JRC Database'!AF27</f>
-        <v>103876.8</v>
+        <f>'JRC Database'!AF28</f>
+        <v>12270.7</v>
       </c>
       <c r="AF21" s="72">
-        <f>'JRC Database'!AG27</f>
-        <v>105867.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
+        <f>'JRC Database'!AG28</f>
+        <v>12597.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="71">
         <f>'Ships Activity'!V4</f>
@@ -57282,9 +57251,9 @@
         <v>502364.1</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B23" s="71">
         <f>'Ships Activity'!V20</f>
@@ -57411,9 +57380,9 @@
         <v>21639428.300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="7">
         <v>2020</v>
@@ -57509,138 +57478,138 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>112</v>
       </c>
       <c r="B26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f>'Stock aircraft'!$B$9</f>
+        <v>165.67674900357699</v>
       </c>
       <c r="C26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f>$B$26</f>
+        <v>165.67674900357699</v>
       </c>
       <c r="D26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" ref="D26:AF26" si="2">$B$26</f>
+        <v>165.67674900357699</v>
       </c>
       <c r="E26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="F26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="G26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="H26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="I26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="J26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="K26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="L26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="M26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="N26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="O26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="P26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="Q26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="R26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="S26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="T26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="U26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="V26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="W26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="X26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="Y26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="Z26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="AA26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="AB26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="AC26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="AD26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="AE26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
       </c>
       <c r="AF26" s="76">
-        <f>'Stock aircraft'!$B$8</f>
-        <v>507.99873350961605</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>165.67674900357699</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="23">
         <f>'Stock ships'!B70+'Stock ships'!B77</f>
@@ -57767,9 +57736,9 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="23">
         <f>'Stock ships'!B86+'Stock ships'!B93</f>
@@ -57896,19 +57865,19 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="23"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="83"/>
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B31" s="7">
         <v>2020</v>
@@ -58004,394 +57973,394 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
         <v>112</v>
       </c>
       <c r="B32" s="70">
         <f>B21*1000000/B16/B26</f>
-        <v>1947996.6871367749</v>
+        <v>904615.39277609542</v>
       </c>
       <c r="C32" s="70">
-        <f t="shared" ref="C32:AF32" si="2">C21*1000000/C16/C26</f>
-        <v>2026934.9641221175</v>
+        <f t="shared" ref="C32:AF32" si="3">C21*1000000/C16/C26</f>
+        <v>953198.24509764649</v>
       </c>
       <c r="D32" s="70">
-        <f t="shared" si="2"/>
-        <v>2102513.5117543256</v>
+        <f t="shared" si="3"/>
+        <v>998111.23985934269</v>
       </c>
       <c r="E32" s="70">
-        <f t="shared" si="2"/>
-        <v>2176103.5743330615</v>
+        <f t="shared" si="3"/>
+        <v>1042120.2002515608</v>
       </c>
       <c r="F32" s="70">
-        <f t="shared" si="2"/>
-        <v>2229358.241236547</v>
+        <f t="shared" si="3"/>
+        <v>1086725.8849275506</v>
       </c>
       <c r="G32" s="70">
-        <f t="shared" si="2"/>
-        <v>2289826.0770230694</v>
+        <f t="shared" si="3"/>
+        <v>1133858.1804526285</v>
       </c>
       <c r="H32" s="70">
-        <f t="shared" si="2"/>
-        <v>2356039.7264155126</v>
+        <f t="shared" si="3"/>
+        <v>1185241.449770483</v>
       </c>
       <c r="I32" s="70">
-        <f t="shared" si="2"/>
-        <v>2427326.3634327953</v>
+        <f t="shared" si="3"/>
+        <v>1240154.6382827584</v>
       </c>
       <c r="J32" s="70">
-        <f t="shared" si="2"/>
-        <v>2503993.4568224042</v>
+        <f t="shared" si="3"/>
+        <v>1297381.9373213481</v>
       </c>
       <c r="K32" s="70">
-        <f t="shared" si="2"/>
-        <v>2577624.7033123281</v>
+        <f t="shared" si="3"/>
+        <v>1356255.7273802238</v>
       </c>
       <c r="L32" s="70">
-        <f t="shared" si="2"/>
-        <v>2653289.8443906461</v>
+        <f t="shared" si="3"/>
+        <v>1416035.2529385351</v>
       </c>
       <c r="M32" s="70">
-        <f t="shared" si="2"/>
-        <v>2729225.7464700858</v>
+        <f t="shared" si="3"/>
+        <v>1479009.6160660991</v>
       </c>
       <c r="N32" s="70">
-        <f t="shared" si="2"/>
-        <v>2800336.2795874504</v>
+        <f t="shared" si="3"/>
+        <v>1536745.8136461193</v>
       </c>
       <c r="O32" s="70">
-        <f t="shared" si="2"/>
-        <v>2867960.5662878901</v>
+        <f t="shared" si="3"/>
+        <v>1595685.2835651475</v>
       </c>
       <c r="P32" s="70">
-        <f t="shared" si="2"/>
-        <v>2934582.9284421825</v>
+        <f t="shared" si="3"/>
+        <v>1655867.517619174</v>
       </c>
       <c r="Q32" s="70">
-        <f t="shared" si="2"/>
-        <v>2993686.9919117256</v>
+        <f t="shared" si="3"/>
+        <v>1715063.553305353</v>
       </c>
       <c r="R32" s="70">
-        <f t="shared" si="2"/>
-        <v>3060693.1197150107</v>
+        <f t="shared" si="3"/>
+        <v>1778471.2868177234</v>
       </c>
       <c r="S32" s="70">
-        <f t="shared" si="2"/>
-        <v>3127958.5310633304</v>
+        <f t="shared" si="3"/>
+        <v>1845166.6956936428</v>
       </c>
       <c r="T32" s="70">
-        <f t="shared" si="2"/>
-        <v>3223636.5915154894</v>
+        <f t="shared" si="3"/>
+        <v>1929711.7261995443</v>
       </c>
       <c r="U32" s="70">
-        <f t="shared" si="2"/>
-        <v>3308678.2956643696</v>
+        <f t="shared" si="3"/>
+        <v>2007587.2831296397</v>
       </c>
       <c r="V32" s="70">
-        <f t="shared" si="2"/>
-        <v>3397792.8353458992</v>
+        <f t="shared" si="3"/>
+        <v>2083016.7566344521</v>
       </c>
       <c r="W32" s="70">
-        <f t="shared" si="2"/>
-        <v>3496052.9254498621</v>
+        <f t="shared" si="3"/>
+        <v>2160464.2743821568</v>
       </c>
       <c r="X32" s="70">
-        <f t="shared" si="2"/>
-        <v>3598100.3561016759</v>
+        <f t="shared" si="3"/>
+        <v>2237850.7197104683</v>
       </c>
       <c r="Y32" s="70">
-        <f t="shared" si="2"/>
-        <v>3693614.9505695184</v>
+        <f t="shared" si="3"/>
+        <v>2316519.1777519383</v>
       </c>
       <c r="Z32" s="70">
-        <f t="shared" si="2"/>
-        <v>3787733.2933470779</v>
+        <f t="shared" si="3"/>
+        <v>2392675.186904314</v>
       </c>
       <c r="AA32" s="70">
-        <f t="shared" si="2"/>
-        <v>3895048.3723097993</v>
+        <f t="shared" si="3"/>
+        <v>2478904.7337667076</v>
       </c>
       <c r="AB32" s="70">
-        <f t="shared" si="2"/>
-        <v>4001457.7204185966</v>
+        <f t="shared" si="3"/>
+        <v>2562921.8060180717</v>
       </c>
       <c r="AC32" s="70">
-        <f t="shared" si="2"/>
-        <v>4094733.086338935</v>
+        <f t="shared" si="3"/>
+        <v>2639468.2840779605</v>
       </c>
       <c r="AD32" s="70">
-        <f t="shared" si="2"/>
-        <v>4202963.1100282129</v>
+        <f t="shared" si="3"/>
+        <v>2723162.0979558742</v>
       </c>
       <c r="AE32" s="70">
-        <f t="shared" si="2"/>
-        <v>4301270.4997280668</v>
+        <f t="shared" si="3"/>
+        <v>2799096.9081492578</v>
       </c>
       <c r="AF32" s="70">
-        <f t="shared" si="2"/>
-        <v>4396664.5045931432</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>2871541.9453860805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="78" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="70">
         <f>B22*1000000/B17/B27</f>
         <v>152030.07518796992</v>
       </c>
       <c r="C33" s="70">
-        <f t="shared" ref="C33:AF33" si="3">C22*1000000/C17/C27</f>
+        <f t="shared" ref="C33:AF33" si="4">C22*1000000/C17/C27</f>
         <v>152027.73864603517</v>
       </c>
       <c r="D33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>151953.125</v>
       </c>
       <c r="E33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152048.19277108437</v>
       </c>
       <c r="F33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152118.08076100395</v>
       </c>
       <c r="G33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152257.76105362183</v>
       </c>
       <c r="H33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152465.11627906977</v>
       </c>
       <c r="I33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152784.12889175763</v>
       </c>
       <c r="J33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153096.53916211292</v>
       </c>
       <c r="K33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153333.33333333334</v>
       </c>
       <c r="L33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>153746.61544350506</v>
       </c>
       <c r="M33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154107.8128247174</v>
       </c>
       <c r="N33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154438.12855268913</v>
       </c>
       <c r="O33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154659.73125270911</v>
       </c>
       <c r="P33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>154810.99656357389</v>
       </c>
       <c r="Q33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155002.12856534694</v>
       </c>
       <c r="R33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155166.55928061594</v>
       </c>
       <c r="S33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155286.25156707063</v>
       </c>
       <c r="T33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155610.76604554863</v>
       </c>
       <c r="U33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155765.28518670498</v>
       </c>
       <c r="V33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>155952.86468915074</v>
       </c>
       <c r="W33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156177.06237424546</v>
       </c>
       <c r="X33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156374.50199203187</v>
       </c>
       <c r="Y33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156568.04733727811</v>
       </c>
       <c r="Z33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156713.50507416084</v>
       </c>
       <c r="AA33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156894.55388180766</v>
       </c>
       <c r="AB33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>156968.3085147003</v>
       </c>
       <c r="AC33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157137.46223564958</v>
       </c>
       <c r="AD33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157228.2083955149</v>
       </c>
       <c r="AE33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157332.8407831548</v>
       </c>
       <c r="AF33" s="70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157398.61161856045</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="78" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B34" s="70">
         <f>B23*1000000/B18/B28</f>
         <v>166069.65071122369</v>
       </c>
       <c r="C34" s="70">
-        <f t="shared" ref="C34:AF34" si="4">C23*1000000/C18/C28</f>
+        <f t="shared" ref="C34:AF34" si="5">C23*1000000/C18/C28</f>
         <v>165889.34792419738</v>
       </c>
       <c r="D34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165771.76986329231</v>
       </c>
       <c r="E34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165639.11302025651</v>
       </c>
       <c r="F34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165492.22000161695</v>
       </c>
       <c r="G34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165474.09379823448</v>
       </c>
       <c r="H34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165476.16040642923</v>
       </c>
       <c r="I34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165529.92377193843</v>
       </c>
       <c r="J34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165533.40818800477</v>
       </c>
       <c r="K34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165513.81225554636</v>
       </c>
       <c r="L34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165582.31425156991</v>
       </c>
       <c r="M34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165741.25630626906</v>
       </c>
       <c r="N34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165777.9196858645</v>
       </c>
       <c r="O34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>165834.85333284637</v>
       </c>
       <c r="P34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166024.37531601122</v>
       </c>
       <c r="Q34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166046.67916246242</v>
       </c>
       <c r="R34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166105.9281619713</v>
       </c>
       <c r="S34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166079.59018142329</v>
       </c>
       <c r="T34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166095.32145300572</v>
       </c>
       <c r="U34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166039.3608953181</v>
       </c>
       <c r="V34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166046.06307722404</v>
       </c>
       <c r="W34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166072.2522405677</v>
       </c>
       <c r="X34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166073.30940289987</v>
       </c>
       <c r="Y34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166093.83935211485</v>
       </c>
       <c r="Z34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166248.71389718083</v>
       </c>
       <c r="AA34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166271.2849363698</v>
       </c>
       <c r="AB34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166307.23690412458</v>
       </c>
       <c r="AC34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166356.32627044091</v>
       </c>
       <c r="AD34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166437.98730243565</v>
       </c>
       <c r="AE34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166498.49776511572</v>
       </c>
       <c r="AF34" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>166515.58414787421</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="78" t="s">
         <v>114</v>
       </c>
@@ -58400,127 +58369,127 @@
         <v>159049.86294959681</v>
       </c>
       <c r="C35" s="82">
-        <f t="shared" ref="C35:AF35" si="5">AVERAGE(C33:C34)</f>
+        <f t="shared" ref="C35:AF35" si="6">AVERAGE(C33:C34)</f>
         <v>158958.54328511626</v>
       </c>
       <c r="D35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158862.44743164617</v>
       </c>
       <c r="E35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158843.65289567044</v>
       </c>
       <c r="F35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158805.15038131044</v>
       </c>
       <c r="G35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158865.92742592815</v>
       </c>
       <c r="H35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>158970.6383427495</v>
       </c>
       <c r="I35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>159157.02633184803</v>
       </c>
       <c r="J35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>159314.97367505886</v>
       </c>
       <c r="K35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>159423.57279443985</v>
       </c>
       <c r="L35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>159664.46484753749</v>
       </c>
       <c r="M35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>159924.53456549323</v>
       </c>
       <c r="N35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160108.02411927682</v>
       </c>
       <c r="O35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160247.29229277774</v>
       </c>
       <c r="P35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160417.68593979254</v>
       </c>
       <c r="Q35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160524.40386390468</v>
       </c>
       <c r="R35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160636.24372129363</v>
       </c>
       <c r="S35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160682.92087424698</v>
       </c>
       <c r="T35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160853.04374927719</v>
       </c>
       <c r="U35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160902.32304101152</v>
       </c>
       <c r="V35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>160999.46388318739</v>
       </c>
       <c r="W35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161124.6573074066</v>
       </c>
       <c r="X35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161223.90569746587</v>
       </c>
       <c r="Y35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161330.94334469648</v>
       </c>
       <c r="Z35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161481.10948567084</v>
       </c>
       <c r="AA35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161582.91940908873</v>
       </c>
       <c r="AB35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161637.77270941244</v>
       </c>
       <c r="AC35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161746.89425304526</v>
       </c>
       <c r="AD35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161833.09784897527</v>
       </c>
       <c r="AE35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161915.66927413526</v>
       </c>
       <c r="AF35" s="82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>161957.09788321733</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
   </sheetData>
@@ -58539,17 +58508,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="7">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -58558,7 +58527,7 @@
         <v>6967.4330230000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -58567,16 +58536,16 @@
         <v>23738.857683999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
         <f>'BAADTbVT-passengers'!C4</f>
-        <v>1047823.2174196953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>907898.5757650329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -58585,7 +58554,7 @@
         <v>116095.71489800001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -58594,7 +58563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -58615,21 +58584,21 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1">
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -58638,7 +58607,7 @@
         <v>9443.596458</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -58647,16 +58616,16 @@
         <v>16451.418596</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
         <f>'BAADTbVT-freight'!C4</f>
-        <v>1259478.6055915244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>592289.7467545697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -58665,7 +58634,7 @@
         <v>78958.855712000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -58674,7 +58643,7 @@
         <v>94465.627990225519</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -58689,6 +58658,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
@@ -58697,15 +58675,6 @@
     <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -58938,20 +58907,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E81C7721-51FE-4B65-A133-A786E226EB0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
     <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/InputData/trans/BAADTbVT/BAU AvgAnnual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU AvgAnnual Dist Traveled by Veh Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6C4614-D4DF-4212-AA1E-8CADCE6A04EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30CE26E-F75C-4977-8F5E-C87CF9D18BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
+    <workbookView xWindow="-38520" yWindow="-5880" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{BB1BC0E8-D7BE-4817-AFF2-63D73B602A09}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1447,22 +1447,22 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="2"/>
-    <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="2" width="10.81640625" style="2"/>
+    <col min="3" max="3" width="14.81640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>4</v>
@@ -1482,11 +1482,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
@@ -1494,28 +1494,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="34"/>
       <c r="C17" s="34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="35"/>
       <c r="C18" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C19" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
@@ -1526,43 +1526,43 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
@@ -1584,16 +1584,16 @@
   <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
+    <col min="2" max="32" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>130</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>7424.7620790000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -1949,136 +1949,136 @@
         <v>24283.178680000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
         <f>Passenger_km!B18*About!$C$21</f>
-        <v>883005.24787158566</v>
+        <v>742879.68993723392</v>
       </c>
       <c r="C4" s="69">
         <f>Passenger_km!C18*About!$C$21</f>
-        <v>907898.5757650329</v>
+        <v>750528.86836528534</v>
       </c>
       <c r="D4" s="69">
         <f>Passenger_km!D18*About!$C$21</f>
-        <v>934059.33807617135</v>
+        <v>757511.7032580541</v>
       </c>
       <c r="E4" s="69">
         <f>Passenger_km!E18*About!$C$21</f>
-        <v>956320.01835092215</v>
+        <v>762219.5228726191</v>
       </c>
       <c r="F4" s="69">
         <f>Passenger_km!F18*About!$C$21</f>
-        <v>979624.7937136601</v>
+        <v>768988.6901588547</v>
       </c>
       <c r="G4" s="69">
         <f>Passenger_km!G18*About!$C$21</f>
-        <v>1006806.2102501926</v>
+        <v>777727.49396902055</v>
       </c>
       <c r="H4" s="69">
         <f>Passenger_km!H18*About!$C$21</f>
-        <v>1032014.6875184985</v>
+        <v>784335.60207049747</v>
       </c>
       <c r="I4" s="69">
         <f>Passenger_km!I18*About!$C$21</f>
-        <v>1056650.1659234255</v>
+        <v>789817.05269413989</v>
       </c>
       <c r="J4" s="69">
         <f>Passenger_km!J18*About!$C$21</f>
-        <v>1081190.1445177891</v>
+        <v>797969.49534236838</v>
       </c>
       <c r="K4" s="69">
         <f>Passenger_km!K18*About!$C$21</f>
-        <v>1105667.2885777024</v>
+        <v>806546.80260137841</v>
       </c>
       <c r="L4" s="69">
         <f>Passenger_km!L18*About!$C$21</f>
-        <v>1128857.5726902764</v>
+        <v>815474.73998185515</v>
       </c>
       <c r="M4" s="69">
         <f>Passenger_km!M18*About!$C$21</f>
-        <v>1151933.2570301746</v>
+        <v>824364.28458052443</v>
       </c>
       <c r="N4" s="69">
         <f>Passenger_km!N18*About!$C$21</f>
-        <v>1176018.092209195</v>
+        <v>832633.7594613086</v>
       </c>
       <c r="O4" s="69">
         <f>Passenger_km!O18*About!$C$21</f>
-        <v>1197604.7391618907</v>
+        <v>842443.83322321041</v>
       </c>
       <c r="P4" s="69">
         <f>Passenger_km!P18*About!$C$21</f>
-        <v>1220048.9310044399</v>
+        <v>851364.53608799237</v>
       </c>
       <c r="Q4" s="69">
         <f>Passenger_km!Q18*About!$C$21</f>
-        <v>1241819.9577050298</v>
+        <v>860838.60571358993</v>
       </c>
       <c r="R4" s="69">
         <f>Passenger_km!R18*About!$C$21</f>
-        <v>1264373.1061496306</v>
+        <v>871090.61802760931</v>
       </c>
       <c r="S4" s="69">
         <f>Passenger_km!S18*About!$C$21</f>
-        <v>1288308.2887845978</v>
+        <v>880786.38391075551</v>
       </c>
       <c r="T4" s="69">
         <f>Passenger_km!T18*About!$C$21</f>
-        <v>1310797.0833795799</v>
+        <v>896490.31211130682</v>
       </c>
       <c r="U4" s="69">
         <f>Passenger_km!U18*About!$C$21</f>
-        <v>1333527.6661313067</v>
+        <v>906023.23723378091</v>
       </c>
       <c r="V4" s="69">
         <f>Passenger_km!V18*About!$C$21</f>
-        <v>1357321.7695006693</v>
+        <v>916831.4941332232</v>
       </c>
       <c r="W4" s="69">
         <f>Passenger_km!W18*About!$C$21</f>
-        <v>1381395.2098159289</v>
+        <v>928203.05847919988</v>
       </c>
       <c r="X4" s="69">
         <f>Passenger_km!X18*About!$C$21</f>
-        <v>1406874.2337066596</v>
+        <v>938948.96266814391</v>
       </c>
       <c r="Y4" s="69">
         <f>Passenger_km!Y18*About!$C$21</f>
-        <v>1432020.5275755881</v>
+        <v>950469.74565162917</v>
       </c>
       <c r="Z4" s="69">
         <f>Passenger_km!Z18*About!$C$21</f>
-        <v>1457430.8567162212</v>
+        <v>961513.71310116863</v>
       </c>
       <c r="AA4" s="69">
         <f>Passenger_km!AA18*About!$C$21</f>
-        <v>1482272.9619840025</v>
+        <v>974356.87232758361</v>
       </c>
       <c r="AB4" s="69">
         <f>Passenger_km!AB18*About!$C$21</f>
-        <v>1508955.8261003906</v>
+        <v>986895.87689365423</v>
       </c>
       <c r="AC4" s="69">
         <f>Passenger_km!AC18*About!$C$21</f>
-        <v>1534434.3073785617</v>
+        <v>997756.55279488291</v>
       </c>
       <c r="AD4" s="69">
         <f>Passenger_km!AD18*About!$C$21</f>
-        <v>1557469.5128214825</v>
+        <v>1010967.2456612416</v>
       </c>
       <c r="AE4" s="69">
         <f>Passenger_km!AE18*About!$C$21</f>
-        <v>1584263.3954676501</v>
+        <v>1023019.9922878671</v>
       </c>
       <c r="AF4" s="69">
         <f>Passenger_km!AF18*About!$C$21</f>
-        <v>1607602.029854133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1034796.0286798262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>113</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>118848.38842800001</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>114</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -2434,10 +2434,10 @@
         <v>1432.2601549999999</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
     </row>
   </sheetData>
@@ -2456,12 +2456,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>130</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>110</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>10187.998916</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>111</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>18411.222730000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>112</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>1784292.8901464944</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>113</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>79784.657770999998</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>114</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>97802.93270003653</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>115</v>
       </c>
@@ -3333,10 +3333,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
     </row>
   </sheetData>
@@ -3349,19 +3349,19 @@
   <dimension ref="A1:AH385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
@@ -3463,7 +3463,7 @@
       </c>
       <c r="AH1" s="40"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -3499,7 +3499,7 @@
       <c r="AG2" s="40"/>
       <c r="AH2" s="40"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A3" s="42" t="s">
         <v>14</v>
       </c>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="AH3" s="40"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>15</v>
       </c>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="AH4" s="40"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>16</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="AH5" s="40"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" s="46" t="s">
         <v>17</v>
       </c>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="AH6" s="40"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -3943,7 +3943,7 @@
       <c r="AG7" s="49"/>
       <c r="AH7" s="40"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="AG8" s="19"/>
       <c r="AH8" s="40"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="AH9" s="40"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>20</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="AH10" s="40"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" s="25" t="s">
         <v>21</v>
       </c>
@@ -4287,7 +4287,7 @@
       </c>
       <c r="AH11" s="40"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>22</v>
       </c>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="AH12" s="40"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>23</v>
       </c>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="AH13" s="40"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>24</v>
       </c>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="AH14" s="40"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="25" t="s">
         <v>25</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="AH15" s="40"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>26</v>
       </c>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="AH16" s="40"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="27" t="s">
         <v>27</v>
       </c>
@@ -4899,7 +4899,7 @@
       </c>
       <c r="AH17" s="40"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="AH18" s="40"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>29</v>
       </c>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="AH19" s="40"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>30</v>
       </c>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="AH20" s="40"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>31</v>
       </c>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="AH21" s="40"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>32</v>
       </c>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="AH22" s="40"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>20</v>
       </c>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AH23" s="40"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>33</v>
       </c>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="AH24" s="40"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="32" t="s">
         <v>34</v>
       </c>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="AH25" s="40"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>35</v>
       </c>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="AH26" s="40"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="22" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +5919,7 @@
       </c>
       <c r="AH27" s="40"/>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="25" t="s">
         <v>36</v>
       </c>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="AH28" s="40"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A29" s="32" t="s">
         <v>31</v>
       </c>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="AH29" s="40"/>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="22" t="s">
         <v>37</v>
       </c>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="AH30" s="40"/>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="27" t="s">
         <v>38</v>
       </c>
@@ -6327,7 +6327,7 @@
       </c>
       <c r="AH31" s="40"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="32" t="s">
         <v>39</v>
       </c>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="AH32" s="40"/>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -6465,7 +6465,7 @@
       <c r="AG33" s="49"/>
       <c r="AH33" s="40"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>40</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="AG34" s="19"/>
       <c r="AH34" s="40"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
         <v>41</v>
       </c>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="AH35" s="40"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="22" t="s">
         <v>20</v>
       </c>
@@ -6707,7 +6707,7 @@
       </c>
       <c r="AH36" s="40"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="27" t="s">
         <v>33</v>
       </c>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="AH37" s="40"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="32" t="s">
         <v>34</v>
       </c>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="AH38" s="40"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="22" t="s">
         <v>35</v>
       </c>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="AH39" s="40"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="22" t="s">
         <v>28</v>
       </c>
@@ -7115,7 +7115,7 @@
       </c>
       <c r="AH40" s="40"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="25" t="s">
         <v>36</v>
       </c>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="AH41" s="40"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="32" t="s">
         <v>31</v>
       </c>
@@ -7319,7 +7319,7 @@
       </c>
       <c r="AH42" s="40"/>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
         <v>37</v>
       </c>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="AH43" s="40"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" s="27" t="s">
         <v>38</v>
       </c>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="AH44" s="40"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" s="32" t="s">
         <v>39</v>
       </c>
@@ -7625,7 +7625,7 @@
       </c>
       <c r="AH45" s="40"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="48"/>
       <c r="B46" s="49"/>
       <c r="C46" s="49"/>
@@ -7661,7 +7661,7 @@
       <c r="AG46" s="49"/>
       <c r="AH46" s="40"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>42</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="AG47" s="19"/>
       <c r="AH47" s="40"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
         <v>43</v>
       </c>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="AH48" s="40"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="22" t="s">
         <v>20</v>
       </c>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="AH49" s="40"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="25" t="s">
         <v>21</v>
       </c>
@@ -8005,7 +8005,7 @@
       </c>
       <c r="AH50" s="40"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="27" t="s">
         <v>22</v>
       </c>
@@ -8107,7 +8107,7 @@
       </c>
       <c r="AH51" s="40"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="27" t="s">
         <v>23</v>
       </c>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="AH52" s="40"/>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
         <v>24</v>
       </c>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="AH53" s="40"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="25" t="s">
         <v>25</v>
       </c>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="AH54" s="40"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="27" t="s">
         <v>26</v>
       </c>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="AH55" s="40"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" s="27" t="s">
         <v>27</v>
       </c>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="AH56" s="40"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
         <v>28</v>
       </c>
@@ -8719,7 +8719,7 @@
       </c>
       <c r="AH57" s="40"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>29</v>
       </c>
@@ -8821,7 +8821,7 @@
       </c>
       <c r="AH58" s="40"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="27" t="s">
         <v>30</v>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="AH59" s="40"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" s="27" t="s">
         <v>31</v>
       </c>
@@ -9025,7 +9025,7 @@
       </c>
       <c r="AH60" s="40"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>44</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
       <c r="AH61" s="40"/>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" s="22" t="s">
         <v>20</v>
       </c>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="AH62" s="40"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" s="27" t="s">
         <v>33</v>
       </c>
@@ -9331,7 +9331,7 @@
       </c>
       <c r="AH63" s="40"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="32" t="s">
         <v>34</v>
       </c>
@@ -9433,7 +9433,7 @@
       </c>
       <c r="AH64" s="40"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" s="22" t="s">
         <v>35</v>
       </c>
@@ -9535,7 +9535,7 @@
       </c>
       <c r="AH65" s="40"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
         <v>28</v>
       </c>
@@ -9637,7 +9637,7 @@
       </c>
       <c r="AH66" s="40"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A67" s="25" t="s">
         <v>36</v>
       </c>
@@ -9739,7 +9739,7 @@
       </c>
       <c r="AH67" s="40"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" s="32" t="s">
         <v>31</v>
       </c>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="AH68" s="40"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
         <v>37</v>
       </c>
@@ -9943,7 +9943,7 @@
       </c>
       <c r="AH69" s="40"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" s="27" t="s">
         <v>38</v>
       </c>
@@ -10045,7 +10045,7 @@
       </c>
       <c r="AH70" s="40"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A71" s="32" t="s">
         <v>39</v>
       </c>
@@ -10147,7 +10147,7 @@
       </c>
       <c r="AH71" s="40"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" s="48"/>
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
@@ -10183,7 +10183,7 @@
       <c r="AG72" s="49"/>
       <c r="AH72" s="40"/>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" s="18" t="s">
         <v>45</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="AG73" s="19"/>
       <c r="AH73" s="40"/>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" s="20" t="s">
         <v>46</v>
       </c>
@@ -10259,7 +10259,7 @@
       <c r="AG74" s="21"/>
       <c r="AH74" s="40"/>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" s="22" t="s">
         <v>20</v>
       </c>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="AH75" s="40"/>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" s="25" t="s">
         <v>21</v>
       </c>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="AH76" s="40"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" s="27" t="s">
         <v>22</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="AH77" s="40"/>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" s="27" t="s">
         <v>23</v>
       </c>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="AH78" s="40"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" s="22" t="s">
         <v>24</v>
       </c>
@@ -10769,7 +10769,7 @@
       </c>
       <c r="AH79" s="40"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" s="25" t="s">
         <v>25</v>
       </c>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="AH80" s="40"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" s="27" t="s">
         <v>26</v>
       </c>
@@ -10973,7 +10973,7 @@
       </c>
       <c r="AH81" s="40"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" s="27" t="s">
         <v>27</v>
       </c>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="AH82" s="40"/>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" s="22" t="s">
         <v>28</v>
       </c>
@@ -11177,7 +11177,7 @@
       </c>
       <c r="AH83" s="40"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" s="25" t="s">
         <v>29</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="AH84" s="40"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" s="27" t="s">
         <v>30</v>
       </c>
@@ -11381,7 +11381,7 @@
       </c>
       <c r="AH85" s="40"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" s="27" t="s">
         <v>31</v>
       </c>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="AH86" s="40"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" s="20" t="s">
         <v>47</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="AG87" s="21"/>
       <c r="AH87" s="40"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" s="22" t="s">
         <v>20</v>
       </c>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="AH88" s="40"/>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" s="27" t="s">
         <v>33</v>
       </c>
@@ -11725,7 +11725,7 @@
       </c>
       <c r="AH89" s="40"/>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A90" s="32" t="s">
         <v>34</v>
       </c>
@@ -11827,7 +11827,7 @@
       </c>
       <c r="AH90" s="40"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" s="22" t="s">
         <v>35</v>
       </c>
@@ -11929,7 +11929,7 @@
       </c>
       <c r="AH91" s="40"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A92" s="22" t="s">
         <v>28</v>
       </c>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="AH92" s="40"/>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A93" s="25" t="s">
         <v>36</v>
       </c>
@@ -12133,7 +12133,7 @@
       </c>
       <c r="AH93" s="40"/>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A94" s="32" t="s">
         <v>31</v>
       </c>
@@ -12235,7 +12235,7 @@
       </c>
       <c r="AH94" s="40"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A95" s="22" t="s">
         <v>37</v>
       </c>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="AH95" s="40"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A96" s="27" t="s">
         <v>38</v>
       </c>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="AH96" s="40"/>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A97" s="32" t="s">
         <v>39</v>
       </c>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="AH97" s="40"/>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A98" s="48"/>
       <c r="B98" s="49"/>
       <c r="C98" s="49"/>
@@ -12577,7 +12577,7 @@
       <c r="AG98" s="49"/>
       <c r="AH98" s="40"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A99" s="18" t="s">
         <v>48</v>
       </c>
@@ -12679,7 +12679,7 @@
       </c>
       <c r="AH99" s="40"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A100" s="57" t="s">
         <v>20</v>
       </c>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="AH100" s="40"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A101" s="59" t="s">
         <v>49</v>
       </c>
@@ -12883,7 +12883,7 @@
       </c>
       <c r="AH101" s="40"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A102" s="60" t="s">
         <v>50</v>
       </c>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="AH102" s="40"/>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A103" s="60" t="s">
         <v>51</v>
       </c>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="AH103" s="40"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A104" s="60" t="s">
         <v>52</v>
       </c>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="AH104" s="40"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A105" s="60" t="s">
         <v>53</v>
       </c>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="AH105" s="40"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A106" s="60" t="s">
         <v>54</v>
       </c>
@@ -13393,7 +13393,7 @@
       </c>
       <c r="AH106" s="40"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A107" s="60" t="s">
         <v>55</v>
       </c>
@@ -13495,7 +13495,7 @@
       </c>
       <c r="AH107" s="40"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A108" s="60" t="s">
         <v>56</v>
       </c>
@@ -13597,7 +13597,7 @@
       </c>
       <c r="AH108" s="40"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A109" s="60" t="s">
         <v>57</v>
       </c>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="AH109" s="40"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A110" s="57" t="s">
         <v>24</v>
       </c>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="AH110" s="40"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A111" s="59" t="s">
         <v>50</v>
       </c>
@@ -13903,7 +13903,7 @@
       </c>
       <c r="AH111" s="40"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A112" s="60" t="s">
         <v>57</v>
       </c>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="AH112" s="40"/>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A113" s="57" t="s">
         <v>28</v>
       </c>
@@ -14107,7 +14107,7 @@
       </c>
       <c r="AH113" s="40"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A114" s="59" t="s">
         <v>58</v>
       </c>
@@ -14209,7 +14209,7 @@
       </c>
       <c r="AH114" s="40"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A115" s="60" t="s">
         <v>56</v>
       </c>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="AH115" s="40"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A116" s="61" t="s">
         <v>57</v>
       </c>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="AH116" s="40"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A117" s="57" t="s">
         <v>37</v>
       </c>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="AH117" s="40"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A118" s="59" t="s">
         <v>50</v>
       </c>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="AH118" s="40"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A119" s="60" t="s">
         <v>59</v>
       </c>
@@ -14719,7 +14719,7 @@
       </c>
       <c r="AH119" s="40"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A120" s="60" t="s">
         <v>52</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="AH120" s="40"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A121" s="60" t="s">
         <v>54</v>
       </c>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="AH121" s="40"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A122" s="60" t="s">
         <v>56</v>
       </c>
@@ -15025,7 +15025,7 @@
       </c>
       <c r="AH122" s="40"/>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A123" s="61" t="s">
         <v>60</v>
       </c>
@@ -15127,7 +15127,7 @@
       </c>
       <c r="AH123" s="40"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A124" s="48"/>
       <c r="B124" s="49"/>
       <c r="C124" s="49"/>
@@ -15163,7 +15163,7 @@
       <c r="AG124" s="49"/>
       <c r="AH124" s="40"/>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A125" s="18" t="s">
         <v>61</v>
       </c>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="AH125" s="40"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A126" s="20" t="s">
         <v>43</v>
       </c>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="AH126" s="40"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A127" s="22" t="s">
         <v>20</v>
       </c>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="AH127" s="40"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A128" s="25" t="s">
         <v>21</v>
       </c>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="AH128" s="40"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A129" s="27" t="s">
         <v>22</v>
       </c>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="AH129" s="40"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A130" s="27" t="s">
         <v>23</v>
       </c>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="AH130" s="40"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A131" s="22" t="s">
         <v>24</v>
       </c>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="AH131" s="40"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A132" s="25" t="s">
         <v>25</v>
       </c>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="AH132" s="40"/>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A133" s="27" t="s">
         <v>26</v>
       </c>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="AH133" s="40"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A134" s="27" t="s">
         <v>27</v>
       </c>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="AH134" s="40"/>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A135" s="22" t="s">
         <v>28</v>
       </c>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="AH135" s="40"/>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A136" s="25" t="s">
         <v>29</v>
       </c>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="AH136" s="40"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A137" s="27" t="s">
         <v>30</v>
       </c>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="AH137" s="40"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A138" s="27" t="s">
         <v>31</v>
       </c>
@@ -16591,7 +16591,7 @@
       </c>
       <c r="AH138" s="40"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A139" s="20" t="s">
         <v>44</v>
       </c>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="AH139" s="40"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A140" s="22" t="s">
         <v>20</v>
       </c>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="AH140" s="40"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A141" s="27" t="s">
         <v>33</v>
       </c>
@@ -16897,7 +16897,7 @@
       </c>
       <c r="AH141" s="40"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A142" s="32" t="s">
         <v>34</v>
       </c>
@@ -16999,7 +16999,7 @@
       </c>
       <c r="AH142" s="40"/>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A143" s="22" t="s">
         <v>35</v>
       </c>
@@ -17101,7 +17101,7 @@
       </c>
       <c r="AH143" s="40"/>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A144" s="22" t="s">
         <v>28</v>
       </c>
@@ -17203,7 +17203,7 @@
       </c>
       <c r="AH144" s="40"/>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A145" s="25" t="s">
         <v>36</v>
       </c>
@@ -17305,7 +17305,7 @@
       </c>
       <c r="AH145" s="40"/>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A146" s="32" t="s">
         <v>31</v>
       </c>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="AH146" s="40"/>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A147" s="22" t="s">
         <v>37</v>
       </c>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="AH147" s="40"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A148" s="27" t="s">
         <v>38</v>
       </c>
@@ -17611,7 +17611,7 @@
       </c>
       <c r="AH148" s="40"/>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A149" s="32" t="s">
         <v>39</v>
       </c>
@@ -17713,7 +17713,7 @@
       </c>
       <c r="AH149" s="40"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A150" s="48"/>
       <c r="B150" s="49"/>
       <c r="C150" s="49"/>
@@ -17749,7 +17749,7 @@
       <c r="AG150" s="49"/>
       <c r="AH150" s="40"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A151" s="18" t="s">
         <v>62</v>
       </c>
@@ -17787,7 +17787,7 @@
       <c r="AG151" s="62"/>
       <c r="AH151" s="40"/>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A152" s="20" t="s">
         <v>63</v>
       </c>
@@ -17889,7 +17889,7 @@
       </c>
       <c r="AH152" s="40"/>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A153" s="22" t="s">
         <v>20</v>
       </c>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="AH153" s="40"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A154" s="25" t="s">
         <v>21</v>
       </c>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="AH154" s="40"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A155" s="27" t="s">
         <v>22</v>
       </c>
@@ -18195,7 +18195,7 @@
       </c>
       <c r="AH155" s="40"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A156" s="27" t="s">
         <v>23</v>
       </c>
@@ -18297,7 +18297,7 @@
       </c>
       <c r="AH156" s="40"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A157" s="22" t="s">
         <v>24</v>
       </c>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="AH157" s="40"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A158" s="25" t="s">
         <v>25</v>
       </c>
@@ -18501,7 +18501,7 @@
       </c>
       <c r="AH158" s="40"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A159" s="27" t="s">
         <v>26</v>
       </c>
@@ -18603,7 +18603,7 @@
       </c>
       <c r="AH159" s="40"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A160" s="27" t="s">
         <v>27</v>
       </c>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="AH160" s="40"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A161" s="22" t="s">
         <v>28</v>
       </c>
@@ -18807,7 +18807,7 @@
       </c>
       <c r="AH161" s="40"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A162" s="25" t="s">
         <v>29</v>
       </c>
@@ -18909,7 +18909,7 @@
       </c>
       <c r="AH162" s="40"/>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A163" s="27" t="s">
         <v>30</v>
       </c>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="AH163" s="40"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A164" s="27" t="s">
         <v>31</v>
       </c>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="AH164" s="40"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A165" s="20" t="s">
         <v>64</v>
       </c>
@@ -19215,7 +19215,7 @@
       </c>
       <c r="AH165" s="40"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A166" s="22" t="s">
         <v>20</v>
       </c>
@@ -19317,7 +19317,7 @@
       </c>
       <c r="AH166" s="40"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A167" s="27" t="s">
         <v>33</v>
       </c>
@@ -19419,7 +19419,7 @@
       </c>
       <c r="AH167" s="40"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A168" s="32" t="s">
         <v>34</v>
       </c>
@@ -19521,7 +19521,7 @@
       </c>
       <c r="AH168" s="40"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A169" s="22" t="s">
         <v>35</v>
       </c>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="AH169" s="40"/>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A170" s="22" t="s">
         <v>28</v>
       </c>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="AH170" s="40"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A171" s="25" t="s">
         <v>36</v>
       </c>
@@ -19827,7 +19827,7 @@
       </c>
       <c r="AH171" s="40"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A172" s="32" t="s">
         <v>31</v>
       </c>
@@ -19929,7 +19929,7 @@
       </c>
       <c r="AH172" s="40"/>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A173" s="22" t="s">
         <v>37</v>
       </c>
@@ -20031,7 +20031,7 @@
       </c>
       <c r="AH173" s="40"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A174" s="27" t="s">
         <v>38</v>
       </c>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="AH174" s="40"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A175" s="32" t="s">
         <v>39</v>
       </c>
@@ -20235,7 +20235,7 @@
       </c>
       <c r="AH175" s="40"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A176" s="48"/>
       <c r="B176" s="49"/>
       <c r="C176" s="49"/>
@@ -20271,7 +20271,7 @@
       <c r="AG176" s="49"/>
       <c r="AH176" s="40"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A177" s="18" t="s">
         <v>65</v>
       </c>
@@ -20309,7 +20309,7 @@
       <c r="AG177" s="62"/>
       <c r="AH177" s="40"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A178" s="20" t="s">
         <v>43</v>
       </c>
@@ -20347,7 +20347,7 @@
       <c r="AG178" s="21"/>
       <c r="AH178" s="40"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A179" s="22" t="s">
         <v>20</v>
       </c>
@@ -20385,7 +20385,7 @@
       <c r="AG179" s="29"/>
       <c r="AH179" s="40"/>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A180" s="25" t="s">
         <v>21</v>
       </c>
@@ -20487,7 +20487,7 @@
       </c>
       <c r="AH180" s="40"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A181" s="27" t="s">
         <v>22</v>
       </c>
@@ -20589,7 +20589,7 @@
       </c>
       <c r="AH181" s="40"/>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A182" s="27" t="s">
         <v>23</v>
       </c>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="AH182" s="40"/>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A183" s="22" t="s">
         <v>24</v>
       </c>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="AH183" s="40"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A184" s="25" t="s">
         <v>25</v>
       </c>
@@ -20895,7 +20895,7 @@
       </c>
       <c r="AH184" s="40"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A185" s="27" t="s">
         <v>26</v>
       </c>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="AH185" s="40"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A186" s="27" t="s">
         <v>27</v>
       </c>
@@ -21099,7 +21099,7 @@
       </c>
       <c r="AH186" s="40"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A187" s="22" t="s">
         <v>28</v>
       </c>
@@ -21201,7 +21201,7 @@
       </c>
       <c r="AH187" s="40"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A188" s="25" t="s">
         <v>29</v>
       </c>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="AH188" s="40"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A189" s="27" t="s">
         <v>30</v>
       </c>
@@ -21405,7 +21405,7 @@
       </c>
       <c r="AH189" s="40"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A190" s="27" t="s">
         <v>31</v>
       </c>
@@ -21507,7 +21507,7 @@
       </c>
       <c r="AH190" s="40"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A191" s="20" t="s">
         <v>44</v>
       </c>
@@ -21545,7 +21545,7 @@
       <c r="AG191" s="21"/>
       <c r="AH191" s="40"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A192" s="22" t="s">
         <v>20</v>
       </c>
@@ -21647,7 +21647,7 @@
       </c>
       <c r="AH192" s="40"/>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A193" s="27" t="s">
         <v>33</v>
       </c>
@@ -21749,7 +21749,7 @@
       </c>
       <c r="AH193" s="40"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A194" s="32" t="s">
         <v>34</v>
       </c>
@@ -21851,7 +21851,7 @@
       </c>
       <c r="AH194" s="40"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A195" s="22" t="s">
         <v>35</v>
       </c>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="AH195" s="40"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A196" s="22" t="s">
         <v>28</v>
       </c>
@@ -22055,7 +22055,7 @@
       </c>
       <c r="AH196" s="40"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A197" s="25" t="s">
         <v>36</v>
       </c>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="AH197" s="40"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A198" s="32" t="s">
         <v>31</v>
       </c>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="AH198" s="40"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A199" s="22" t="s">
         <v>37</v>
       </c>
@@ -22361,7 +22361,7 @@
       </c>
       <c r="AH199" s="40"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A200" s="27" t="s">
         <v>38</v>
       </c>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="AH200" s="40"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A201" s="32" t="s">
         <v>39</v>
       </c>
@@ -22565,7 +22565,7 @@
       </c>
       <c r="AH201" s="40"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A202" s="48"/>
       <c r="B202" s="49"/>
       <c r="C202" s="49"/>
@@ -22601,7 +22601,7 @@
       <c r="AG202" s="49"/>
       <c r="AH202" s="40"/>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A203" s="18" t="s">
         <v>66</v>
       </c>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="AH203" s="40"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A204" s="20" t="s">
         <v>43</v>
       </c>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="AH204" s="40"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A205" s="22" t="s">
         <v>20</v>
       </c>
@@ -22907,7 +22907,7 @@
       </c>
       <c r="AH205" s="40"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A206" s="25" t="s">
         <v>21</v>
       </c>
@@ -23009,7 +23009,7 @@
       </c>
       <c r="AH206" s="40"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A207" s="27" t="s">
         <v>22</v>
       </c>
@@ -23111,7 +23111,7 @@
       </c>
       <c r="AH207" s="40"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A208" s="27" t="s">
         <v>23</v>
       </c>
@@ -23213,7 +23213,7 @@
       </c>
       <c r="AH208" s="40"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A209" s="22" t="s">
         <v>24</v>
       </c>
@@ -23315,7 +23315,7 @@
       </c>
       <c r="AH209" s="40"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A210" s="25" t="s">
         <v>25</v>
       </c>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="AH210" s="40"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A211" s="27" t="s">
         <v>26</v>
       </c>
@@ -23519,7 +23519,7 @@
       </c>
       <c r="AH211" s="40"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A212" s="27" t="s">
         <v>27</v>
       </c>
@@ -23621,7 +23621,7 @@
       </c>
       <c r="AH212" s="40"/>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A213" s="22" t="s">
         <v>28</v>
       </c>
@@ -23723,7 +23723,7 @@
       </c>
       <c r="AH213" s="40"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A214" s="25" t="s">
         <v>29</v>
       </c>
@@ -23825,7 +23825,7 @@
       </c>
       <c r="AH214" s="40"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A215" s="27" t="s">
         <v>30</v>
       </c>
@@ -23927,7 +23927,7 @@
       </c>
       <c r="AH215" s="40"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A216" s="27" t="s">
         <v>31</v>
       </c>
@@ -24029,7 +24029,7 @@
       </c>
       <c r="AH216" s="40"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A217" s="20" t="s">
         <v>44</v>
       </c>
@@ -24131,7 +24131,7 @@
       </c>
       <c r="AH217" s="40"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A218" s="22" t="s">
         <v>20</v>
       </c>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="AH218" s="40"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A219" s="27" t="s">
         <v>33</v>
       </c>
@@ -24335,7 +24335,7 @@
       </c>
       <c r="AH219" s="40"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A220" s="32" t="s">
         <v>34</v>
       </c>
@@ -24437,7 +24437,7 @@
       </c>
       <c r="AH220" s="40"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A221" s="22" t="s">
         <v>35</v>
       </c>
@@ -24539,7 +24539,7 @@
       </c>
       <c r="AH221" s="40"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A222" s="22" t="s">
         <v>28</v>
       </c>
@@ -24641,7 +24641,7 @@
       </c>
       <c r="AH222" s="40"/>
     </row>
-    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A223" s="25" t="s">
         <v>36</v>
       </c>
@@ -24743,7 +24743,7 @@
       </c>
       <c r="AH223" s="40"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A224" s="32" t="s">
         <v>31</v>
       </c>
@@ -24845,7 +24845,7 @@
       </c>
       <c r="AH224" s="40"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A225" s="22" t="s">
         <v>37</v>
       </c>
@@ -24947,7 +24947,7 @@
       </c>
       <c r="AH225" s="40"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A226" s="27" t="s">
         <v>38</v>
       </c>
@@ -25049,7 +25049,7 @@
       </c>
       <c r="AH226" s="40"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A227" s="32" t="s">
         <v>39</v>
       </c>
@@ -25151,7 +25151,7 @@
       </c>
       <c r="AH227" s="40"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A228" s="48"/>
       <c r="B228" s="49"/>
       <c r="C228" s="49"/>
@@ -25187,7 +25187,7 @@
       <c r="AG228" s="49"/>
       <c r="AH228" s="40"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A229" s="18" t="s">
         <v>67</v>
       </c>
@@ -25225,7 +25225,7 @@
       <c r="AG229" s="62"/>
       <c r="AH229" s="40"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A230" s="20" t="s">
         <v>68</v>
       </c>
@@ -25327,7 +25327,7 @@
       </c>
       <c r="AH230" s="40"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A231" s="22" t="s">
         <v>20</v>
       </c>
@@ -25429,7 +25429,7 @@
       </c>
       <c r="AH231" s="40"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A232" s="25" t="s">
         <v>21</v>
       </c>
@@ -25531,7 +25531,7 @@
       </c>
       <c r="AH232" s="40"/>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A233" s="27" t="s">
         <v>22</v>
       </c>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="AH233" s="40"/>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A234" s="27" t="s">
         <v>23</v>
       </c>
@@ -25735,7 +25735,7 @@
       </c>
       <c r="AH234" s="40"/>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A235" s="22" t="s">
         <v>24</v>
       </c>
@@ -25837,7 +25837,7 @@
       </c>
       <c r="AH235" s="40"/>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A236" s="25" t="s">
         <v>25</v>
       </c>
@@ -25939,7 +25939,7 @@
       </c>
       <c r="AH236" s="40"/>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A237" s="27" t="s">
         <v>26</v>
       </c>
@@ -26041,7 +26041,7 @@
       </c>
       <c r="AH237" s="40"/>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A238" s="27" t="s">
         <v>27</v>
       </c>
@@ -26143,7 +26143,7 @@
       </c>
       <c r="AH238" s="40"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A239" s="22" t="s">
         <v>28</v>
       </c>
@@ -26245,7 +26245,7 @@
       </c>
       <c r="AH239" s="40"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A240" s="25" t="s">
         <v>29</v>
       </c>
@@ -26347,7 +26347,7 @@
       </c>
       <c r="AH240" s="40"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A241" s="27" t="s">
         <v>30</v>
       </c>
@@ -26449,7 +26449,7 @@
       </c>
       <c r="AH241" s="40"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A242" s="27" t="s">
         <v>31</v>
       </c>
@@ -26551,7 +26551,7 @@
       </c>
       <c r="AH242" s="40"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A243" s="20" t="s">
         <v>69</v>
       </c>
@@ -26653,7 +26653,7 @@
       </c>
       <c r="AH243" s="40"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A244" s="22" t="s">
         <v>20</v>
       </c>
@@ -26755,7 +26755,7 @@
       </c>
       <c r="AH244" s="40"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A245" s="27" t="s">
         <v>33</v>
       </c>
@@ -26857,7 +26857,7 @@
       </c>
       <c r="AH245" s="40"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A246" s="32" t="s">
         <v>34</v>
       </c>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="AH246" s="40"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A247" s="22" t="s">
         <v>35</v>
       </c>
@@ -27061,7 +27061,7 @@
       </c>
       <c r="AH247" s="40"/>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A248" s="22" t="s">
         <v>28</v>
       </c>
@@ -27163,7 +27163,7 @@
       </c>
       <c r="AH248" s="40"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A249" s="25" t="s">
         <v>36</v>
       </c>
@@ -27265,7 +27265,7 @@
       </c>
       <c r="AH249" s="40"/>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A250" s="32" t="s">
         <v>31</v>
       </c>
@@ -27367,7 +27367,7 @@
       </c>
       <c r="AH250" s="40"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A251" s="22" t="s">
         <v>37</v>
       </c>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="AH251" s="40"/>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A252" s="27" t="s">
         <v>38</v>
       </c>
@@ -27571,7 +27571,7 @@
       </c>
       <c r="AH252" s="40"/>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A253" s="32" t="s">
         <v>39</v>
       </c>
@@ -27673,7 +27673,7 @@
       </c>
       <c r="AH253" s="40"/>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A254" s="48"/>
       <c r="B254" s="49"/>
       <c r="C254" s="49"/>
@@ -27709,7 +27709,7 @@
       <c r="AG254" s="49"/>
       <c r="AH254" s="40"/>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A255" s="18" t="s">
         <v>70</v>
       </c>
@@ -27747,7 +27747,7 @@
       <c r="AG255" s="62"/>
       <c r="AH255" s="40"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A256" s="20" t="s">
         <v>43</v>
       </c>
@@ -27785,7 +27785,7 @@
       <c r="AG256" s="21"/>
       <c r="AH256" s="40"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A257" s="22" t="s">
         <v>20</v>
       </c>
@@ -27823,7 +27823,7 @@
       <c r="AG257" s="29"/>
       <c r="AH257" s="40"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A258" s="25" t="s">
         <v>21</v>
       </c>
@@ -27925,7 +27925,7 @@
       </c>
       <c r="AH258" s="40"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A259" s="27" t="s">
         <v>22</v>
       </c>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="AH259" s="40"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A260" s="27" t="s">
         <v>23</v>
       </c>
@@ -28129,7 +28129,7 @@
       </c>
       <c r="AH260" s="40"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A261" s="22" t="s">
         <v>24</v>
       </c>
@@ -28231,7 +28231,7 @@
       </c>
       <c r="AH261" s="40"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A262" s="25" t="s">
         <v>25</v>
       </c>
@@ -28333,7 +28333,7 @@
       </c>
       <c r="AH262" s="40"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A263" s="27" t="s">
         <v>26</v>
       </c>
@@ -28435,7 +28435,7 @@
       </c>
       <c r="AH263" s="40"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A264" s="27" t="s">
         <v>27</v>
       </c>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="AH264" s="40"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A265" s="22" t="s">
         <v>28</v>
       </c>
@@ -28639,7 +28639,7 @@
       </c>
       <c r="AH265" s="40"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A266" s="25" t="s">
         <v>29</v>
       </c>
@@ -28741,7 +28741,7 @@
       </c>
       <c r="AH266" s="40"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A267" s="27" t="s">
         <v>30</v>
       </c>
@@ -28843,7 +28843,7 @@
       </c>
       <c r="AH267" s="40"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A268" s="27" t="s">
         <v>31</v>
       </c>
@@ -28945,7 +28945,7 @@
       </c>
       <c r="AH268" s="40"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A269" s="20" t="s">
         <v>44</v>
       </c>
@@ -28983,7 +28983,7 @@
       <c r="AG269" s="21"/>
       <c r="AH269" s="40"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A270" s="22" t="s">
         <v>20</v>
       </c>
@@ -29085,7 +29085,7 @@
       </c>
       <c r="AH270" s="40"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A271" s="27" t="s">
         <v>33</v>
       </c>
@@ -29187,7 +29187,7 @@
       </c>
       <c r="AH271" s="40"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A272" s="32" t="s">
         <v>34</v>
       </c>
@@ -29289,7 +29289,7 @@
       </c>
       <c r="AH272" s="40"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A273" s="22" t="s">
         <v>35</v>
       </c>
@@ -29391,7 +29391,7 @@
       </c>
       <c r="AH273" s="40"/>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A274" s="22" t="s">
         <v>28</v>
       </c>
@@ -29493,7 +29493,7 @@
       </c>
       <c r="AH274" s="40"/>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A275" s="25" t="s">
         <v>36</v>
       </c>
@@ -29595,7 +29595,7 @@
       </c>
       <c r="AH275" s="40"/>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A276" s="32" t="s">
         <v>31</v>
       </c>
@@ -29697,7 +29697,7 @@
       </c>
       <c r="AH276" s="40"/>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A277" s="22" t="s">
         <v>37</v>
       </c>
@@ -29799,7 +29799,7 @@
       </c>
       <c r="AH277" s="40"/>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A278" s="27" t="s">
         <v>38</v>
       </c>
@@ -29901,7 +29901,7 @@
       </c>
       <c r="AH278" s="40"/>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A279" s="32" t="s">
         <v>39</v>
       </c>
@@ -30003,7 +30003,7 @@
       </c>
       <c r="AH279" s="40"/>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A280" s="48"/>
       <c r="B280" s="49"/>
       <c r="C280" s="49"/>
@@ -30039,7 +30039,7 @@
       <c r="AG280" s="49"/>
       <c r="AH280" s="40"/>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A281" s="18" t="s">
         <v>71</v>
       </c>
@@ -30077,7 +30077,7 @@
       <c r="AG281" s="62"/>
       <c r="AH281" s="40"/>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A282" s="20" t="s">
         <v>72</v>
       </c>
@@ -30179,7 +30179,7 @@
       </c>
       <c r="AH282" s="40"/>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A283" s="22" t="s">
         <v>20</v>
       </c>
@@ -30281,7 +30281,7 @@
       </c>
       <c r="AH283" s="40"/>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A284" s="25" t="s">
         <v>21</v>
       </c>
@@ -30383,7 +30383,7 @@
       </c>
       <c r="AH284" s="40"/>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A285" s="27" t="s">
         <v>22</v>
       </c>
@@ -30485,7 +30485,7 @@
       </c>
       <c r="AH285" s="40"/>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A286" s="27" t="s">
         <v>23</v>
       </c>
@@ -30587,7 +30587,7 @@
       </c>
       <c r="AH286" s="40"/>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A287" s="22" t="s">
         <v>24</v>
       </c>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="AH287" s="40"/>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A288" s="25" t="s">
         <v>25</v>
       </c>
@@ -30791,7 +30791,7 @@
       </c>
       <c r="AH288" s="40"/>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A289" s="27" t="s">
         <v>26</v>
       </c>
@@ -30893,7 +30893,7 @@
       </c>
       <c r="AH289" s="40"/>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A290" s="27" t="s">
         <v>27</v>
       </c>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="AH290" s="40"/>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A291" s="63" t="s">
         <v>28</v>
       </c>
@@ -31097,7 +31097,7 @@
       </c>
       <c r="AH291" s="40"/>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A292" s="25" t="s">
         <v>29</v>
       </c>
@@ -31199,7 +31199,7 @@
       </c>
       <c r="AH292" s="40"/>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A293" s="27" t="s">
         <v>30</v>
       </c>
@@ -31301,7 +31301,7 @@
       </c>
       <c r="AH293" s="40"/>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A294" s="27" t="s">
         <v>31</v>
       </c>
@@ -31403,7 +31403,7 @@
       </c>
       <c r="AH294" s="40"/>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A295" s="20" t="s">
         <v>73</v>
       </c>
@@ -31505,7 +31505,7 @@
       </c>
       <c r="AH295" s="40"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A296" s="22" t="s">
         <v>20</v>
       </c>
@@ -31607,7 +31607,7 @@
       </c>
       <c r="AH296" s="40"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A297" s="27" t="s">
         <v>33</v>
       </c>
@@ -31709,7 +31709,7 @@
       </c>
       <c r="AH297" s="40"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A298" s="32" t="s">
         <v>34</v>
       </c>
@@ -31811,7 +31811,7 @@
       </c>
       <c r="AH298" s="40"/>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A299" s="22" t="s">
         <v>35</v>
       </c>
@@ -31913,7 +31913,7 @@
       </c>
       <c r="AH299" s="40"/>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A300" s="63" t="s">
         <v>28</v>
       </c>
@@ -32015,7 +32015,7 @@
       </c>
       <c r="AH300" s="40"/>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A301" s="25" t="s">
         <v>36</v>
       </c>
@@ -32117,7 +32117,7 @@
       </c>
       <c r="AH301" s="40"/>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A302" s="32" t="s">
         <v>31</v>
       </c>
@@ -32219,7 +32219,7 @@
       </c>
       <c r="AH302" s="40"/>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A303" s="63" t="s">
         <v>37</v>
       </c>
@@ -32321,7 +32321,7 @@
       </c>
       <c r="AH303" s="40"/>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A304" s="27" t="s">
         <v>38</v>
       </c>
@@ -32423,7 +32423,7 @@
       </c>
       <c r="AH304" s="40"/>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A305" s="32" t="s">
         <v>39</v>
       </c>
@@ -32525,7 +32525,7 @@
       </c>
       <c r="AH305" s="40"/>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A306" s="48"/>
       <c r="B306" s="49"/>
       <c r="C306" s="49"/>
@@ -32561,7 +32561,7 @@
       <c r="AG306" s="49"/>
       <c r="AH306" s="40"/>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A307" s="18" t="s">
         <v>74</v>
       </c>
@@ -32599,7 +32599,7 @@
       <c r="AG307" s="19"/>
       <c r="AH307" s="40"/>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A308" s="20" t="s">
         <v>43</v>
       </c>
@@ -32637,7 +32637,7 @@
       <c r="AG308" s="21"/>
       <c r="AH308" s="40"/>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A309" s="22" t="s">
         <v>75</v>
       </c>
@@ -32739,7 +32739,7 @@
       </c>
       <c r="AH309" s="40"/>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A310" s="25" t="s">
         <v>21</v>
       </c>
@@ -32841,7 +32841,7 @@
       </c>
       <c r="AH310" s="40"/>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A311" s="27" t="s">
         <v>22</v>
       </c>
@@ -32943,7 +32943,7 @@
       </c>
       <c r="AH311" s="40"/>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A312" s="27" t="s">
         <v>23</v>
       </c>
@@ -33045,7 +33045,7 @@
       </c>
       <c r="AH312" s="40"/>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A313" s="22" t="s">
         <v>76</v>
       </c>
@@ -33147,7 +33147,7 @@
       </c>
       <c r="AH313" s="40"/>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A314" s="25" t="s">
         <v>25</v>
       </c>
@@ -33249,7 +33249,7 @@
       </c>
       <c r="AH314" s="40"/>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A315" s="27" t="s">
         <v>26</v>
       </c>
@@ -33351,7 +33351,7 @@
       </c>
       <c r="AH315" s="40"/>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A316" s="27" t="s">
         <v>27</v>
       </c>
@@ -33453,7 +33453,7 @@
       </c>
       <c r="AH316" s="40"/>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A317" s="22" t="s">
         <v>77</v>
       </c>
@@ -33555,7 +33555,7 @@
       </c>
       <c r="AH317" s="40"/>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A318" s="25" t="s">
         <v>29</v>
       </c>
@@ -33657,7 +33657,7 @@
       </c>
       <c r="AH318" s="40"/>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A319" s="27" t="s">
         <v>30</v>
       </c>
@@ -33759,7 +33759,7 @@
       </c>
       <c r="AH319" s="40"/>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A320" s="27" t="s">
         <v>31</v>
       </c>
@@ -33861,7 +33861,7 @@
       </c>
       <c r="AH320" s="40"/>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A321" s="20" t="s">
         <v>44</v>
       </c>
@@ -33899,7 +33899,7 @@
       <c r="AG321" s="21"/>
       <c r="AH321" s="40"/>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A322" s="22" t="s">
         <v>75</v>
       </c>
@@ -34001,7 +34001,7 @@
       </c>
       <c r="AH322" s="40"/>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A323" s="27" t="s">
         <v>33</v>
       </c>
@@ -34103,7 +34103,7 @@
       </c>
       <c r="AH323" s="40"/>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A324" s="32" t="s">
         <v>34</v>
       </c>
@@ -34205,7 +34205,7 @@
       </c>
       <c r="AH324" s="40"/>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A325" s="22" t="s">
         <v>78</v>
       </c>
@@ -34307,7 +34307,7 @@
       </c>
       <c r="AH325" s="40"/>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A326" s="22" t="s">
         <v>77</v>
       </c>
@@ -34409,7 +34409,7 @@
       </c>
       <c r="AH326" s="40"/>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A327" s="25" t="s">
         <v>36</v>
       </c>
@@ -34511,7 +34511,7 @@
       </c>
       <c r="AH327" s="40"/>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A328" s="32" t="s">
         <v>31</v>
       </c>
@@ -34613,7 +34613,7 @@
       </c>
       <c r="AH328" s="40"/>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A329" s="22" t="s">
         <v>37</v>
       </c>
@@ -34715,7 +34715,7 @@
       </c>
       <c r="AH329" s="40"/>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A330" s="27" t="s">
         <v>38</v>
       </c>
@@ -34817,7 +34817,7 @@
       </c>
       <c r="AH330" s="40"/>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A331" s="32" t="s">
         <v>39</v>
       </c>
@@ -34919,7 +34919,7 @@
       </c>
       <c r="AH331" s="40"/>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A332" s="48"/>
       <c r="B332" s="49"/>
       <c r="C332" s="49"/>
@@ -34955,7 +34955,7 @@
       <c r="AG332" s="49"/>
       <c r="AH332" s="40"/>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A333" s="18" t="s">
         <v>79</v>
       </c>
@@ -34993,7 +34993,7 @@
       <c r="AG333" s="19"/>
       <c r="AH333" s="40"/>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A334" s="20" t="s">
         <v>43</v>
       </c>
@@ -35031,7 +35031,7 @@
       <c r="AG334" s="21"/>
       <c r="AH334" s="40"/>
     </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A335" s="22" t="s">
         <v>80</v>
       </c>
@@ -35133,7 +35133,7 @@
       </c>
       <c r="AH335" s="40"/>
     </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A336" s="25" t="s">
         <v>21</v>
       </c>
@@ -35235,7 +35235,7 @@
       </c>
       <c r="AH336" s="40"/>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A337" s="27" t="s">
         <v>22</v>
       </c>
@@ -35337,7 +35337,7 @@
       </c>
       <c r="AH337" s="40"/>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A338" s="27" t="s">
         <v>23</v>
       </c>
@@ -35439,7 +35439,7 @@
       </c>
       <c r="AH338" s="40"/>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A339" s="22" t="s">
         <v>81</v>
       </c>
@@ -35541,7 +35541,7 @@
       </c>
       <c r="AH339" s="40"/>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A340" s="25" t="s">
         <v>25</v>
       </c>
@@ -35643,7 +35643,7 @@
       </c>
       <c r="AH340" s="40"/>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A341" s="27" t="s">
         <v>26</v>
       </c>
@@ -35745,7 +35745,7 @@
       </c>
       <c r="AH341" s="40"/>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A342" s="27" t="s">
         <v>27</v>
       </c>
@@ -35847,7 +35847,7 @@
       </c>
       <c r="AH342" s="40"/>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A343" s="22" t="s">
         <v>82</v>
       </c>
@@ -35949,7 +35949,7 @@
       </c>
       <c r="AH343" s="40"/>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A344" s="25" t="s">
         <v>29</v>
       </c>
@@ -36051,7 +36051,7 @@
       </c>
       <c r="AH344" s="40"/>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A345" s="27" t="s">
         <v>30</v>
       </c>
@@ -36153,7 +36153,7 @@
       </c>
       <c r="AH345" s="40"/>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A346" s="27" t="s">
         <v>31</v>
       </c>
@@ -36255,7 +36255,7 @@
       </c>
       <c r="AH346" s="40"/>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A347" s="20" t="s">
         <v>44</v>
       </c>
@@ -36293,7 +36293,7 @@
       <c r="AG347" s="21"/>
       <c r="AH347" s="40"/>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A348" s="22" t="s">
         <v>83</v>
       </c>
@@ -36395,7 +36395,7 @@
       </c>
       <c r="AH348" s="40"/>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A349" s="27" t="s">
         <v>33</v>
       </c>
@@ -36497,7 +36497,7 @@
       </c>
       <c r="AH349" s="40"/>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A350" s="32" t="s">
         <v>34</v>
       </c>
@@ -36599,7 +36599,7 @@
       </c>
       <c r="AH350" s="40"/>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A351" s="22" t="s">
         <v>84</v>
       </c>
@@ -36701,7 +36701,7 @@
       </c>
       <c r="AH351" s="40"/>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A352" s="22" t="s">
         <v>85</v>
       </c>
@@ -36803,7 +36803,7 @@
       </c>
       <c r="AH352" s="40"/>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A353" s="25" t="s">
         <v>36</v>
       </c>
@@ -36905,7 +36905,7 @@
       </c>
       <c r="AH353" s="40"/>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A354" s="32" t="s">
         <v>31</v>
       </c>
@@ -37007,7 +37007,7 @@
       </c>
       <c r="AH354" s="40"/>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A355" s="22" t="s">
         <v>37</v>
       </c>
@@ -37109,7 +37109,7 @@
       </c>
       <c r="AH355" s="40"/>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A356" s="27" t="s">
         <v>38</v>
       </c>
@@ -37211,7 +37211,7 @@
       </c>
       <c r="AH356" s="40"/>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A357" s="32" t="s">
         <v>39</v>
       </c>
@@ -37313,7 +37313,7 @@
       </c>
       <c r="AH357" s="40"/>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A358" s="48"/>
       <c r="B358" s="49"/>
       <c r="C358" s="49"/>
@@ -37349,7 +37349,7 @@
       <c r="AG358" s="49"/>
       <c r="AH358" s="40"/>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A359" s="18" t="s">
         <v>86</v>
       </c>
@@ -37387,7 +37387,7 @@
       <c r="AG359" s="19"/>
       <c r="AH359" s="40"/>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A360" s="20" t="s">
         <v>43</v>
       </c>
@@ -37425,7 +37425,7 @@
       <c r="AG360" s="21"/>
       <c r="AH360" s="40"/>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A361" s="22" t="s">
         <v>87</v>
       </c>
@@ -37527,7 +37527,7 @@
       </c>
       <c r="AH361" s="40"/>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A362" s="25" t="s">
         <v>21</v>
       </c>
@@ -37629,7 +37629,7 @@
       </c>
       <c r="AH362" s="40"/>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A363" s="27" t="s">
         <v>22</v>
       </c>
@@ -37731,7 +37731,7 @@
       </c>
       <c r="AH363" s="40"/>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A364" s="27" t="s">
         <v>23</v>
       </c>
@@ -37833,7 +37833,7 @@
       </c>
       <c r="AH364" s="40"/>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A365" s="22" t="s">
         <v>88</v>
       </c>
@@ -37935,7 +37935,7 @@
       </c>
       <c r="AH365" s="40"/>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A366" s="25" t="s">
         <v>25</v>
       </c>
@@ -38037,7 +38037,7 @@
       </c>
       <c r="AH366" s="40"/>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A367" s="27" t="s">
         <v>26</v>
       </c>
@@ -38139,7 +38139,7 @@
       </c>
       <c r="AH367" s="40"/>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A368" s="27" t="s">
         <v>27</v>
       </c>
@@ -38241,7 +38241,7 @@
       </c>
       <c r="AH368" s="40"/>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A369" s="22" t="s">
         <v>89</v>
       </c>
@@ -38343,7 +38343,7 @@
       </c>
       <c r="AH369" s="40"/>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A370" s="25" t="s">
         <v>29</v>
       </c>
@@ -38445,7 +38445,7 @@
       </c>
       <c r="AH370" s="40"/>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A371" s="27" t="s">
         <v>30</v>
       </c>
@@ -38547,7 +38547,7 @@
       </c>
       <c r="AH371" s="40"/>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A372" s="27" t="s">
         <v>31</v>
       </c>
@@ -38649,7 +38649,7 @@
       </c>
       <c r="AH372" s="40"/>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A373" s="20" t="s">
         <v>44</v>
       </c>
@@ -38687,7 +38687,7 @@
       <c r="AG373" s="21"/>
       <c r="AH373" s="40"/>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A374" s="22" t="s">
         <v>87</v>
       </c>
@@ -38789,7 +38789,7 @@
       </c>
       <c r="AH374" s="40"/>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A375" s="27" t="s">
         <v>33</v>
       </c>
@@ -38891,7 +38891,7 @@
       </c>
       <c r="AH375" s="40"/>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A376" s="32" t="s">
         <v>34</v>
       </c>
@@ -38993,7 +38993,7 @@
       </c>
       <c r="AH376" s="40"/>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A377" s="22" t="s">
         <v>90</v>
       </c>
@@ -39095,7 +39095,7 @@
       </c>
       <c r="AH377" s="40"/>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A378" s="22" t="s">
         <v>89</v>
       </c>
@@ -39197,7 +39197,7 @@
       </c>
       <c r="AH378" s="40"/>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A379" s="25" t="s">
         <v>36</v>
       </c>
@@ -39299,7 +39299,7 @@
       </c>
       <c r="AH379" s="40"/>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A380" s="32" t="s">
         <v>31</v>
       </c>
@@ -39401,7 +39401,7 @@
       </c>
       <c r="AH380" s="40"/>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A381" s="22" t="s">
         <v>37</v>
       </c>
@@ -39503,7 +39503,7 @@
       </c>
       <c r="AH381" s="40"/>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A382" s="27" t="s">
         <v>38</v>
       </c>
@@ -39605,7 +39605,7 @@
       </c>
       <c r="AH382" s="40"/>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A383" s="32" t="s">
         <v>39</v>
       </c>
@@ -39707,7 +39707,7 @@
       </c>
       <c r="AH383" s="40"/>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A384" s="48"/>
       <c r="B384" s="49"/>
       <c r="C384" s="49"/>
@@ -39743,7 +39743,7 @@
       <c r="AG384" s="49"/>
       <c r="AH384" s="40"/>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A385" s="40"/>
       <c r="B385" s="40"/>
       <c r="C385" s="40"/>
@@ -39792,15 +39792,15 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>13</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>91</v>
       </c>
@@ -39816,7 +39816,7 @@
         <v>8854.0777976351601</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>43</v>
       </c>
@@ -39824,7 +39824,7 @@
         <v>8346.0790641255444</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>29</v>
       </c>
@@ -39832,7 +39832,7 @@
         <v>1103.3234132134789</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>30</v>
       </c>
@@ -39840,7 +39840,7 @@
         <v>3725.516078160827</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>31</v>
       </c>
@@ -39848,7 +39848,7 @@
         <v>3517.239572751238</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
@@ -39856,7 +39856,7 @@
         <v>507.99873350961605</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>36</v>
       </c>
@@ -39864,7 +39864,7 @@
         <v>165.67674900357699</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
@@ -39888,13 +39888,13 @@
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>92</v>
       </c>
@@ -39995,7 +39995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="66"/>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
@@ -40030,7 +40030,7 @@
       <c r="AF2" s="66"/>
       <c r="AG2" s="66"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>93</v>
       </c>
@@ -40067,7 +40067,7 @@
       <c r="AF3" s="62"/>
       <c r="AG3" s="62"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
         <v>38</v>
       </c>
@@ -40168,7 +40168,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" s="60" t="s">
         <v>94</v>
       </c>
@@ -40269,7 +40269,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" s="60" t="s">
         <v>95</v>
       </c>
@@ -40370,7 +40370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
         <v>96</v>
       </c>
@@ -40471,7 +40471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
         <v>97</v>
       </c>
@@ -40572,7 +40572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
         <v>98</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>99</v>
       </c>
@@ -40774,7 +40774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>39</v>
       </c>
@@ -40875,7 +40875,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12" s="60" t="s">
         <v>94</v>
       </c>
@@ -40976,7 +40976,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13" s="60" t="s">
         <v>95</v>
       </c>
@@ -41077,7 +41077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
         <v>96</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15" s="60" t="s">
         <v>97</v>
       </c>
@@ -41279,7 +41279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
         <v>98</v>
       </c>
@@ -41380,7 +41380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="61" t="s">
         <v>99</v>
       </c>
@@ -41481,7 +41481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="66"/>
       <c r="B18" s="66"/>
       <c r="C18" s="66"/>
@@ -41516,7 +41516,7 @@
       <c r="AF18" s="66"/>
       <c r="AG18" s="66"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>100</v>
       </c>
@@ -41553,7 +41553,7 @@
       <c r="AF19" s="62"/>
       <c r="AG19" s="62"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="57" t="s">
         <v>101</v>
       </c>
@@ -41654,7 +41654,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="60" t="s">
         <v>94</v>
       </c>
@@ -41755,7 +41755,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
         <v>95</v>
       </c>
@@ -41856,7 +41856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="60" t="s">
         <v>96</v>
       </c>
@@ -41957,7 +41957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
         <v>97</v>
       </c>
@@ -42058,7 +42058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
         <v>98</v>
       </c>
@@ -42159,7 +42159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="60" t="s">
         <v>99</v>
       </c>
@@ -42260,7 +42260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="57" t="s">
         <v>102</v>
       </c>
@@ -42361,7 +42361,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="60" t="s">
         <v>94</v>
       </c>
@@ -42462,7 +42462,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="60" t="s">
         <v>95</v>
       </c>
@@ -42563,7 +42563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="60" t="s">
         <v>96</v>
       </c>
@@ -42664,7 +42664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="60" t="s">
         <v>97</v>
       </c>
@@ -42765,7 +42765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="60" t="s">
         <v>98</v>
       </c>
@@ -42866,7 +42866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="61" t="s">
         <v>99</v>
       </c>
@@ -42967,7 +42967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="38" t="s">
         <v>103</v>
       </c>
@@ -43068,7 +43068,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>104</v>
       </c>
@@ -43169,7 +43169,7 @@
         <v>495.4</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="57" t="s">
         <v>101</v>
       </c>
@@ -43270,7 +43270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="60" t="s">
         <v>94</v>
       </c>
@@ -43371,7 +43371,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="60" t="s">
         <v>95</v>
       </c>
@@ -43472,7 +43472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="60" t="s">
         <v>96</v>
       </c>
@@ -43573,7 +43573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="60" t="s">
         <v>97</v>
       </c>
@@ -43674,7 +43674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
         <v>98</v>
       </c>
@@ -43775,7 +43775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
         <v>99</v>
       </c>
@@ -43876,7 +43876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="57" t="s">
         <v>102</v>
       </c>
@@ -43977,7 +43977,7 @@
         <v>382.4</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="60" t="s">
         <v>94</v>
       </c>
@@ -44078,7 +44078,7 @@
         <v>382.2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="60" t="s">
         <v>95</v>
       </c>
@@ -44179,7 +44179,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="60" t="s">
         <v>96</v>
       </c>
@@ -44280,7 +44280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="60" t="s">
         <v>97</v>
       </c>
@@ -44381,7 +44381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="60" t="s">
         <v>98</v>
       </c>
@@ -44482,7 +44482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="61" t="s">
         <v>99</v>
       </c>
@@ -44583,7 +44583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
         <v>105</v>
       </c>
@@ -44684,7 +44684,7 @@
         <v>430.9</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="57" t="s">
         <v>38</v>
       </c>
@@ -44785,7 +44785,7 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="60" t="s">
         <v>94</v>
       </c>
@@ -44886,7 +44886,7 @@
         <v>150.6</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>95</v>
       </c>
@@ -44987,7 +44987,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
         <v>96</v>
       </c>
@@ -45088,7 +45088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="60" t="s">
         <v>97</v>
       </c>
@@ -45189,7 +45189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="60" t="s">
         <v>98</v>
       </c>
@@ -45290,7 +45290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="60" t="s">
         <v>99</v>
       </c>
@@ -45391,7 +45391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="57" t="s">
         <v>39</v>
       </c>
@@ -45492,7 +45492,7 @@
         <v>280.2</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="60" t="s">
         <v>94</v>
       </c>
@@ -45593,7 +45593,7 @@
         <v>280.10000000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="60" t="s">
         <v>95</v>
       </c>
@@ -45694,7 +45694,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="60" t="s">
         <v>96</v>
       </c>
@@ -45795,7 +45795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="60" t="s">
         <v>97</v>
       </c>
@@ -45896,7 +45896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="60" t="s">
         <v>98</v>
       </c>
@@ -45997,7 +45997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="61" t="s">
         <v>99</v>
       </c>
@@ -46098,7 +46098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="38" t="s">
         <v>92</v>
       </c>
@@ -46196,7 +46196,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="18" t="s">
         <v>93</v>
       </c>
@@ -46232,7 +46232,7 @@
       <c r="AE69" s="62"/>
       <c r="AF69" s="62"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="57" t="s">
         <v>38</v>
       </c>
@@ -46330,7 +46330,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="60" t="s">
         <v>94</v>
       </c>
@@ -46428,7 +46428,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" s="60" t="s">
         <v>95</v>
       </c>
@@ -46526,7 +46526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="60" t="s">
         <v>96</v>
       </c>
@@ -46624,7 +46624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" s="60" t="s">
         <v>97</v>
       </c>
@@ -46722,7 +46722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="60" t="s">
         <v>98</v>
       </c>
@@ -46820,7 +46820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" s="60" t="s">
         <v>99</v>
       </c>
@@ -46918,7 +46918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="57" t="s">
         <v>39</v>
       </c>
@@ -47016,7 +47016,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A78" s="60" t="s">
         <v>94</v>
       </c>
@@ -47114,7 +47114,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" s="60" t="s">
         <v>95</v>
       </c>
@@ -47212,7 +47212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A80" s="60" t="s">
         <v>96</v>
       </c>
@@ -47310,7 +47310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A81" s="60" t="s">
         <v>97</v>
       </c>
@@ -47408,7 +47408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" s="60" t="s">
         <v>98</v>
       </c>
@@ -47506,7 +47506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" s="61" t="s">
         <v>99</v>
       </c>
@@ -47604,7 +47604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
       <c r="C84" s="66"/>
@@ -47638,7 +47638,7 @@
       <c r="AE84" s="66"/>
       <c r="AF84" s="66"/>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A85" s="18" t="s">
         <v>100</v>
       </c>
@@ -47674,7 +47674,7 @@
       <c r="AE85" s="62"/>
       <c r="AF85" s="62"/>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A86" s="57" t="s">
         <v>101</v>
       </c>
@@ -47772,7 +47772,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A87" s="60" t="s">
         <v>94</v>
       </c>
@@ -47870,7 +47870,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" s="60" t="s">
         <v>95</v>
       </c>
@@ -47968,7 +47968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" s="60" t="s">
         <v>96</v>
       </c>
@@ -48066,7 +48066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A90" s="60" t="s">
         <v>97</v>
       </c>
@@ -48164,7 +48164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A91" s="60" t="s">
         <v>98</v>
       </c>
@@ -48262,7 +48262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A92" s="60" t="s">
         <v>99</v>
       </c>
@@ -48360,7 +48360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A93" s="57" t="s">
         <v>102</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A94" s="60" t="s">
         <v>94</v>
       </c>
@@ -48556,7 +48556,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A95" s="60" t="s">
         <v>95</v>
       </c>
@@ -48654,7 +48654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A96" s="60" t="s">
         <v>96</v>
       </c>
@@ -48752,7 +48752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A97" s="60" t="s">
         <v>97</v>
       </c>
@@ -48850,7 +48850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A98" s="60" t="s">
         <v>98</v>
       </c>
@@ -48948,7 +48948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A99" s="61" t="s">
         <v>99</v>
       </c>
@@ -49065,13 +49065,13 @@
       <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="21" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="32.453125" customWidth="1"/>
+    <col min="2" max="21" width="13.1796875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="38" t="s">
         <v>106</v>
       </c>
@@ -49230,7 +49230,7 @@
       </c>
       <c r="BA1" s="40"/>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
@@ -49285,7 +49285,7 @@
       <c r="AZ2" s="40"/>
       <c r="BA2" s="40"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="66"/>
       <c r="B3" s="66"/>
       <c r="C3" s="66"/>
@@ -49340,7 +49340,7 @@
       <c r="AZ3" s="66"/>
       <c r="BA3" s="40"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
         <v>107</v>
       </c>
@@ -49499,7 +49499,7 @@
       </c>
       <c r="BA4" s="40"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>38</v>
       </c>
@@ -49658,7 +49658,7 @@
       </c>
       <c r="BA5" s="40"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A6" s="60" t="s">
         <v>94</v>
       </c>
@@ -49817,7 +49817,7 @@
       </c>
       <c r="BA6" s="40"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A7" s="60" t="s">
         <v>95</v>
       </c>
@@ -49976,7 +49976,7 @@
       </c>
       <c r="BA7" s="40"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A8" s="60" t="s">
         <v>96</v>
       </c>
@@ -50135,7 +50135,7 @@
       </c>
       <c r="BA8" s="40"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
         <v>97</v>
       </c>
@@ -50294,7 +50294,7 @@
       </c>
       <c r="BA9" s="40"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A10" s="60" t="s">
         <v>98</v>
       </c>
@@ -50453,7 +50453,7 @@
       </c>
       <c r="BA10" s="40"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A11" s="60" t="s">
         <v>99</v>
       </c>
@@ -50612,7 +50612,7 @@
       </c>
       <c r="BA11" s="40"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>39</v>
       </c>
@@ -50771,7 +50771,7 @@
       </c>
       <c r="BA12" s="40"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A13" s="60" t="s">
         <v>94</v>
       </c>
@@ -50930,7 +50930,7 @@
       </c>
       <c r="BA13" s="40"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A14" s="60" t="s">
         <v>95</v>
       </c>
@@ -51089,7 +51089,7 @@
       </c>
       <c r="BA14" s="40"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A15" s="60" t="s">
         <v>96</v>
       </c>
@@ -51248,7 +51248,7 @@
       </c>
       <c r="BA15" s="40"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
         <v>97</v>
       </c>
@@ -51407,7 +51407,7 @@
       </c>
       <c r="BA16" s="40"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
         <v>98</v>
       </c>
@@ -51566,7 +51566,7 @@
       </c>
       <c r="BA17" s="40"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A18" s="61" t="s">
         <v>99</v>
       </c>
@@ -51725,7 +51725,7 @@
       </c>
       <c r="BA18" s="40"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A19" s="66"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
@@ -51780,7 +51780,7 @@
       <c r="AZ19" s="66"/>
       <c r="BA19" s="40"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
         <v>108</v>
       </c>
@@ -51939,7 +51939,7 @@
       </c>
       <c r="BA20" s="40"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A21" s="57" t="s">
         <v>101</v>
       </c>
@@ -52098,7 +52098,7 @@
       </c>
       <c r="BA21" s="40"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A22" s="60" t="s">
         <v>94</v>
       </c>
@@ -52257,7 +52257,7 @@
       </c>
       <c r="BA22" s="40"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A23" s="60" t="s">
         <v>95</v>
       </c>
@@ -52416,7 +52416,7 @@
       </c>
       <c r="BA23" s="40"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A24" s="60" t="s">
         <v>96</v>
       </c>
@@ -52575,7 +52575,7 @@
       </c>
       <c r="BA24" s="40"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A25" s="60" t="s">
         <v>97</v>
       </c>
@@ -52734,7 +52734,7 @@
       </c>
       <c r="BA25" s="40"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A26" s="60" t="s">
         <v>98</v>
       </c>
@@ -52893,7 +52893,7 @@
       </c>
       <c r="BA26" s="40"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A27" s="60" t="s">
         <v>99</v>
       </c>
@@ -53052,7 +53052,7 @@
       </c>
       <c r="BA27" s="40"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A28" s="57" t="s">
         <v>102</v>
       </c>
@@ -53211,7 +53211,7 @@
       </c>
       <c r="BA28" s="40"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A29" s="60" t="s">
         <v>94</v>
       </c>
@@ -53370,7 +53370,7 @@
       </c>
       <c r="BA29" s="40"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A30" s="60" t="s">
         <v>95</v>
       </c>
@@ -53529,7 +53529,7 @@
       </c>
       <c r="BA30" s="40"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A31" s="60" t="s">
         <v>96</v>
       </c>
@@ -53688,7 +53688,7 @@
       </c>
       <c r="BA31" s="40"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A32" s="60" t="s">
         <v>97</v>
       </c>
@@ -53847,7 +53847,7 @@
       </c>
       <c r="BA32" s="40"/>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A33" s="60" t="s">
         <v>98</v>
       </c>
@@ -54006,7 +54006,7 @@
       </c>
       <c r="BA33" s="40"/>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A34" s="61" t="s">
         <v>99</v>
       </c>
@@ -54165,7 +54165,7 @@
       </c>
       <c r="BA34" s="40"/>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -54232,17 +54232,17 @@
   </sheetPr>
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AL19" sqref="AL19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="32" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="2" max="32" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>109</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
@@ -54469,7 +54469,7 @@
         <v>11949</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>111</v>
       </c>
@@ -54598,7 +54598,7 @@
         <v>39080</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
         <v>112</v>
       </c>
@@ -54634,7 +54634,7 @@
       <c r="AE4" s="70"/>
       <c r="AF4" s="70"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>113</v>
       </c>
@@ -54763,7 +54763,7 @@
         <v>191268</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>114</v>
       </c>
@@ -54861,7 +54861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>115</v>
       </c>
@@ -54990,512 +54990,543 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="74" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="79" t="s">
         <v>131</v>
       </c>
       <c r="B15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!C84</f>
+        <v>86.62</v>
       </c>
       <c r="C15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!D84</f>
+        <v>87.68</v>
       </c>
       <c r="D15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!E84</f>
+        <v>88.76</v>
       </c>
       <c r="E15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!F84</f>
+        <v>89.85</v>
       </c>
       <c r="F15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!G84</f>
+        <v>90.87</v>
       </c>
       <c r="G15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!H84</f>
+        <v>91.9</v>
       </c>
       <c r="H15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!I84</f>
+        <v>92.9</v>
       </c>
       <c r="I15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!J84</f>
+        <v>93.81</v>
       </c>
       <c r="J15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!K84</f>
+        <v>94.54</v>
       </c>
       <c r="K15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!L84</f>
+        <v>95.22</v>
       </c>
       <c r="L15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!M84</f>
+        <v>95.86</v>
       </c>
       <c r="M15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!N84</f>
+        <v>96.47</v>
       </c>
       <c r="N15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!O84</f>
+        <v>97.19</v>
       </c>
       <c r="O15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!P84</f>
+        <v>97.76</v>
       </c>
       <c r="P15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!Q84</f>
+        <v>98.52</v>
       </c>
       <c r="Q15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!R84</f>
+        <v>99.23</v>
       </c>
       <c r="R15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!S84</f>
+        <v>99.86</v>
       </c>
       <c r="S15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!T84</f>
+        <v>100.57</v>
       </c>
       <c r="T15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!U84</f>
+        <v>100.61</v>
       </c>
       <c r="U15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!V84</f>
+        <v>101.35</v>
       </c>
       <c r="V15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!W84</f>
+        <v>102.01</v>
       </c>
       <c r="W15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!X84</f>
+        <v>102.63</v>
       </c>
       <c r="X15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!Y84</f>
+        <v>103.37</v>
       </c>
       <c r="Y15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!Z84</f>
+        <v>104.06</v>
       </c>
       <c r="Z15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!AA84</f>
+        <v>104.84</v>
       </c>
       <c r="AA15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!AB84</f>
+        <v>105.46</v>
       </c>
       <c r="AB15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!AC84</f>
+        <v>106.17</v>
       </c>
       <c r="AC15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!AD84</f>
+        <v>107.06</v>
       </c>
       <c r="AD15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!AE84</f>
+        <v>107.7</v>
       </c>
       <c r="AE15">
-        <v>118.5737001951846</v>
+        <f>'JRC Database'!AF84</f>
+        <v>108.56</v>
       </c>
       <c r="AF15">
-        <v>118.5737001951846</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+        <f>'JRC Database'!AG84</f>
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="79" t="s">
         <v>119</v>
       </c>
       <c r="B16" s="72">
-        <f>'JRC Database'!C19+'JRC Database'!C20</f>
-        <v>813660.9</v>
+        <f>'JRC Database'!C19</f>
+        <v>114258.5</v>
       </c>
       <c r="C16" s="72">
-        <f>'JRC Database'!D19+'JRC Database'!D20</f>
-        <v>836599.29999999993</v>
+        <f>'JRC Database'!D19</f>
+        <v>116847.6</v>
       </c>
       <c r="D16" s="72">
-        <f>'JRC Database'!E19+'JRC Database'!E20</f>
-        <v>860705.6</v>
+        <f>'JRC Database'!E19</f>
+        <v>119387.4</v>
       </c>
       <c r="E16" s="72">
-        <f>'JRC Database'!F19+'JRC Database'!F20</f>
-        <v>881218.1</v>
+        <f>'JRC Database'!F19</f>
+        <v>121604.6</v>
       </c>
       <c r="F16" s="72">
-        <f>'JRC Database'!G19+'JRC Database'!G20</f>
-        <v>902692.70000000007</v>
+        <f>'JRC Database'!G19</f>
+        <v>124077.3</v>
       </c>
       <c r="G16" s="72">
-        <f>'JRC Database'!H19+'JRC Database'!H20</f>
-        <v>927739.5</v>
+        <f>'JRC Database'!H19</f>
+        <v>126909.7</v>
       </c>
       <c r="H16" s="72">
-        <f>'JRC Database'!I19+'JRC Database'!I20</f>
-        <v>950968.29999999993</v>
+        <f>'JRC Database'!I19</f>
+        <v>129380.7</v>
       </c>
       <c r="I16" s="72">
-        <f>'JRC Database'!J19+'JRC Database'!J20</f>
-        <v>973669.1</v>
+        <f>'JRC Database'!J19</f>
+        <v>131561.1</v>
       </c>
       <c r="J16" s="72">
-        <f>'JRC Database'!K19+'JRC Database'!K20</f>
-        <v>996281.9</v>
+        <f>'JRC Database'!K19</f>
+        <v>133953.4</v>
       </c>
       <c r="K16" s="72">
-        <f>'JRC Database'!L19+'JRC Database'!L20</f>
-        <v>1018836.7999999999</v>
+        <f>'JRC Database'!L19</f>
+        <v>136367.1</v>
       </c>
       <c r="L16" s="72">
-        <f>'JRC Database'!M19+'JRC Database'!M20</f>
-        <v>1040205.8999999999</v>
+        <f>'JRC Database'!M19</f>
+        <v>138803.29999999999</v>
       </c>
       <c r="M16" s="72">
-        <f>'JRC Database'!N19+'JRC Database'!N20</f>
-        <v>1061469.3999999999</v>
+        <f>'JRC Database'!N19</f>
+        <v>141209.29999999999</v>
       </c>
       <c r="N16" s="72">
-        <f>'JRC Database'!O19+'JRC Database'!O20</f>
-        <v>1083662.8</v>
+        <f>'JRC Database'!O19</f>
+        <v>143690.29999999999</v>
       </c>
       <c r="O16" s="72">
-        <f>'JRC Database'!P19+'JRC Database'!P20</f>
-        <v>1103554.2</v>
+        <f>'JRC Database'!P19</f>
+        <v>146235.9</v>
       </c>
       <c r="P16" s="72">
-        <f>'JRC Database'!Q19+'JRC Database'!Q20</f>
-        <v>1124235.8</v>
+        <f>'JRC Database'!Q19</f>
+        <v>148933.29999999999</v>
       </c>
       <c r="Q16" s="72">
-        <f>'JRC Database'!R19+'JRC Database'!R20</f>
-        <v>1144297.0999999999</v>
+        <f>'JRC Database'!R19</f>
+        <v>151675.9</v>
       </c>
       <c r="R16" s="72">
-        <f>'JRC Database'!S19+'JRC Database'!S20</f>
-        <v>1165079.1000000001</v>
+        <f>'JRC Database'!S19</f>
+        <v>154456.70000000001</v>
       </c>
       <c r="S16" s="72">
-        <f>'JRC Database'!T19+'JRC Database'!T20</f>
-        <v>1187134.6000000001</v>
+        <f>'JRC Database'!T19</f>
+        <v>157286.29999999999</v>
       </c>
       <c r="T16" s="72">
-        <f>'JRC Database'!U19+'JRC Database'!U20</f>
-        <v>1207857.3</v>
+        <f>'JRC Database'!U19</f>
+        <v>160154.29999999999</v>
       </c>
       <c r="U16" s="72">
-        <f>'JRC Database'!V19+'JRC Database'!V20</f>
-        <v>1228802.8</v>
+        <f>'JRC Database'!V19</f>
+        <v>163047.79999999999</v>
       </c>
       <c r="V16" s="72">
-        <f>'JRC Database'!W19+'JRC Database'!W20</f>
-        <v>1250728.3</v>
+        <f>'JRC Database'!W19</f>
+        <v>166067.29999999999</v>
       </c>
       <c r="W16" s="72">
-        <f>'JRC Database'!X19+'JRC Database'!X20</f>
-        <v>1272911.2</v>
+        <f>'JRC Database'!X19</f>
+        <v>169148.9</v>
       </c>
       <c r="X16" s="72">
-        <f>'JRC Database'!Y19+'JRC Database'!Y20</f>
-        <v>1296389.2999999998</v>
+        <f>'JRC Database'!Y19</f>
+        <v>172340.9</v>
       </c>
       <c r="Y16" s="72">
-        <f>'JRC Database'!Z19+'JRC Database'!Z20</f>
-        <v>1319560.8</v>
+        <f>'JRC Database'!Z19</f>
+        <v>175620</v>
       </c>
       <c r="Z16" s="72">
-        <f>'JRC Database'!AA19+'JRC Database'!AA20</f>
-        <v>1342975.6</v>
+        <f>'JRC Database'!AA19</f>
+        <v>178992.3</v>
       </c>
       <c r="AA16" s="72">
-        <f>'JRC Database'!AB19+'JRC Database'!AB20</f>
-        <v>1365866.8</v>
+        <f>'JRC Database'!AB19</f>
+        <v>182455.8</v>
       </c>
       <c r="AB16" s="72">
-        <f>'JRC Database'!AC19+'JRC Database'!AC20</f>
-        <v>1390454.2</v>
+        <f>'JRC Database'!AC19</f>
+        <v>186048</v>
       </c>
       <c r="AC16" s="72">
-        <f>'JRC Database'!AD19+'JRC Database'!AD20</f>
-        <v>1413931.8</v>
+        <f>'JRC Database'!AD19</f>
+        <v>189672.2</v>
       </c>
       <c r="AD16" s="72">
-        <f>'JRC Database'!AE19+'JRC Database'!AE20</f>
-        <v>1435158</v>
+        <f>'JRC Database'!AE19</f>
+        <v>193332.4</v>
       </c>
       <c r="AE16" s="72">
-        <f>'JRC Database'!AF19+'JRC Database'!AF20</f>
-        <v>1459847.7</v>
+        <f>'JRC Database'!AF19</f>
+        <v>197199.5</v>
       </c>
       <c r="AF16" s="72">
-        <f>'JRC Database'!AG19+'JRC Database'!AG20</f>
-        <v>1481353.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+        <f>'JRC Database'!AG19</f>
+        <v>201012.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="79" t="s">
         <v>120</v>
       </c>
       <c r="B17">
-        <f>'Stock aircraft'!B5+'Stock aircraft'!B6</f>
-        <v>4828.8394913743059</v>
+        <f>'Stock aircraft'!B5</f>
+        <v>1103.3234132134789</v>
       </c>
       <c r="C17" s="76">
         <f>$B$17</f>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="D17" s="76">
         <f t="shared" ref="D17:AF17" si="0">$B$17</f>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="E17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="F17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="G17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="H17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="I17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="J17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="K17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="L17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="M17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="N17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="O17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="P17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="Q17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="R17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="S17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="T17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="U17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="V17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="W17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="X17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="Y17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="Z17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="AA17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="AB17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="AC17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="AD17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="AE17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
+        <v>1103.3234132134789</v>
       </c>
       <c r="AF17" s="76">
         <f t="shared" si="0"/>
-        <v>4828.8394913743059</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" ht="30" x14ac:dyDescent="0.25">
+        <v>1103.3234132134789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="80" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="70">
         <f t="shared" ref="B18:AF18" si="1">B16*1000000/B17/B15</f>
-        <v>1421059.6372723954</v>
+        <v>1195549.3415966209</v>
       </c>
       <c r="C18" s="70">
         <f t="shared" si="1"/>
-        <v>1461121.5775519502</v>
+        <v>1207859.5048132038</v>
       </c>
       <c r="D18" s="70">
         <f t="shared" si="1"/>
-        <v>1503223.256438056</v>
+        <v>1219097.2917275736</v>
       </c>
       <c r="E18" s="70">
         <f t="shared" si="1"/>
-        <v>1539048.3597575717</v>
+        <v>1226673.7953213444</v>
       </c>
       <c r="F18" s="70">
         <f t="shared" si="1"/>
-        <v>1576553.7717622162</v>
+        <v>1237567.7174487619</v>
       </c>
       <c r="G18" s="70">
         <f t="shared" si="1"/>
-        <v>1620298.0349102106</v>
+        <v>1251631.4632788149</v>
       </c>
       <c r="H18" s="70">
         <f t="shared" si="1"/>
-        <v>1660867.1591022087</v>
+        <v>1262266.185693406</v>
       </c>
       <c r="I18" s="70">
         <f t="shared" si="1"/>
-        <v>1700514.1307261288</v>
+        <v>1271087.7280950348</v>
       </c>
       <c r="J18" s="70">
         <f t="shared" si="1"/>
-        <v>1740007.4102553693</v>
+        <v>1284207.816815346</v>
       </c>
       <c r="K18" s="70">
         <f t="shared" si="1"/>
-        <v>1779399.5673723144</v>
+        <v>1298011.6590593678</v>
       </c>
       <c r="L18" s="70">
         <f t="shared" si="1"/>
-        <v>1816720.7235134507</v>
+        <v>1312379.7859601674</v>
       </c>
       <c r="M18" s="70">
         <f t="shared" si="1"/>
-        <v>1853857.4491409715</v>
+        <v>1326686.1256488063</v>
       </c>
       <c r="N18" s="70">
         <f t="shared" si="1"/>
-        <v>1892618.2461189772</v>
+        <v>1339994.5595486572</v>
       </c>
       <c r="O18" s="70">
         <f t="shared" si="1"/>
-        <v>1927358.5976202474</v>
+        <v>1355782.347781294</v>
       </c>
       <c r="P18" s="70">
         <f t="shared" si="1"/>
-        <v>1963479.0342716989</v>
+        <v>1370138.8318540652</v>
       </c>
       <c r="Q18" s="70">
         <f t="shared" si="1"/>
-        <v>1998516.1163057652</v>
+        <v>1385385.8736786717</v>
       </c>
       <c r="R18" s="70">
         <f t="shared" si="1"/>
-        <v>2034811.901665238</v>
+        <v>1401884.8932885656</v>
       </c>
       <c r="S18" s="70">
         <f t="shared" si="1"/>
-        <v>2073331.856144876</v>
+        <v>1417488.7207654614</v>
       </c>
       <c r="T18" s="70">
         <f t="shared" si="1"/>
-        <v>2109524.0739905466</v>
+        <v>1442761.7512103184</v>
       </c>
       <c r="U18" s="70">
         <f t="shared" si="1"/>
-        <v>2146105.4122759295</v>
+        <v>1458103.511804994</v>
       </c>
       <c r="V18" s="70">
         <f t="shared" si="1"/>
-        <v>2184398.3216157001</v>
+        <v>1475497.7205779208</v>
       </c>
       <c r="W18" s="70">
         <f t="shared" si="1"/>
-        <v>2223140.7803324084</v>
+        <v>1493798.4850905496</v>
       </c>
       <c r="X18" s="70">
         <f t="shared" si="1"/>
-        <v>2264145.3072426291</v>
+        <v>1511092.3468719074</v>
       </c>
       <c r="Y18" s="70">
         <f t="shared" si="1"/>
-        <v>2304614.3569229785</v>
+        <v>1529633.2555777936</v>
       </c>
       <c r="Z18" s="70">
         <f t="shared" si="1"/>
-        <v>2345508.3303150954</v>
+        <v>1547406.8038276145</v>
       </c>
       <c r="AA18" s="70">
         <f t="shared" si="1"/>
-        <v>2385487.8357438673</v>
+        <v>1568075.8714642036</v>
       </c>
       <c r="AB18" s="70">
         <f t="shared" si="1"/>
-        <v>2428429.7562975911</v>
+        <v>1588255.449471659</v>
       </c>
       <c r="AC18" s="70">
         <f t="shared" si="1"/>
-        <v>2469433.4099572748</v>
+        <v>1605734.0184766958</v>
       </c>
       <c r="AD18" s="70">
         <f t="shared" si="1"/>
-        <v>2506504.9910946642</v>
+        <v>1626994.5743545187</v>
       </c>
       <c r="AE18" s="70">
         <f t="shared" si="1"/>
-        <v>2549625.5787084531</v>
+        <v>1646391.5958225715</v>
       </c>
       <c r="AF18" s="70">
         <f t="shared" si="1"/>
-        <v>2587185.4815466655</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1665343.2951969535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="77" t="s">
         <v>122</v>
       </c>
@@ -55512,17 +55543,17 @@
   </sheetPr>
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="32" width="14.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>121</v>
       </c>
@@ -55620,7 +55651,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>110</v>
       </c>
@@ -55749,7 +55780,7 @@
         <v>16396</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="37" t="s">
         <v>111</v>
       </c>
@@ -55878,7 +55909,7 @@
         <v>29630</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
         <v>112</v>
       </c>
@@ -56007,7 +56038,7 @@
         <v>2871541.9453860805</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>113</v>
       </c>
@@ -56136,7 +56167,7 @@
         <v>128401</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="74" t="s">
         <v>114</v>
       </c>
@@ -56265,7 +56296,7 @@
         <v>157398.61161856045</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>115</v>
       </c>
@@ -56364,17 +56395,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="36" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="78" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" s="81" t="s">
         <v>124</v>
       </c>
@@ -56410,7 +56441,7 @@
       <c r="AE14" s="84"/>
       <c r="AF14" s="84"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>125</v>
       </c>
@@ -56508,7 +56539,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
         <v>112</v>
       </c>
@@ -56637,7 +56668,7 @@
         <v>26.48</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A17" s="36" t="s">
         <v>126</v>
       </c>
@@ -56766,7 +56797,7 @@
         <v>1166.1190807799444</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>127</v>
       </c>
@@ -56895,7 +56926,7 @@
         <v>47724.705399863306</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A20" s="73" t="s">
         <v>128</v>
       </c>
@@ -56993,7 +57024,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>112</v>
       </c>
@@ -57122,7 +57153,7 @@
         <v>12597.8</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A22" s="36" t="s">
         <v>126</v>
       </c>
@@ -57251,7 +57282,7 @@
         <v>502364.1</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A23" s="36" t="s">
         <v>127</v>
       </c>
@@ -57380,7 +57411,7 @@
         <v>21639428.300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A25" s="73" t="s">
         <v>120</v>
       </c>
@@ -57478,7 +57509,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
         <v>112</v>
       </c>
@@ -57607,7 +57638,7 @@
         <v>165.67674900357699</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A27" s="36" t="s">
         <v>126</v>
       </c>
@@ -57736,7 +57767,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A28" s="36" t="s">
         <v>127</v>
       </c>
@@ -57865,17 +57896,17 @@
         <v>2723</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
         <v>122</v>
       </c>
       <c r="B29" s="23"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A30" s="83"/>
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>129</v>
       </c>
@@ -57973,7 +58004,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A32" s="74" t="s">
         <v>112</v>
       </c>
@@ -58102,7 +58133,7 @@
         <v>2871541.9453860805</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A33" s="78" t="s">
         <v>126</v>
       </c>
@@ -58231,7 +58262,7 @@
         <v>157398.61161856045</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A34" s="78" t="s">
         <v>127</v>
       </c>
@@ -58360,7 +58391,7 @@
         <v>166515.58414787421</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A35" s="78" t="s">
         <v>114</v>
       </c>
@@ -58489,7 +58520,7 @@
         <v>161957.09788321733</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
     </row>
   </sheetData>
@@ -58505,12 +58536,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -58518,7 +58549,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -58527,7 +58558,7 @@
         <v>6967.4330230000005</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -58536,16 +58567,16 @@
         <v>23738.857683999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="69">
         <f>'BAADTbVT-passengers'!C4</f>
-        <v>907898.5757650329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>750528.86836528534</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -58554,7 +58585,7 @@
         <v>116095.71489800001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -58563,7 +58594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -58588,9 +58619,9 @@
       <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -58598,7 +58629,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -58607,7 +58638,7 @@
         <v>9443.596458</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -58616,7 +58647,7 @@
         <v>16451.418596</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -58625,7 +58656,7 @@
         <v>592289.7467545697</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -58634,7 +58665,7 @@
         <v>78958.855712000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -58643,7 +58674,7 @@
         <v>94465.627990225519</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -58658,26 +58689,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aabc5cd2cd094c10559845ba515387e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="797afa85599b0f8981d985a9380993ae" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -58906,10 +58917,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657F731C-A1B4-47FF-936A-4B6BCF428667}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -58926,20 +58968,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{657F731C-A1B4-47FF-936A-4B6BCF428667}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43343079-DE8F-4311-9B51-F202091843AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>